--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F10764-681E-434F-AD99-47D5A6301D3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F36F5-CB7A-486A-BD68-5AAFFC3017E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">作者:
 1 </t>
         </r>
         <r>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -609,6 +609,14 @@
   </si>
   <si>
     <t>CRIFUNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPFUNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,7 +734,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1004,16 +1012,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU47"/>
+  <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:AU6"/>
+      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1025,20 +1033,21 @@
     <col min="9" max="9" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="2.5" style="2" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5" style="2" hidden="1" customWidth="1"/>
-    <col min="37" max="47" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.125" style="2"/>
+    <col min="12" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="2.5" style="2" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5" style="2" hidden="1" customWidth="1"/>
+    <col min="38" max="48" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1057,99 +1066,104 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5">
+        <v>30000</v>
+      </c>
+      <c r="M1" s="5">
         <v>2000</v>
       </c>
-      <c r="M1" s="5"/>
       <c r="N1" s="5">
+        <v>1500</v>
+      </c>
+      <c r="O1" s="5">
         <v>60</v>
       </c>
-      <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5">
-        <v>30</v>
-      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5"/>
       <c r="V1" s="5">
         <v>30</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5">
-        <v>0</v>
-      </c>
+      <c r="W1" s="5">
+        <v>30</v>
+      </c>
+      <c r="X1" s="5"/>
       <c r="Y1" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="5">
         <v>2</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="5">
         <v>3</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AC1" s="5">
         <v>4</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AD1" s="5">
         <v>5</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AE1" s="5">
         <v>6</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AF1" s="5">
         <v>7</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AG1" s="5">
         <v>8</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AH1" s="5">
         <v>9</v>
       </c>
-      <c r="AH1" s="5">
-        <v>10</v>
-      </c>
       <c r="AI1" s="5">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="5">
         <v>11</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AK1" s="5">
         <v>12</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AL1" s="5">
         <v>13</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AM1" s="5">
         <v>14</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AN1" s="5">
         <v>15</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AO1" s="5">
         <v>16</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AP1" s="5">
         <v>17</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AQ1" s="5">
         <v>18</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AR1" s="5">
         <v>19</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AS1" s="5">
         <v>20</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AT1" s="5">
         <v>21</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AU1" s="5">
         <v>22</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AV1" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -1184,43 +1198,45 @@
         <v>106</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="4"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
@@ -1229,48 +1245,49 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -1305,16 +1322,16 @@
         <v>39</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>121</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>39</v>
@@ -1338,13 +1355,15 @@
         <v>39</v>
       </c>
       <c r="W3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="4"/>
+      <c r="AB3" s="5"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -1364,8 +1383,9 @@
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1382,16 +1402,16 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="4"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -1413,8 +1433,9 @@
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1458,31 +1479,31 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <v>10</v>
       </c>
       <c r="Q5" s="2">
+        <v>10</v>
+      </c>
+      <c r="R5" s="2">
         <v>8</v>
       </c>
-      <c r="R5" s="2">
-        <v>10</v>
-      </c>
       <c r="S5" s="2">
         <v>10</v>
       </c>
       <c r="T5" s="2">
+        <v>10</v>
+      </c>
+      <c r="U5" s="2">
         <v>8</v>
       </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
       <c r="V5" s="2">
         <v>1</v>
       </c>
       <c r="W5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -1515,34 +1536,34 @@
         <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="2">
         <v>70</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
         <v>80</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AM5" s="2">
         <v>70</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AN5" s="2">
         <v>120</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AO5" s="2">
         <v>80</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AP5" s="2">
         <v>130</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AQ5" s="2">
         <v>180</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>90</v>
       </c>
       <c r="AR5" s="2">
         <v>90</v>
@@ -1551,13 +1572,16 @@
         <v>90</v>
       </c>
       <c r="AT5" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AU5" s="2">
         <v>20</v>
       </c>
+      <c r="AV5" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -1601,31 +1625,31 @@
         <v>0</v>
       </c>
       <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <v>4</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>12</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>3</v>
-      </c>
-      <c r="R6" s="2">
-        <v>14</v>
       </c>
       <c r="S6" s="2">
         <v>14</v>
       </c>
       <c r="T6" s="2">
+        <v>14</v>
+      </c>
+      <c r="U6" s="2">
         <v>11</v>
       </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
       <c r="V6" s="2">
         <v>1</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -1658,23 +1682,23 @@
         <v>0</v>
       </c>
       <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
         <v>100</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>120</v>
       </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
-      </c>
       <c r="AK6" s="2">
         <v>0</v>
       </c>
       <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
         <v>40</v>
       </c>
-      <c r="AM6" s="2">
-        <v>10</v>
-      </c>
       <c r="AN6" s="2">
         <v>10</v>
       </c>
@@ -1685,22 +1709,25 @@
         <v>10</v>
       </c>
       <c r="AQ6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="2">
         <v>130</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>120</v>
       </c>
       <c r="AS6" s="2">
         <v>120</v>
       </c>
       <c r="AT6" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AU6" s="2">
         <v>40</v>
       </c>
+      <c r="AV6" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -1744,32 +1771,32 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2">
+        <v>5</v>
+      </c>
+      <c r="R7" s="2">
         <v>4</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>12</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>3</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2</v>
       </c>
       <c r="U7" s="2">
         <v>2</v>
       </c>
       <c r="V7" s="2">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2">
         <v>9</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
       <c r="X7" s="2">
         <v>0</v>
       </c>
@@ -1801,49 +1828,52 @@
         <v>0</v>
       </c>
       <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
         <v>50</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>30</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
       <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
         <v>320</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AM7" s="2">
         <v>70</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>80</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>60</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>30</v>
       </c>
       <c r="AP7" s="2">
         <v>30</v>
       </c>
       <c r="AQ7" s="2">
+        <v>30</v>
+      </c>
+      <c r="AR7" s="2">
         <v>180</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>130</v>
       </c>
       <c r="AS7" s="2">
         <v>130</v>
       </c>
       <c r="AT7" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AU7" s="2">
         <v>40</v>
       </c>
+      <c r="AV7" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1877,42 +1907,42 @@
       <c r="K8" s="2">
         <v>50</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
         <v>4</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>12</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>3</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>13</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>12</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
         <v>11</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>2</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>4</v>
       </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
       <c r="X8" s="8">
         <v>0</v>
       </c>
@@ -1944,34 +1974,34 @@
         <v>0</v>
       </c>
       <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
         <v>100</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AJ8" s="8">
         <v>120</v>
       </c>
-      <c r="AJ8" s="8">
-        <v>0</v>
-      </c>
       <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
         <v>80</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AM8" s="8">
         <v>40</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AN8" s="8">
         <v>180</v>
       </c>
-      <c r="AN8" s="8">
-        <v>10</v>
-      </c>
       <c r="AO8" s="8">
+        <v>10</v>
+      </c>
+      <c r="AP8" s="8">
         <v>120</v>
       </c>
-      <c r="AP8" s="8">
-        <v>10</v>
-      </c>
       <c r="AQ8" s="8">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="AR8" s="8">
         <v>130</v>
@@ -1980,13 +2010,16 @@
         <v>130</v>
       </c>
       <c r="AT8" s="8">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AU8" s="8">
         <v>40</v>
       </c>
+      <c r="AV8" s="8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -2030,32 +2063,32 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <v>4</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>12</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>3</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>8</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>14</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>11</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>5</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>2</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
       <c r="X9" s="2">
         <v>0</v>
       </c>
@@ -2087,23 +2120,23 @@
         <v>0</v>
       </c>
       <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
         <v>70</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AJ9" s="2">
         <v>460</v>
       </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
       <c r="AK9" s="2">
         <v>0</v>
       </c>
       <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
         <v>120</v>
       </c>
-      <c r="AM9" s="2">
-        <v>10</v>
-      </c>
       <c r="AN9" s="2">
         <v>10</v>
       </c>
@@ -2114,22 +2147,25 @@
         <v>10</v>
       </c>
       <c r="AQ9" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="2">
         <v>190</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>160</v>
       </c>
       <c r="AS9" s="2">
         <v>160</v>
       </c>
       <c r="AT9" s="2">
+        <v>160</v>
+      </c>
+      <c r="AU9" s="2">
         <v>60</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AV9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -2163,42 +2199,42 @@
       <c r="K10" s="2">
         <v>50</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
         <v>4</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>12</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>3</v>
-      </c>
-      <c r="R10" s="2">
-        <v>14</v>
       </c>
       <c r="S10" s="2">
         <v>14</v>
       </c>
       <c r="T10" s="2">
+        <v>14</v>
+      </c>
+      <c r="U10" s="2">
         <v>11</v>
       </c>
-      <c r="U10" s="8">
-        <v>1</v>
-      </c>
       <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8">
         <v>4</v>
       </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
       <c r="X10" s="8">
         <v>0</v>
       </c>
@@ -2230,25 +2266,25 @@
         <v>0</v>
       </c>
       <c r="AH10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="8">
         <v>320</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AJ10" s="8">
         <v>80</v>
       </c>
-      <c r="AJ10" s="8">
-        <v>0</v>
-      </c>
       <c r="AK10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="8">
         <v>50</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AM10" s="8">
         <v>100</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AN10" s="8">
         <v>150</v>
-      </c>
-      <c r="AN10" s="8">
-        <v>30</v>
       </c>
       <c r="AO10" s="8">
         <v>30</v>
@@ -2257,7 +2293,7 @@
         <v>30</v>
       </c>
       <c r="AQ10" s="8">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AR10" s="8">
         <v>90</v>
@@ -2266,13 +2302,16 @@
         <v>90</v>
       </c>
       <c r="AT10" s="8">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AU10" s="8">
         <v>30</v>
       </c>
+      <c r="AV10" s="8">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -2306,42 +2345,42 @@
       <c r="K11" s="2">
         <v>50</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
         <v>6</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>3</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>4.5</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>20</v>
       </c>
-      <c r="S11" s="8">
-        <v>1</v>
-      </c>
       <c r="T11" s="8">
         <v>1</v>
       </c>
       <c r="U11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8">
         <v>2</v>
       </c>
-      <c r="V11" s="8">
+      <c r="W11" s="8">
         <v>4</v>
       </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
       <c r="X11" s="8">
         <v>0</v>
       </c>
@@ -2373,34 +2412,34 @@
         <v>0</v>
       </c>
       <c r="AH11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="8">
         <v>70</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AJ11" s="8">
         <v>50</v>
       </c>
-      <c r="AJ11" s="8">
-        <v>0</v>
-      </c>
       <c r="AK11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8">
         <v>150</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AM11" s="8">
         <v>40</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AN11" s="8">
         <v>100</v>
       </c>
-      <c r="AN11" s="8">
+      <c r="AO11" s="8">
         <v>30</v>
       </c>
-      <c r="AO11" s="8">
-        <v>10</v>
-      </c>
       <c r="AP11" s="8">
         <v>10</v>
       </c>
       <c r="AQ11" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AR11" s="8">
         <v>40</v>
@@ -2409,13 +2448,16 @@
         <v>40</v>
       </c>
       <c r="AT11" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AU11" s="8">
         <v>30</v>
       </c>
+      <c r="AV11" s="8">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48">
       <c r="A12" s="2">
         <v>36</v>
       </c>
@@ -2456,35 +2498,35 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>2</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>14</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>3</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>8</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>14</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>8</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>6</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>5</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>4</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
       <c r="X12" s="2">
         <v>0</v>
       </c>
@@ -2516,34 +2558,34 @@
         <v>0</v>
       </c>
       <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
         <v>200</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AJ12" s="2">
         <v>30</v>
       </c>
-      <c r="AJ12" s="2">
-        <v>0</v>
-      </c>
       <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
         <v>100</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AM12" s="2">
         <v>60</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AN12" s="2">
         <v>150</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>120</v>
       </c>
       <c r="AO12" s="2">
         <v>120</v>
       </c>
       <c r="AP12" s="2">
+        <v>120</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>100</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>90</v>
       </c>
       <c r="AR12" s="2">
         <v>90</v>
@@ -2552,13 +2594,16 @@
         <v>90</v>
       </c>
       <c r="AT12" s="2">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AU12" s="2">
         <v>30</v>
       </c>
+      <c r="AV12" s="2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -2602,20 +2647,20 @@
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
         <v>8</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <v>14</v>
       </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
       <c r="T13" s="2">
         <v>1</v>
       </c>
@@ -2623,11 +2668,11 @@
         <v>1</v>
       </c>
       <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
         <v>9</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
       <c r="X13" s="2">
         <v>0</v>
       </c>
@@ -2659,20 +2704,20 @@
         <v>0</v>
       </c>
       <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
         <v>300</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AJ13" s="2">
         <v>30</v>
       </c>
-      <c r="AJ13" s="2">
-        <v>0</v>
-      </c>
       <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
         <v>260</v>
       </c>
-      <c r="AL13" s="2">
-        <v>10</v>
-      </c>
       <c r="AM13" s="2">
         <v>10</v>
       </c>
@@ -2686,10 +2731,10 @@
         <v>10</v>
       </c>
       <c r="AQ13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="2">
         <v>30</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>120</v>
       </c>
       <c r="AS13" s="2">
         <v>120</v>
@@ -2698,10 +2743,13 @@
         <v>120</v>
       </c>
       <c r="AU13" s="2">
+        <v>120</v>
+      </c>
+      <c r="AV13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2745,32 +2793,32 @@
         <v>0</v>
       </c>
       <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
         <v>7</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>3</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>4.5</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <v>14</v>
       </c>
-      <c r="S14" s="2">
-        <v>10</v>
-      </c>
       <c r="T14" s="2">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2">
         <v>8</v>
       </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
       <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
         <v>7</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
       <c r="X14" s="2">
         <v>0</v>
       </c>
@@ -2802,23 +2850,23 @@
         <v>0</v>
       </c>
       <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
         <v>20</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AJ14" s="2">
         <v>50</v>
       </c>
-      <c r="AJ14" s="2">
-        <v>0</v>
-      </c>
       <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
         <v>50</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AM14" s="2">
         <v>30</v>
       </c>
-      <c r="AM14" s="2">
-        <v>10</v>
-      </c>
       <c r="AN14" s="2">
         <v>10</v>
       </c>
@@ -2829,10 +2877,10 @@
         <v>10</v>
       </c>
       <c r="AQ14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR14" s="2">
         <v>30</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>120</v>
       </c>
       <c r="AS14" s="2">
         <v>120</v>
@@ -2841,10 +2889,13 @@
         <v>120</v>
       </c>
       <c r="AU14" s="2">
+        <v>120</v>
+      </c>
+      <c r="AV14" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48">
       <c r="A15" s="2">
         <v>43</v>
       </c>
@@ -2888,29 +2939,29 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
         <v>2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>8</v>
       </c>
-      <c r="R15" s="2">
+      <c r="S15" s="2">
         <v>16</v>
       </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
       <c r="T15" s="2">
         <v>1</v>
       </c>
       <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
         <v>2</v>
       </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
       <c r="W15" s="2">
         <v>0</v>
       </c>
@@ -2945,34 +2996,34 @@
         <v>0</v>
       </c>
       <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
         <v>30</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AJ15" s="2">
         <v>20</v>
       </c>
-      <c r="AJ15" s="2">
-        <v>0</v>
-      </c>
       <c r="AK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
         <v>50</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AM15" s="2">
         <v>30</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AN15" s="2">
         <v>150</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="AO15" s="2">
         <v>80</v>
       </c>
-      <c r="AO15" s="2">
-        <v>10</v>
-      </c>
       <c r="AP15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>40</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>60</v>
       </c>
       <c r="AR15" s="2">
         <v>60</v>
@@ -2981,13 +3032,16 @@
         <v>60</v>
       </c>
       <c r="AT15" s="2">
+        <v>60</v>
+      </c>
+      <c r="AU15" s="2">
         <v>20</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AV15" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48">
       <c r="A16" s="2">
         <v>39</v>
       </c>
@@ -3031,32 +3085,32 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>9</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>3</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>7</v>
       </c>
-      <c r="R16" s="2">
+      <c r="S16" s="2">
         <v>15</v>
       </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
       <c r="T16" s="2">
         <v>1</v>
       </c>
       <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
         <v>3</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <v>4</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
       <c r="X16" s="2">
         <v>0</v>
       </c>
@@ -3088,34 +3142,34 @@
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="2">
         <v>30</v>
       </c>
       <c r="AJ16" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
         <v>260</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AM16" s="2">
         <v>60</v>
       </c>
-      <c r="AM16" s="2">
+      <c r="AN16" s="2">
         <v>20</v>
       </c>
-      <c r="AN16" s="2">
+      <c r="AO16" s="2">
         <v>40</v>
       </c>
-      <c r="AO16" s="2">
-        <v>10</v>
-      </c>
       <c r="AP16" s="2">
         <v>10</v>
       </c>
       <c r="AQ16" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="2">
         <v>60</v>
@@ -3124,13 +3178,16 @@
         <v>60</v>
       </c>
       <c r="AT16" s="2">
+        <v>60</v>
+      </c>
+      <c r="AU16" s="2">
         <v>20</v>
       </c>
-      <c r="AU16" s="2">
+      <c r="AV16" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3171,32 +3228,32 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <v>9</v>
-      </c>
-      <c r="O17" s="2">
-        <v>8</v>
       </c>
       <c r="P17" s="2">
         <v>8</v>
       </c>
       <c r="Q17" s="2">
+        <v>8</v>
+      </c>
+      <c r="R17" s="2">
         <v>6</v>
       </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
       <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <v>12</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <v>8</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <v>2</v>
       </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
       <c r="W17" s="2">
         <v>0</v>
       </c>
@@ -3231,49 +3288,52 @@
         <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
         <v>260</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AM17" s="2">
         <v>30</v>
       </c>
-      <c r="AM17" s="2">
-        <v>10</v>
-      </c>
       <c r="AN17" s="2">
         <v>10</v>
       </c>
       <c r="AO17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP17" s="2">
         <v>100</v>
       </c>
-      <c r="AP17" s="2">
-        <v>10</v>
-      </c>
       <c r="AQ17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR17" s="2">
         <v>190</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>100</v>
       </c>
       <c r="AS17" s="2">
         <v>100</v>
       </c>
       <c r="AT17" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AU17" s="2">
         <v>20</v>
       </c>
+      <c r="AV17" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3308,37 +3368,37 @@
         <v>50</v>
       </c>
       <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>0.4</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
       <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
         <v>5</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>14</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>4</v>
       </c>
-      <c r="R18" s="2">
-        <v>10</v>
-      </c>
       <c r="S18" s="2">
+        <v>10</v>
+      </c>
+      <c r="T18" s="2">
         <v>3</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <v>2</v>
       </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
       <c r="V18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
         <v>0</v>
@@ -3374,23 +3434,23 @@
         <v>0</v>
       </c>
       <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2">
         <v>100</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AJ18" s="2">
         <v>20</v>
       </c>
-      <c r="AJ18" s="2">
-        <v>0</v>
-      </c>
       <c r="AK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
         <v>260</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AM18" s="2">
         <v>120</v>
       </c>
-      <c r="AM18" s="2">
-        <v>10</v>
-      </c>
       <c r="AN18" s="2">
         <v>10</v>
       </c>
@@ -3401,22 +3461,25 @@
         <v>10</v>
       </c>
       <c r="AQ18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="2">
         <v>160</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>120</v>
       </c>
       <c r="AS18" s="2">
         <v>120</v>
       </c>
       <c r="AT18" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AU18" s="2">
         <v>20</v>
       </c>
+      <c r="AV18" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48">
       <c r="A19" s="2">
         <v>27</v>
       </c>
@@ -3460,32 +3523,32 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
         <v>8</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
         <v>6</v>
       </c>
-      <c r="R19" s="2">
+      <c r="S19" s="2">
         <v>12</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>0.5</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>0.1</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <v>6</v>
       </c>
-      <c r="V19" s="2">
+      <c r="W19" s="2">
         <v>8</v>
       </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
       <c r="X19" s="2">
         <v>0</v>
       </c>
@@ -3517,34 +3580,34 @@
         <v>0</v>
       </c>
       <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2">
         <v>20</v>
       </c>
-      <c r="AI19" s="2">
-        <v>10</v>
-      </c>
       <c r="AJ19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2">
         <v>120</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AM19" s="2">
         <v>90</v>
       </c>
-      <c r="AM19" s="2">
-        <v>10</v>
-      </c>
       <c r="AN19" s="2">
         <v>10</v>
       </c>
       <c r="AO19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="2">
         <v>180</v>
       </c>
-      <c r="AP19" s="2">
-        <v>10</v>
-      </c>
       <c r="AQ19" s="2">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AR19" s="2">
         <v>120</v>
@@ -3553,13 +3616,16 @@
         <v>120</v>
       </c>
       <c r="AT19" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU19" s="2">
         <v>80</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AV19" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -3603,32 +3669,32 @@
         <v>0</v>
       </c>
       <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
         <v>4</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>12</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>3</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20" s="2">
         <v>8</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>14</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>11</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <v>5</v>
       </c>
-      <c r="V20" s="2">
+      <c r="W20" s="2">
         <v>2</v>
       </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
       <c r="X20" s="2">
         <v>0</v>
       </c>
@@ -3660,34 +3726,34 @@
         <v>0</v>
       </c>
       <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
         <v>70</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AJ20" s="2">
         <v>400</v>
       </c>
-      <c r="AJ20" s="2">
-        <v>0</v>
-      </c>
       <c r="AK20" s="2">
         <v>0</v>
       </c>
       <c r="AL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="2">
         <v>50</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AN20" s="2">
         <v>150</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AO20" s="2">
         <v>20</v>
       </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
       <c r="AP20" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="2">
         <v>60</v>
@@ -3696,13 +3762,16 @@
         <v>60</v>
       </c>
       <c r="AT20" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AU20" s="2">
         <v>10</v>
       </c>
+      <c r="AV20" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48">
       <c r="A21" s="2">
         <v>28</v>
       </c>
@@ -3745,33 +3814,33 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
         <v>7</v>
       </c>
-      <c r="P21" s="8">
-        <v>10</v>
-      </c>
       <c r="Q21" s="8">
+        <v>10</v>
+      </c>
+      <c r="R21" s="8">
         <v>4.5</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>11</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>9</v>
       </c>
-      <c r="T21" s="8">
+      <c r="U21" s="8">
         <v>8</v>
       </c>
-      <c r="U21" s="8">
+      <c r="V21" s="8">
         <v>2</v>
       </c>
-      <c r="V21" s="8">
+      <c r="W21" s="8">
         <v>4</v>
       </c>
-      <c r="W21" s="8">
-        <v>0</v>
-      </c>
       <c r="X21" s="8">
         <v>0</v>
       </c>
@@ -3803,34 +3872,34 @@
         <v>0</v>
       </c>
       <c r="AH21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="8">
         <v>100</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AJ21" s="8">
         <v>120</v>
       </c>
-      <c r="AJ21" s="8">
-        <v>0</v>
-      </c>
       <c r="AK21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8">
         <v>80</v>
       </c>
-      <c r="AL21" s="8">
+      <c r="AM21" s="8">
         <v>40</v>
       </c>
-      <c r="AM21" s="8">
-        <v>10</v>
-      </c>
       <c r="AN21" s="8">
         <v>10</v>
       </c>
       <c r="AO21" s="8">
+        <v>10</v>
+      </c>
+      <c r="AP21" s="8">
         <v>70</v>
       </c>
-      <c r="AP21" s="8">
-        <v>10</v>
-      </c>
       <c r="AQ21" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AR21" s="8">
         <v>60</v>
@@ -3839,13 +3908,16 @@
         <v>60</v>
       </c>
       <c r="AT21" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AU21" s="8">
         <v>20</v>
       </c>
+      <c r="AV21" s="8">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48">
       <c r="A22" s="2">
         <v>14</v>
       </c>
@@ -3859,19 +3931,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2">
         <v>55</v>
@@ -3892,28 +3964,28 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -3949,46 +4021,49 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ22" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK22" s="2">
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM22" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN22" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AO22" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AP22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR22" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AU22" s="2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -4011,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="2">
         <v>55</v>
@@ -4035,28 +4110,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T23" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V23" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -4092,46 +4167,49 @@
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK23" s="2">
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM23" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN23" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP23" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR23" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AS23" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU23" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -4154,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
         <v>55</v>
@@ -4172,34 +4250,34 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V24" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -4235,46 +4313,49 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ24" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK24" s="2">
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM24" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO24" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ24" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR24" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AS24" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU24" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -4291,16 +4372,16 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
         <v>55</v>
@@ -4321,28 +4402,28 @@
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R25" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T25" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -4378,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
@@ -4390,34 +4471,37 @@
         <v>0</v>
       </c>
       <c r="AM25" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AN25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR25" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AS25" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU25" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -4431,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -4440,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2">
         <v>55</v>
@@ -4452,7 +4536,7 @@
         <v>50</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -4464,28 +4548,28 @@
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S26" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U26" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4521,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ26" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK26" s="2">
         <v>0</v>
@@ -4533,34 +4617,37 @@
         <v>0</v>
       </c>
       <c r="AM26" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN26" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO26" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AP26" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AQ26" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AR26" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS26" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AU26" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4577,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -4607,28 +4694,28 @@
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R27" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4664,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ27" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK27" s="2">
         <v>0</v>
@@ -4676,34 +4763,37 @@
         <v>0</v>
       </c>
       <c r="AM27" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR27" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AU27" s="2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AV27" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -4720,16 +4810,16 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28" s="2">
         <v>55</v>
@@ -4749,29 +4839,29 @@
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0</v>
+      <c r="P28" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S28" s="8">
+        <v>16</v>
+      </c>
+      <c r="T28" s="8">
+        <v>1</v>
+      </c>
+      <c r="U28" s="8">
+        <v>1</v>
+      </c>
+      <c r="V28" s="8">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8">
+        <v>9</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -4806,47 +4896,50 @@
       <c r="AH28" s="2">
         <v>0</v>
       </c>
-      <c r="AI28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0</v>
+      <c r="AI28" s="8">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>50</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>70</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>40</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>100</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="8">
+        <v>10</v>
+      </c>
+      <c r="AQ28" s="8">
+        <v>10</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>130</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>90</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>90</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>40</v>
+      </c>
+      <c r="AV28" s="8">
+        <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -4863,16 +4956,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2">
         <v>55</v>
@@ -4881,7 +4974,7 @@
         <v>50</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -4893,28 +4986,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S29" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -4950,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ29" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK29" s="2">
         <v>0</v>
@@ -4962,34 +5055,37 @@
         <v>0</v>
       </c>
       <c r="AM29" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN29" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO29" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AP29" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR29" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AS29" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AT29" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU29" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -5006,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -5036,28 +5132,28 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R30" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
@@ -5093,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ30" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK30" s="2">
         <v>0</v>
@@ -5105,34 +5201,37 @@
         <v>0</v>
       </c>
       <c r="AM30" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR30" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS30" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT30" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AU30" s="2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -5155,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J31" s="2">
         <v>55</v>
@@ -5176,31 +5275,31 @@
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="2">
         <v>7</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>8</v>
       </c>
-      <c r="R31" s="1">
-        <v>10</v>
-      </c>
       <c r="S31" s="1">
+        <v>10</v>
+      </c>
+      <c r="T31" s="1">
         <v>5</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>4</v>
-      </c>
-      <c r="U31" s="1">
-        <v>3</v>
       </c>
       <c r="V31" s="1">
         <v>3</v>
       </c>
-      <c r="W31" s="2">
-        <v>0</v>
+      <c r="W31" s="1">
+        <v>3</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -5233,34 +5332,34 @@
         <v>0</v>
       </c>
       <c r="AH31" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
         <v>100</v>
       </c>
-      <c r="AJ31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="2">
+      <c r="AM31" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>150</v>
+      </c>
+      <c r="AO31" s="2">
         <v>100</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>100</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>150</v>
       </c>
       <c r="AP31" s="2">
         <v>150</v>
       </c>
       <c r="AQ31" s="2">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AR31" s="2">
         <v>70</v>
@@ -5269,13 +5368,16 @@
         <v>70</v>
       </c>
       <c r="AT31" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AU31" s="2">
         <v>40</v>
       </c>
+      <c r="AV31" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5292,16 +5394,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
         <v>55</v>
@@ -5322,28 +5424,28 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R32" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S32" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T32" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U32" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
@@ -5379,46 +5481,49 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK32" s="2">
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP32" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AQ32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR32" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT32" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AU32" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48">
       <c r="A33" s="2">
         <v>15</v>
       </c>
@@ -5432,19 +5537,19 @@
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="2">
         <v>55</v>
@@ -5465,28 +5570,28 @@
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S33" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -5522,46 +5627,49 @@
         <v>0</v>
       </c>
       <c r="AI33" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ33" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK33" s="2">
         <v>0</v>
       </c>
       <c r="AL33" s="2">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AM33" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN33" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AO33" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP33" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ33" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR33" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS33" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT33" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AU33" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5578,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -5587,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="2">
         <v>55</v>
@@ -5608,28 +5716,28 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -5665,46 +5773,49 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ34" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK34" s="2">
         <v>0</v>
       </c>
       <c r="AL34" s="2">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AM34" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN34" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO34" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP34" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ34" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR34" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS34" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT34" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AU34" s="2">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5721,13 +5832,13 @@
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -5745,34 +5856,34 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S35" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
@@ -5808,46 +5919,49 @@
         <v>0</v>
       </c>
       <c r="AI35" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ35" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK35" s="2">
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM35" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN35" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO35" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP35" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AQ35" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR35" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS35" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT35" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AU35" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AV35" s="2">
+        <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48">
       <c r="A36" s="8">
         <v>1</v>
       </c>
@@ -5881,16 +5995,16 @@
       <c r="K36" s="2">
         <v>50</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
       </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="8">
@@ -5989,8 +6103,11 @@
       <c r="AU36" s="8">
         <v>0</v>
       </c>
+      <c r="AV36" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6132,8 +6249,11 @@
       <c r="AU37" s="2">
         <v>0</v>
       </c>
+      <c r="AV37" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -6275,8 +6395,11 @@
       <c r="AU38" s="2">
         <v>0</v>
       </c>
+      <c r="AV38" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -6418,8 +6541,11 @@
       <c r="AU39" s="2">
         <v>0</v>
       </c>
+      <c r="AV39" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48">
       <c r="A40" s="2">
         <v>22</v>
       </c>
@@ -6561,8 +6687,11 @@
       <c r="AU40" s="2">
         <v>0</v>
       </c>
+      <c r="AV40" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48">
       <c r="A41" s="2">
         <v>23</v>
       </c>
@@ -6704,8 +6833,11 @@
       <c r="AU41" s="2">
         <v>0</v>
       </c>
+      <c r="AV41" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48">
       <c r="A42" s="2">
         <v>35</v>
       </c>
@@ -6847,8 +6979,11 @@
       <c r="AU42" s="2">
         <v>0</v>
       </c>
+      <c r="AV42" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6990,8 +7125,11 @@
       <c r="AU43" s="2">
         <v>0</v>
       </c>
+      <c r="AV43" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -7133,8 +7271,11 @@
       <c r="AU44" s="2">
         <v>0</v>
       </c>
+      <c r="AV44" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48">
       <c r="A45" s="2">
         <v>38</v>
       </c>
@@ -7153,16 +7294,16 @@
       <c r="F45" s="2">
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
+      <c r="G45" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.7</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="8">
         <v>55</v>
       </c>
       <c r="K45" s="2">
@@ -7171,113 +7312,116 @@
       <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
         <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
       </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="2">
-        <v>0</v>
+      <c r="P45" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>12</v>
+      </c>
+      <c r="R45" s="8">
+        <v>3</v>
+      </c>
+      <c r="S45" s="8">
+        <v>13</v>
+      </c>
+      <c r="T45" s="8">
+        <v>12</v>
+      </c>
+      <c r="U45" s="8">
+        <v>11</v>
+      </c>
+      <c r="V45" s="8">
+        <v>2</v>
+      </c>
+      <c r="W45" s="8">
+        <v>4</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="8">
+        <v>40</v>
+      </c>
+      <c r="AJ45" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="8">
+        <v>40</v>
+      </c>
+      <c r="AN45" s="8">
+        <v>30</v>
+      </c>
+      <c r="AO45" s="8">
+        <v>10</v>
+      </c>
+      <c r="AP45" s="8">
+        <v>20</v>
+      </c>
+      <c r="AQ45" s="8">
+        <v>10</v>
+      </c>
+      <c r="AR45" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS45" s="8">
+        <v>90</v>
+      </c>
+      <c r="AT45" s="8">
+        <v>90</v>
+      </c>
+      <c r="AU45" s="8">
+        <v>40</v>
+      </c>
+      <c r="AV45" s="8">
+        <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48">
       <c r="A46" s="2">
         <v>37</v>
       </c>
@@ -7419,8 +7563,11 @@
       <c r="AU46" s="2">
         <v>0</v>
       </c>
+      <c r="AV46" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48">
       <c r="A47" s="2">
         <v>40</v>
       </c>
@@ -7560,6 +7707,9 @@
         <v>0</v>
       </c>
       <c r="AU47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="2">
         <v>0</v>
       </c>
     </row>
@@ -7579,7 +7729,7 @@
       <selection activeCell="V38" sqref="V38:V39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -7589,7 +7739,7 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="2">
         <v>44</v>
       </c>
@@ -7729,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -7869,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8009,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8149,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -8289,13 +8439,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -8322,7 +8472,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -8415,7 +8565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -8447,7 +8597,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -8548,7 +8698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="2">
         <v>13811</v>
       </c>
@@ -8646,7 +8796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="2">
         <v>1078572878</v>
       </c>
@@ -8689,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="B14" s="1"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
@@ -8724,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="B15" s="1"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
@@ -8759,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="B16" s="1"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
@@ -8794,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22">
       <c r="B17" s="1"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
@@ -8829,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22">
       <c r="B18" s="1"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
@@ -8864,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22">
       <c r="B19" s="1"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
@@ -8899,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22">
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8933,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22">
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8967,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22">
       <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
@@ -8996,7 +9146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22">
       <c r="E29" s="2" t="s">
         <v>100</v>
       </c>
@@ -9022,7 +9172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22">
       <c r="E30" s="2" t="s">
         <v>110</v>
       </c>
@@ -9039,7 +9189,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22">
       <c r="E31" s="2" t="s">
         <v>104</v>
       </c>
@@ -9062,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22">
       <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
@@ -9085,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:28">
       <c r="E33" s="2" t="s">
         <v>112</v>
       </c>
@@ -9113,7 +9263,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:28">
       <c r="E34" s="2" t="s">
         <v>99</v>
       </c>
@@ -9158,7 +9308,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:28">
       <c r="E35" s="2" t="s">
         <v>101</v>
       </c>
@@ -9207,7 +9357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:28">
       <c r="F36" s="2">
         <f>F34/F35</f>
         <v>1.0143233925973822</v>
@@ -9255,7 +9405,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:28">
       <c r="P37" s="2">
         <v>1</v>
       </c>
@@ -9290,7 +9440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:28">
       <c r="P38" s="2">
         <v>0.1</v>
       </c>
@@ -9307,7 +9457,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:28">
       <c r="P39" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F36F5-CB7A-486A-BD68-5AAFFC3017E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEEF97-2D23-43FD-9989-F258BFAF5E11}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,10 +1015,10 @@
   <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
+      <selection pane="bottomRight" activeCell="AN37" sqref="AN37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2519,7 +2519,7 @@
         <v>8</v>
       </c>
       <c r="U12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V12" s="2">
         <v>5</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2">
         <v>4</v>
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="8">
         <v>55</v>
@@ -6005,106 +6005,106 @@
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <v>0</v>
-      </c>
-      <c r="S36" s="8">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
-        <v>0</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>3</v>
+      </c>
+      <c r="R36" s="2">
+        <v>8</v>
+      </c>
+      <c r="S36" s="2">
+        <v>14</v>
+      </c>
+      <c r="T36" s="2">
+        <v>8</v>
+      </c>
+      <c r="U36" s="2">
+        <v>5</v>
+      </c>
+      <c r="V36" s="2">
+        <v>5</v>
+      </c>
+      <c r="W36" s="2">
+        <v>4</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>120</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>150</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>120</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>120</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>80</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>90</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>90</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>90</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>30</v>
+      </c>
+      <c r="AV36" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:48">

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEEF97-2D23-43FD-9989-F258BFAF5E11}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D710343-3E0D-4CD3-A20A-A7B38DE0379E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t xml:space="preserve">Author:
 1 </t>
         </r>
         <r>
@@ -136,7 +136,29 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>根据敌方体力计算</t>
+          <t xml:space="preserve">根据敌方体力计算
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不算速度</t>
         </r>
       </text>
     </comment>
@@ -624,7 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +756,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,13 +1037,13 @@
   <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AN37" sqref="AN37"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1047,7 +1069,7 @@
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1163,7 +1185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -1287,7 +1309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -1316,10 +1338,10 @@
         <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>124</v>
@@ -1385,7 +1407,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1435,7 +1457,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -1727,7 +1749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -1873,7 +1895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2019,7 +2041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -2165,7 +2187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -2457,7 +2479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>36</v>
       </c>
@@ -2603,7 +2625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -2749,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2895,7 +2917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43</v>
       </c>
@@ -3041,7 +3063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>39</v>
       </c>
@@ -3187,7 +3209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3479,7 +3501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>27</v>
       </c>
@@ -3625,7 +3647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -3771,7 +3793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>28</v>
       </c>
@@ -3917,7 +3939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>14</v>
       </c>
@@ -4063,7 +4085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -4209,7 +4231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -4355,7 +4377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -4501,7 +4523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -4647,7 +4669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4793,7 +4815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -4939,7 +4961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -5085,7 +5107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -5231,7 +5253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -5377,7 +5399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5523,7 +5545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>15</v>
       </c>
@@ -5669,7 +5691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5815,7 +5837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5961,7 +5983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>1</v>
       </c>
@@ -6107,7 +6129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6121,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -6130,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -6151,31 +6173,31 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R37" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S37" s="2">
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V37" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
@@ -6211,49 +6233,49 @@
         <v>0</v>
       </c>
       <c r="AI37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK37" s="2">
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AN37" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO37" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP37" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AQ37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR37" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT37" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV37" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -6399,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -6545,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>22</v>
       </c>
@@ -6691,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>23</v>
       </c>
@@ -6837,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>35</v>
       </c>
@@ -6983,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -7129,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -7275,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>38</v>
       </c>
@@ -7421,7 +7443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>37</v>
       </c>
@@ -7567,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40</v>
       </c>
@@ -7729,7 +7751,7 @@
       <selection activeCell="V38" sqref="V38:V39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -7739,7 +7761,7 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>44</v>
       </c>
@@ -7879,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -8019,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8159,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8299,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -8439,13 +8461,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -8472,7 +8494,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -8565,7 +8587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -8597,7 +8619,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>13811</v>
       </c>
@@ -8796,7 +8818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1078572878</v>
       </c>
@@ -8839,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
@@ -8874,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
@@ -8909,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
@@ -8944,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
@@ -8979,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
@@ -9014,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
@@ -9049,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9083,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9117,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
@@ -9146,7 +9168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E29" s="2" t="s">
         <v>100</v>
       </c>
@@ -9172,7 +9194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E30" s="2" t="s">
         <v>110</v>
       </c>
@@ -9189,7 +9211,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="2" t="s">
         <v>104</v>
       </c>
@@ -9212,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
@@ -9235,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:28">
+    <row r="33" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E33" s="2" t="s">
         <v>112</v>
       </c>
@@ -9263,7 +9285,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="34" spans="5:28">
+    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E34" s="2" t="s">
         <v>99</v>
       </c>
@@ -9308,7 +9330,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="5:28">
+    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E35" s="2" t="s">
         <v>101</v>
       </c>
@@ -9357,7 +9379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="5:28">
+    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F36" s="2">
         <f>F34/F35</f>
         <v>1.0143233925973822</v>
@@ -9405,7 +9427,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:28">
+    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P37" s="2">
         <v>1</v>
       </c>
@@ -9440,7 +9462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="5:28">
+    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P38" s="2">
         <v>0.1</v>
       </c>
@@ -9457,7 +9479,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="5:28">
+    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P39" s="2">
         <v>0</v>
       </c>
@@ -9477,5 +9499,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D710343-3E0D-4CD3-A20A-A7B38DE0379E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BFE87-00B0-4C7B-B24F-3F3C04FAD831}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">作者:
 1 </t>
         </r>
         <r>
@@ -646,7 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +756,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1037,13 +1037,13 @@
   <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1069,7 +1069,7 @@
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1185,7 +1185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1457,7 +1457,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48">
       <c r="A12" s="2">
         <v>36</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48">
       <c r="A15" s="2">
         <v>43</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48">
       <c r="A16" s="2">
         <v>39</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48">
       <c r="A19" s="2">
         <v>27</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48">
       <c r="A21" s="2">
         <v>28</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48">
       <c r="A22" s="2">
         <v>14</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48">
       <c r="A33" s="2">
         <v>15</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48">
       <c r="A36" s="8">
         <v>1</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6146,13 +6146,13 @@
         <v>6</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>10</v>
       </c>
       <c r="Q37" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R37" s="2">
         <v>8</v>
@@ -6275,7 +6275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48">
       <c r="A40" s="2">
         <v>22</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48">
       <c r="A41" s="2">
         <v>23</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48">
       <c r="A42" s="2">
         <v>35</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48">
       <c r="A45" s="2">
         <v>38</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48">
       <c r="A46" s="2">
         <v>37</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48">
       <c r="A47" s="2">
         <v>40</v>
       </c>
@@ -7747,11 +7747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C3FA45-F533-41C0-A329-7AEA02C7272B}">
   <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38:V39"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -7761,7 +7761,7 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="2">
         <v>44</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -8494,7 +8494,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -8587,7 +8587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -8619,7 +8619,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="2">
         <v>13811</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="2">
         <v>1078572878</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="B14" s="1"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="B15" s="1"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="B16" s="1"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22">
       <c r="B17" s="1"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22">
       <c r="B18" s="1"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22">
       <c r="B19" s="1"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22">
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22">
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22">
       <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22">
       <c r="E29" s="2" t="s">
         <v>100</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22">
       <c r="E30" s="2" t="s">
         <v>110</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22">
       <c r="E31" s="2" t="s">
         <v>104</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22">
       <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:28">
       <c r="E33" s="2" t="s">
         <v>112</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:28">
       <c r="E34" s="2" t="s">
         <v>99</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:28">
       <c r="E35" s="2" t="s">
         <v>101</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:28">
       <c r="F36" s="2">
         <f>F34/F35</f>
         <v>1.0143233925973822</v>
@@ -9427,7 +9427,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:28">
       <c r="P37" s="2">
         <v>1</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:28">
       <c r="P38" s="2">
         <v>0.1</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:28">
       <c r="P39" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BFE87-00B0-4C7B-B24F-3F3C04FAD831}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11509F0C-CFEE-4A7C-A3E5-61E44230AEA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t xml:space="preserve">Author:
 1 </t>
         </r>
         <r>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -490,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暗姨夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗莽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,6 +635,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风萝莉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +650,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +760,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,16 +1038,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV47"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1061,15 +1065,19 @@
     <col min="15" max="15" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="2.5" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.25" style="2" customWidth="1"/>
+    <col min="24" max="25" width="2.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.5" style="2" customWidth="1"/>
     <col min="35" max="36" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" style="2" hidden="1" customWidth="1"/>
     <col min="38" max="48" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1185,51 +1193,51 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>37</v>
@@ -1259,14 +1267,30 @@
         <v>47</v>
       </c>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
+      <c r="Z2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4" t="s">
         <v>26</v>
@@ -1309,9 +1333,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
@@ -1323,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>39</v>
@@ -1338,22 +1362,22 @@
         <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>39</v>
@@ -1407,7 +1431,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1457,7 +1481,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>55</v>
       </c>
       <c r="K5" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1534,76 +1558,83 @@
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <v>0</v>
+        <f>P5*15</f>
+        <v>150</v>
       </c>
       <c r="AA5" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB5" s="2">
-        <v>0</v>
+        <f>S5*25</f>
+        <v>250</v>
       </c>
       <c r="AC5" s="2">
-        <v>0</v>
+        <f>T5*12</f>
+        <v>120</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <f>U5*40</f>
+        <v>320</v>
       </c>
       <c r="AE5" s="2">
-        <v>0</v>
+        <f>W5*20</f>
+        <v>20</v>
       </c>
       <c r="AF5" s="2">
-        <v>0</v>
+        <f>V5*20</f>
+        <v>20</v>
       </c>
       <c r="AG5" s="2">
-        <v>0</v>
+        <f>Q5*35</f>
+        <v>350</v>
       </c>
       <c r="AH5" s="2">
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AJ5" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AK5" s="2">
         <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM5" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN5" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AO5" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AP5" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AQ5" s="2">
+        <v>360</v>
+      </c>
+      <c r="AR5" s="2">
         <v>180</v>
       </c>
-      <c r="AR5" s="2">
-        <v>90</v>
-      </c>
       <c r="AS5" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT5" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU5" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV5" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -1635,7 +1666,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1680,37 +1711,44 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <f t="shared" ref="Z6:Z47" si="0">P6*15</f>
+        <v>60</v>
       </c>
       <c r="AA6" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="2">
-        <v>0</v>
+        <f t="shared" ref="AB6:AB47" si="1">S6*25</f>
+        <v>350</v>
       </c>
       <c r="AC6" s="2">
-        <v>0</v>
+        <f t="shared" ref="AC6:AC47" si="2">T6*12</f>
+        <v>168</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <f t="shared" ref="AD6:AD47" si="3">U6*40</f>
+        <v>440</v>
       </c>
       <c r="AE6" s="2">
-        <v>0</v>
+        <f t="shared" ref="AE6:AE47" si="4">W6*20</f>
+        <v>20</v>
       </c>
       <c r="AF6" s="2">
-        <v>0</v>
+        <f t="shared" ref="AF6:AF47" si="5">V6*20</f>
+        <v>20</v>
       </c>
       <c r="AG6" s="2">
-        <v>0</v>
+        <f t="shared" ref="AG6:AG47" si="6">Q6*35</f>
+        <v>420</v>
       </c>
       <c r="AH6" s="2">
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ6" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AK6" s="2">
         <v>0</v>
@@ -1719,22 +1757,22 @@
         <v>0</v>
       </c>
       <c r="AM6" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR6" s="2">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AS6" s="2">
         <v>120</v>
@@ -1749,7 +1787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -1781,7 +1819,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1826,78 +1864,85 @@
         <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="AC7" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="AE7" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF7" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="AG7" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>175</v>
       </c>
       <c r="AH7" s="2">
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ7" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK7" s="2">
         <v>0</v>
       </c>
       <c r="AL7" s="2">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="AM7" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN7" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>120</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>60</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>60</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>360</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>260</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>260</v>
+      </c>
+      <c r="AU7" s="2">
         <v>80</v>
       </c>
-      <c r="AO7" s="2">
-        <v>60</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>30</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>30</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>130</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>130</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>40</v>
-      </c>
       <c r="AV7" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -1915,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="8">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -1927,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="K8" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1963,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X8" s="8">
         <v>0</v>
@@ -1971,77 +2016,84 @@
       <c r="Y8" s="8">
         <v>0</v>
       </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0</v>
+      <c r="Z8" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH8" s="8">
         <v>0</v>
       </c>
       <c r="AI8" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ8" s="8">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AK8" s="8">
         <v>0</v>
       </c>
       <c r="AL8" s="8">
+        <v>160</v>
+      </c>
+      <c r="AM8" s="8">
         <v>80</v>
       </c>
-      <c r="AM8" s="8">
-        <v>40</v>
-      </c>
       <c r="AN8" s="8">
+        <v>360</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>240</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR8" s="8">
         <v>180</v>
       </c>
-      <c r="AO8" s="8">
-        <v>10</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>120</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>10</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>130</v>
-      </c>
       <c r="AS8" s="8">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AT8" s="8">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AU8" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV8" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -2061,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.75</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -2073,7 +2125,7 @@
         <v>55</v>
       </c>
       <c r="K9" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2118,37 +2170,44 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA9" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB9" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="AC9" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>440</v>
       </c>
       <c r="AE9" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="AF9" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="AG9" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH9" s="2">
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AJ9" s="2">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="AK9" s="2">
         <v>0</v>
@@ -2157,39 +2216,39 @@
         <v>0</v>
       </c>
       <c r="AM9" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR9" s="2">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AS9" s="2">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AT9" s="2">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AU9" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AV9" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>57</v>
@@ -2207,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J10" s="8">
         <v>55</v>
       </c>
       <c r="K10" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2237,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R10" s="2">
         <v>3</v>
@@ -2246,16 +2305,16 @@
         <v>14</v>
       </c>
       <c r="T10" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U10" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V10" s="8">
         <v>1</v>
       </c>
       <c r="W10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X10" s="8">
         <v>0</v>
@@ -2263,79 +2322,86 @@
       <c r="Y10" s="8">
         <v>0</v>
       </c>
-      <c r="Z10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>0</v>
+      <c r="Z10" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="6"/>
+        <v>350</v>
       </c>
       <c r="AH10" s="8">
         <v>0</v>
       </c>
       <c r="AI10" s="8">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="AJ10" s="8">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AK10" s="8">
         <v>0</v>
       </c>
       <c r="AL10" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM10" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN10" s="8">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AO10" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AP10" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AQ10" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AR10" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AS10" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT10" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU10" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV10" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>58</v>
@@ -2356,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="8">
         <v>55</v>
       </c>
       <c r="K11" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2380,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="8">
         <v>3</v>
       </c>
       <c r="R11" s="8">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="S11" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="T11" s="8">
         <v>1</v>
@@ -2398,88 +2464,95 @@
         <v>1</v>
       </c>
       <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
         <v>2</v>
       </c>
-      <c r="W11" s="8">
-        <v>4</v>
-      </c>
       <c r="X11" s="8">
         <v>0</v>
       </c>
       <c r="Y11" s="8">
         <v>0</v>
       </c>
-      <c r="Z11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0</v>
+      <c r="Z11" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH11" s="8">
         <v>0</v>
       </c>
       <c r="AI11" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ11" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK11" s="8">
         <v>0</v>
       </c>
       <c r="AL11" s="8">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AM11" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN11" s="8">
         <v>100</v>
       </c>
       <c r="AO11" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AP11" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ11" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR11" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AS11" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AT11" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AU11" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV11" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>36</v>
       </c>
@@ -2511,7 +2584,7 @@
         <v>55</v>
       </c>
       <c r="K12" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -2547,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="W12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -2556,76 +2629,83 @@
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="AA12" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB12" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="AC12" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="AE12" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF12" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="AG12" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH12" s="2">
         <v>0</v>
       </c>
       <c r="AI12" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>120</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>240</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>240</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>200</v>
       </c>
-      <c r="AJ12" s="2">
-        <v>30</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>150</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>120</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>120</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>100</v>
-      </c>
       <c r="AR12" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AS12" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT12" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU12" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV12" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -2654,10 +2734,10 @@
         <v>4</v>
       </c>
       <c r="J13" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2672,22 +2752,22 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="2">
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S13" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
@@ -2702,76 +2782,83 @@
         <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="AA13" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>275</v>
       </c>
       <c r="AC13" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF13" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG13" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH13" s="2">
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ13" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="AM13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR13" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AS13" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AT13" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AU13" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AV13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2800,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="J14" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2827,7 +2914,7 @@
         <v>4.5</v>
       </c>
       <c r="S14" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T14" s="2">
         <v>10</v>
@@ -2848,76 +2935,83 @@
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="AA14" s="2">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AB14" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC14" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="AD14" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>320</v>
       </c>
       <c r="AE14" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="AF14" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG14" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH14" s="2">
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ14" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK14" s="2">
         <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM14" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN14" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO14" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP14" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ14" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR14" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AS14" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AT14" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AU14" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AV14" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43</v>
       </c>
@@ -2949,7 +3043,7 @@
         <v>55</v>
       </c>
       <c r="K15" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -2964,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="2">
         <v>2</v>
@@ -2994,76 +3088,83 @@
         <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="AA15" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB15" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC15" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE15" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF15" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="AG15" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH15" s="2">
         <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ15" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK15" s="2">
         <v>0</v>
       </c>
       <c r="AL15" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM15" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN15" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AO15" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>80</v>
       </c>
-      <c r="AP15" s="2">
-        <v>10</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>40</v>
-      </c>
       <c r="AR15" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS15" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT15" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU15" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV15" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>39</v>
       </c>
@@ -3095,7 +3196,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3119,7 +3220,7 @@
         <v>7</v>
       </c>
       <c r="S16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T16" s="2">
         <v>1</v>
@@ -3131,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="W16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -3140,76 +3241,83 @@
         <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="AA16" s="2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB16" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC16" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD16" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE16" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF16" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="AG16" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH16" s="2">
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ16" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK16" s="2">
         <v>0</v>
       </c>
       <c r="AL16" s="2">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="AM16" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN16" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO16" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP16" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ16" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR16" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS16" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT16" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU16" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV16" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3241,7 +3349,7 @@
         <v>55</v>
       </c>
       <c r="K17" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -3286,76 +3394,83 @@
         <v>0</v>
       </c>
       <c r="Z17" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA17" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB17" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC17" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="AD17" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>320</v>
       </c>
       <c r="AE17" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF17" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="AG17" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>280</v>
       </c>
       <c r="AH17" s="2">
         <v>0</v>
       </c>
       <c r="AI17" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ17" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK17" s="2">
         <v>0</v>
       </c>
       <c r="AL17" s="2">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="AM17" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN17" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO17" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP17" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AQ17" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR17" s="2">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="AS17" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AT17" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AU17" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV17" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3387,7 +3502,7 @@
         <v>55</v>
       </c>
       <c r="K18" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -3432,76 +3547,83 @@
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="AA18" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="AC18" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="AD18" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="AE18" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF18" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG18" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>490</v>
       </c>
       <c r="AH18" s="2">
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ18" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK18" s="2">
         <v>0</v>
       </c>
       <c r="AL18" s="2">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="AM18" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR18" s="2">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="AS18" s="2">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AT18" s="2">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AU18" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV18" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>27</v>
       </c>
@@ -3533,7 +3655,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3557,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="S19" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T19" s="2">
         <v>0.5</v>
@@ -3569,7 +3691,7 @@
         <v>6</v>
       </c>
       <c r="W19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -3578,76 +3700,83 @@
         <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA19" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB19" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="AC19" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AD19" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="AE19" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="AF19" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="AG19" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH19" s="2">
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ19" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK19" s="2">
         <v>0</v>
       </c>
       <c r="AL19" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AM19" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AN19" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO19" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP19" s="2">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="AQ19" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR19" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AS19" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AT19" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AU19" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AV19" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -3667,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="2">
         <v>0.4</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.75</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -3679,7 +3808,7 @@
         <v>55</v>
       </c>
       <c r="K20" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -3724,58 +3853,65 @@
         <v>0</v>
       </c>
       <c r="Z20" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA20" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB20" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="AC20" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="AD20" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>440</v>
       </c>
       <c r="AE20" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="AF20" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="AG20" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AJ20" s="2">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
       </c>
       <c r="AL20" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM20" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AN20" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AO20" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR20" s="2">
         <v>60</v>
@@ -3787,13 +3923,13 @@
         <v>60</v>
       </c>
       <c r="AU20" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AV20" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>28</v>
       </c>
@@ -3813,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H21" s="2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -3825,7 +3961,7 @@
         <v>55</v>
       </c>
       <c r="K21" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -3869,77 +4005,84 @@
       <c r="Y21" s="8">
         <v>0</v>
       </c>
-      <c r="Z21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="8">
-        <v>0</v>
+      <c r="Z21" s="2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="6"/>
+        <v>350</v>
       </c>
       <c r="AH21" s="8">
         <v>0</v>
       </c>
       <c r="AI21" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ21" s="8">
+        <v>240</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>160</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO21" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP21" s="8">
+        <v>140</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR21" s="8">
         <v>120</v>
       </c>
-      <c r="AK21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="8">
-        <v>80</v>
-      </c>
-      <c r="AM21" s="8">
-        <v>40</v>
-      </c>
-      <c r="AN21" s="8">
-        <v>10</v>
-      </c>
-      <c r="AO21" s="8">
-        <v>10</v>
-      </c>
-      <c r="AP21" s="8">
-        <v>70</v>
-      </c>
-      <c r="AQ21" s="8">
-        <v>10</v>
-      </c>
-      <c r="AR21" s="8">
-        <v>60</v>
-      </c>
       <c r="AS21" s="8">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT21" s="8">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU21" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV21" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>14</v>
       </c>
@@ -3971,7 +4114,7 @@
         <v>55</v>
       </c>
       <c r="K22" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -3992,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="R22" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S22" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T22" s="2">
         <v>2</v>
@@ -4016,76 +4159,83 @@
         <v>0</v>
       </c>
       <c r="Z22" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA22" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB22" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>425</v>
       </c>
       <c r="AC22" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="AD22" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="AE22" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="AF22" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="AG22" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH22" s="2">
         <v>0</v>
       </c>
       <c r="AI22" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ22" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK22" s="2">
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="AM22" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN22" s="2">
+        <v>360</v>
+      </c>
+      <c r="AO22" s="2">
         <v>180</v>
       </c>
-      <c r="AO22" s="2">
-        <v>90</v>
-      </c>
       <c r="AP22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR22" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS22" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT22" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AV22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -4117,7 +4267,7 @@
         <v>55</v>
       </c>
       <c r="K23" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -4162,76 +4312,83 @@
         <v>0</v>
       </c>
       <c r="Z23" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA23" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB23" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>275</v>
       </c>
       <c r="AC23" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="AD23" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="AE23" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="AF23" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="AG23" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>280</v>
       </c>
       <c r="AH23" s="2">
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ23" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK23" s="2">
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AM23" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN23" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AO23" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP23" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AQ23" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR23" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AS23" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT23" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU23" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV23" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -4263,7 +4420,7 @@
         <v>55</v>
       </c>
       <c r="K24" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -4308,76 +4465,83 @@
         <v>0</v>
       </c>
       <c r="Z24" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="AA24" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB24" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="AC24" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="AD24" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="AE24" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="AF24" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="AG24" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH24" s="2">
         <v>0</v>
       </c>
       <c r="AI24" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ24" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK24" s="2">
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="AM24" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN24" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO24" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP24" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ24" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AR24" s="2">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="AS24" s="2">
+        <v>240</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>240</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>80</v>
+      </c>
+      <c r="AV24" s="2">
         <v>120</v>
       </c>
-      <c r="AT24" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV24" s="2">
-        <v>60</v>
-      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -4409,7 +4573,7 @@
         <v>55</v>
       </c>
       <c r="K25" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -4439,7 +4603,7 @@
         <v>12</v>
       </c>
       <c r="U25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V25" s="2">
         <v>1</v>
@@ -4454,37 +4618,44 @@
         <v>0</v>
       </c>
       <c r="Z25" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA25" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB25" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="AC25" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="AD25" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="AE25" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="AF25" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG25" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>350</v>
       </c>
       <c r="AH25" s="2">
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ25" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
@@ -4493,22 +4664,22 @@
         <v>0</v>
       </c>
       <c r="AM25" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN25" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO25" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP25" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ25" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR25" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AS25" s="2">
         <v>120</v>
@@ -4517,13 +4688,13 @@
         <v>120</v>
       </c>
       <c r="AU25" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AV25" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -4555,10 +4726,10 @@
         <v>55</v>
       </c>
       <c r="K26" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L26" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -4579,7 +4750,7 @@
         <v>7</v>
       </c>
       <c r="S26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T26" s="2">
         <v>4</v>
@@ -4591,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="W26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4600,37 +4771,44 @@
         <v>0</v>
       </c>
       <c r="Z26" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="AA26" s="2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB26" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>325</v>
       </c>
       <c r="AC26" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="AD26" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="AE26" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF26" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="AG26" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH26" s="2">
         <v>0</v>
       </c>
       <c r="AI26" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ26" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK26" s="2">
         <v>0</v>
@@ -4639,37 +4817,37 @@
         <v>0</v>
       </c>
       <c r="AM26" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AN26" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>200</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>160</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>160</v>
+      </c>
+      <c r="AR26" s="2">
         <v>120</v>
       </c>
-      <c r="AO26" s="2">
-        <v>140</v>
-      </c>
-      <c r="AP26" s="2">
-        <v>140</v>
-      </c>
-      <c r="AQ26" s="2">
+      <c r="AS26" s="2">
         <v>120</v>
       </c>
-      <c r="AR26" s="2">
-        <v>60</v>
-      </c>
-      <c r="AS26" s="2">
-        <v>60</v>
-      </c>
       <c r="AT26" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU26" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV26" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4701,7 +4879,7 @@
         <v>55</v>
       </c>
       <c r="K27" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -4746,37 +4924,44 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA27" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB27" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>175</v>
       </c>
       <c r="AC27" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="AD27" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>440</v>
       </c>
       <c r="AE27" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="AF27" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG27" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH27" s="2">
         <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ27" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AK27" s="2">
         <v>0</v>
@@ -4785,37 +4970,37 @@
         <v>0</v>
       </c>
       <c r="AM27" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR27" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="AS27" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT27" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU27" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV27" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -4847,7 +5032,7 @@
         <v>55</v>
       </c>
       <c r="K28" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -4892,76 +5077,83 @@
         <v>0</v>
       </c>
       <c r="Z28" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="AA28" s="2">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AB28" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC28" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD28" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE28" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF28" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG28" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH28" s="2">
         <v>0</v>
       </c>
       <c r="AI28" s="8">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AJ28" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK28" s="8">
         <v>0</v>
       </c>
       <c r="AL28" s="8">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AM28" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN28" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AO28" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AP28" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ28" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR28" s="8">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AS28" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT28" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU28" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV28" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -4993,7 +5185,7 @@
         <v>55</v>
       </c>
       <c r="K29" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L29" s="2">
         <v>0.03</v>
@@ -5038,76 +5230,83 @@
         <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="AA29" s="2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB29" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="AC29" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD29" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE29" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="AF29" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="AG29" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH29" s="2">
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ29" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK29" s="2">
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AM29" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN29" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AO29" s="2">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AP29" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ29" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR29" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AS29" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AT29" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AU29" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV29" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -5139,7 +5338,7 @@
         <v>55</v>
       </c>
       <c r="K30" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -5184,37 +5383,44 @@
         <v>0</v>
       </c>
       <c r="Z30" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA30" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB30" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>175</v>
       </c>
       <c r="AC30" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="AD30" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>440</v>
       </c>
       <c r="AE30" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="AF30" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG30" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH30" s="2">
         <v>0</v>
       </c>
       <c r="AI30" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ30" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AK30" s="2">
         <v>0</v>
@@ -5223,37 +5429,37 @@
         <v>0</v>
       </c>
       <c r="AM30" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN30" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO30" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP30" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ30" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR30" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="AS30" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT30" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU30" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV30" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -5285,7 +5491,7 @@
         <v>55</v>
       </c>
       <c r="K31" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -5330,76 +5536,83 @@
         <v>0</v>
       </c>
       <c r="Z31" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA31" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB31" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="AC31" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="AD31" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="AE31" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF31" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="AG31" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>245</v>
       </c>
       <c r="AH31" s="2">
         <v>0</v>
       </c>
       <c r="AI31" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" s="2">
         <v>200</v>
       </c>
-      <c r="AJ31" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>150</v>
-      </c>
       <c r="AO31" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AP31" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AQ31" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AR31" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AS31" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AT31" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AU31" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV31" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5431,7 +5644,7 @@
         <v>55</v>
       </c>
       <c r="K32" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -5476,76 +5689,83 @@
         <v>0</v>
       </c>
       <c r="Z32" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA32" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB32" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="AC32" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="AD32" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>440</v>
       </c>
       <c r="AE32" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF32" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG32" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH32" s="2">
         <v>0</v>
       </c>
       <c r="AI32" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ32" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK32" s="2">
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AM32" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN32" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO32" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP32" s="2">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AQ32" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR32" s="2">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AS32" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AT32" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AU32" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV32" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>15</v>
       </c>
@@ -5577,7 +5797,7 @@
         <v>55</v>
       </c>
       <c r="K33" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -5601,7 +5821,7 @@
         <v>10</v>
       </c>
       <c r="S33" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T33" s="2">
         <v>1</v>
@@ -5622,76 +5842,83 @@
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA33" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB33" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="AC33" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD33" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE33" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF33" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="AG33" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH33" s="2">
         <v>0</v>
       </c>
       <c r="AI33" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ33" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK33" s="2">
         <v>0</v>
       </c>
       <c r="AL33" s="2">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="AM33" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN33" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AO33" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AP33" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ33" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AR33" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS33" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT33" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU33" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV33" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5720,10 +5947,10 @@
         <v>4</v>
       </c>
       <c r="J34" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K34" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -5738,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="2">
         <v>2</v>
@@ -5747,7 +5974,7 @@
         <v>10</v>
       </c>
       <c r="S34" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T34" s="2">
         <v>1</v>
@@ -5768,76 +5995,83 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA34" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB34" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>325</v>
       </c>
       <c r="AC34" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD34" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE34" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="AF34" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG34" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH34" s="2">
         <v>0</v>
       </c>
       <c r="AI34" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ34" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK34" s="2">
         <v>0</v>
       </c>
       <c r="AL34" s="2">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="AM34" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN34" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO34" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP34" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ34" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR34" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AS34" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT34" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU34" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AV34" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5869,7 +6103,7 @@
         <v>55</v>
       </c>
       <c r="K35" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -5914,78 +6148,85 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA35" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB35" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="AC35" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD35" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE35" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF35" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="AG35" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH35" s="2">
         <v>0</v>
       </c>
       <c r="AI35" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ35" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK35" s="2">
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM35" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN35" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO35" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP35" s="2">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AQ35" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR35" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS35" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT35" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU35" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV35" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -6003,19 +6244,19 @@
         <v>0</v>
       </c>
       <c r="G36" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H36" s="8">
         <v>0.8</v>
       </c>
       <c r="I36" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" s="8">
         <v>55</v>
       </c>
       <c r="K36" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -6048,10 +6289,10 @@
         <v>5</v>
       </c>
       <c r="V36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -6060,28 +6301,35 @@
         <v>0</v>
       </c>
       <c r="Z36" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="AA36" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB36" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="AC36" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="AD36" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="AE36" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF36" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="AG36" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH36" s="2">
         <v>0</v>
@@ -6090,46 +6338,46 @@
         <v>150</v>
       </c>
       <c r="AJ36" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK36" s="2">
         <v>0</v>
       </c>
       <c r="AL36" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM36" s="2">
         <v>120</v>
       </c>
-      <c r="AM36" s="2">
-        <v>60</v>
-      </c>
       <c r="AN36" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AO36" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AP36" s="2">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AQ36" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AR36" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AS36" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AT36" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU36" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AV36" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6161,7 +6409,7 @@
         <v>55</v>
       </c>
       <c r="K37" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -6206,76 +6454,83 @@
         <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA37" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB37" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC37" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="AD37" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="AE37" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF37" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="AG37" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>210</v>
       </c>
       <c r="AH37" s="2">
         <v>0</v>
       </c>
       <c r="AI37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AK37" s="2">
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AM37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN37" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO37" s="2">
         <v>120</v>
       </c>
-      <c r="AO37" s="2">
-        <v>60</v>
-      </c>
       <c r="AP37" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AQ37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AR37" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AS37" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT37" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -6292,22 +6547,22 @@
         <v>1</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J38" s="2">
         <v>55</v>
       </c>
       <c r="K38" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -6316,34 +6571,34 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S38" s="2">
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -6352,84 +6607,91 @@
         <v>0</v>
       </c>
       <c r="Z38" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA38" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB38" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC38" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD38" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE38" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="AF38" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="AG38" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH38" s="2">
         <v>0</v>
       </c>
       <c r="AI38" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ38" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK38" s="2">
         <v>0</v>
       </c>
       <c r="AL38" s="2">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AM38" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN38" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO38" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP38" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AQ38" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR38" s="2">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AT38" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AU38" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AV38" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2">
-        <v>1013954585</v>
+        <v>3104974405</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -6438,22 +6700,22 @@
         <v>1</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K39" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -6468,16 +6730,16 @@
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R39" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -6486,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="V39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -6498,81 +6760,88 @@
         <v>0</v>
       </c>
       <c r="Z39" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="AA39" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB39" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC39" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD39" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE39" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF39" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG39" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>140</v>
       </c>
       <c r="AH39" s="2">
         <v>0</v>
       </c>
       <c r="AI39" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AJ39" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
       </c>
       <c r="AL39" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AM39" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN39" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO39" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP39" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ39" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR39" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS39" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AT39" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AU39" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AV39" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2">
         <v>1493233944</v>
@@ -6584,22 +6853,22 @@
         <v>3</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K40" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -6614,16 +6883,16 @@
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -6632,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -6644,81 +6913,88 @@
         <v>0</v>
       </c>
       <c r="Z40" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="AA40" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB40" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC40" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD40" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE40" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF40" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG40" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH40" s="2">
         <v>0</v>
       </c>
       <c r="AI40" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AJ40" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK40" s="2">
         <v>0</v>
       </c>
       <c r="AL40" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM40" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN40" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO40" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AP40" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ40" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR40" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS40" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AT40" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AU40" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AV40" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2">
         <v>1515436657</v>
@@ -6730,25 +7006,25 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K41" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M41" s="2">
         <v>0</v>
@@ -6760,16 +7036,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -6778,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="V41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -6790,81 +7066,88 @@
         <v>0</v>
       </c>
       <c r="Z41" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="AA41" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB41" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="AC41" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD41" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE41" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF41" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG41" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="AH41" s="2">
         <v>0</v>
       </c>
       <c r="AI41" s="2">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AJ41" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AM41" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN41" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO41" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AP41" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ41" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR41" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS41" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AT41" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AU41" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AV41" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2">
         <v>1830649078</v>
@@ -6876,22 +7159,22 @@
         <v>1</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2">
         <v>55</v>
       </c>
       <c r="K42" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -6900,34 +7183,34 @@
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -6936,81 +7219,88 @@
         <v>0</v>
       </c>
       <c r="Z42" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="AA42" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB42" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="AC42" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD42" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE42" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="AF42" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="AG42" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="AH42" s="2">
         <v>0</v>
       </c>
       <c r="AI42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ42" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK42" s="2">
         <v>0</v>
       </c>
       <c r="AL42" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM42" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN42" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO42" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP42" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AQ42" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR42" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AS42" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AT42" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AU42" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AV42" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2">
         <v>2478730187</v>
@@ -7022,22 +7312,22 @@
         <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" s="2">
         <v>55</v>
       </c>
       <c r="K43" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -7052,28 +7342,28 @@
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R43" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W43" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X43" s="2">
         <v>0</v>
@@ -7082,81 +7372,88 @@
         <v>0</v>
       </c>
       <c r="Z43" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="AA43" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB43" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="AC43" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD43" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE43" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF43" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="AG43" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="AH43" s="2">
         <v>0</v>
       </c>
       <c r="AI43" s="2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AJ43" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK43" s="2">
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AM43" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN43" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO43" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AP43" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ43" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR43" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AS43" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT43" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU43" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV43" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2">
         <v>929498411</v>
@@ -7168,28 +7465,28 @@
         <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K44" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -7198,28 +7495,28 @@
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R44" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S44" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X44" s="2">
         <v>0</v>
@@ -7228,28 +7525,35 @@
         <v>0</v>
       </c>
       <c r="Z44" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA44" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB44" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="AC44" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="AD44" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AE44" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="AF44" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG44" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>490</v>
       </c>
       <c r="AH44" s="2">
         <v>0</v>
@@ -7297,12 +7601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2">
         <v>2478730055</v>
@@ -7320,16 +7624,16 @@
         <v>0.35</v>
       </c>
       <c r="H45" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="8">
         <v>55</v>
       </c>
       <c r="K45" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -7365,7 +7669,7 @@
         <v>2</v>
       </c>
       <c r="W45" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X45" s="8">
         <v>0</v>
@@ -7373,38 +7677,45 @@
       <c r="Y45" s="8">
         <v>0</v>
       </c>
-      <c r="Z45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="8">
-        <v>0</v>
+      <c r="Z45" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB45" s="2">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="AC45" s="2">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="AD45" s="2">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="AE45" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF45" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AG45" s="2">
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH45" s="8">
         <v>0</v>
       </c>
       <c r="AI45" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ45" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AK45" s="8">
         <v>0</v>
@@ -7413,42 +7724,42 @@
         <v>0</v>
       </c>
       <c r="AM45" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN45" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AO45" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP45" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ45" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AR45" s="8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AS45" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AT45" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AU45" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV45" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
         <v>2250799209</v>
@@ -7463,10 +7774,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -7475,7 +7786,7 @@
         <v>55</v>
       </c>
       <c r="K46" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -7484,34 +7795,34 @@
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R46" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S46" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T46" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U46" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V46" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W46" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -7520,37 +7831,44 @@
         <v>0</v>
       </c>
       <c r="Z46" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="AA46" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB46" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="AC46" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="AD46" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="AE46" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="AF46" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="AG46" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>140</v>
       </c>
       <c r="AH46" s="2">
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ46" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK46" s="2">
         <v>0</v>
@@ -7559,42 +7877,42 @@
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN46" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AO46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP46" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AQ46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR46" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AS46" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT46" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2">
         <v>1633085506</v>
@@ -7606,10 +7924,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -7621,7 +7939,7 @@
         <v>55</v>
       </c>
       <c r="K47" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -7636,28 +7954,28 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R47" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U47" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -7666,73 +7984,85 @@
         <v>0</v>
       </c>
       <c r="Z47" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA47" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB47" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="AC47" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="AD47" s="2">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>440</v>
       </c>
       <c r="AE47" s="2">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="AF47" s="2">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AG47" s="2">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>420</v>
       </c>
       <c r="AH47" s="2">
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ47" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AK47" s="2">
         <v>0</v>
       </c>
       <c r="AL47" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM47" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR47" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AS47" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AT47" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AU47" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV47" s="2">
-        <v>0</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7747,11 +8077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C3FA45-F533-41C0-A329-7AEA02C7272B}">
   <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -7761,7 +8091,7 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>44</v>
       </c>
@@ -7901,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -8041,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8181,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8321,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -8461,13 +8791,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -8494,7 +8824,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -8587,7 +8917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -8619,7 +8949,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -8720,7 +9050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>13811</v>
       </c>
@@ -8818,7 +9148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1078572878</v>
       </c>
@@ -8861,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
@@ -8896,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
@@ -8931,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
@@ -8966,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
@@ -9001,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
@@ -9036,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
@@ -9071,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9105,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9139,9 +9469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2">
         <v>12015</v>
@@ -9156,21 +9486,21 @@
         <v>13500</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="O28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2">
         <v>714</v>
@@ -9185,18 +9515,18 @@
         <v>637</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="O29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2">
         <v>626</v>
@@ -9211,9 +9541,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2">
         <v>101</v>
@@ -9234,9 +9564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2">
         <v>30</v>
@@ -9257,9 +9587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:28">
+    <row r="33" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="2">
         <v>50</v>
@@ -9285,9 +9615,9 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="34" spans="5:28">
+    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="2">
         <f>F28*(333+F30)/287/15/10/3.5</f>
@@ -9330,9 +9660,9 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="5:28">
+    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2">
         <f>F29*(1+F32/100*F33/100)*F31/110/10</f>
@@ -9379,7 +9709,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="5:28">
+    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F36" s="2">
         <f>F34/F35</f>
         <v>1.0143233925973822</v>
@@ -9427,7 +9757,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:28">
+    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P37" s="2">
         <v>1</v>
       </c>
@@ -9462,7 +9792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="5:28">
+    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P38" s="2">
         <v>0.1</v>
       </c>
@@ -9479,7 +9809,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="5:28">
+    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P39" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11509F0C-CFEE-4A7C-A3E5-61E44230AEA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D007BE6-665B-438E-AA20-B326A4B1D321}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -33,10 +33,21 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="DengXian"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">:
 1 </t>
         </r>
         <r>
@@ -650,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +688,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -760,7 +779,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,13 +1060,13 @@
   <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AN21" sqref="AN21"/>
+      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1077,7 +1096,7 @@
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1193,7 +1212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -1431,7 +1450,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1481,500 +1500,500 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:48">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2278861141</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8">
+        <v>55</v>
+      </c>
+      <c r="K5" s="8">
+        <v>40</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8">
+        <v>3</v>
+      </c>
+      <c r="S5" s="8">
+        <v>12</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>2</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <f t="shared" ref="Z5:Z47" si="0">P5*15</f>
+        <v>75</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="8">
+        <f t="shared" ref="AB5:AB47" si="1">S5*25</f>
+        <v>300</v>
+      </c>
+      <c r="AC5" s="8">
+        <f t="shared" ref="AC5:AC47" si="2">T5*12</f>
+        <v>12</v>
+      </c>
+      <c r="AD5" s="8">
+        <f t="shared" ref="AD5:AD47" si="3">U5*40</f>
+        <v>40</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="shared" ref="AE5:AE47" si="4">W5*20</f>
+        <v>40</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" ref="AF5:AF47" si="5">V5*20</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" ref="AG5:AG47" si="6">Q5*35</f>
+        <v>105</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>240</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>100</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>20</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>80</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1998233295</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>55</v>
+      </c>
+      <c r="K6" s="8">
+        <v>40</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>3</v>
+      </c>
+      <c r="R6" s="8">
+        <v>8</v>
+      </c>
+      <c r="S6" s="8">
+        <v>14</v>
+      </c>
+      <c r="T6" s="8">
+        <v>8</v>
+      </c>
+      <c r="U6" s="8">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8">
+        <v>4</v>
+      </c>
+      <c r="W6" s="8">
+        <v>3</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AG6" s="2">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>150</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>60</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>400</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>120</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>160</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>200</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>210</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>200</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>120</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1325114940</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>55</v>
+      </c>
+      <c r="K7" s="8">
+        <v>40</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>12</v>
+      </c>
+      <c r="R7" s="8">
+        <v>3</v>
+      </c>
+      <c r="S7" s="8">
+        <v>13</v>
+      </c>
+      <c r="T7" s="8">
+        <v>12</v>
+      </c>
+      <c r="U7" s="8">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2">
-        <v>918404274</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2">
-        <v>40</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2">
-        <v>8</v>
-      </c>
-      <c r="S5" s="2">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2">
-        <v>10</v>
-      </c>
-      <c r="U5" s="2">
-        <v>8</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <f>P5*15</f>
-        <v>150</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>120</v>
-      </c>
-      <c r="AB5" s="2">
-        <f>S5*25</f>
-        <v>250</v>
-      </c>
-      <c r="AC5" s="2">
-        <f>T5*12</f>
-        <v>120</v>
-      </c>
-      <c r="AD5" s="2">
-        <f>U5*40</f>
-        <v>320</v>
-      </c>
-      <c r="AE5" s="2">
-        <f>W5*20</f>
-        <v>20</v>
-      </c>
-      <c r="AF5" s="2">
-        <f>V5*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG5" s="2">
-        <f>Q5*35</f>
-        <v>350</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>3</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="AC7" s="8">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
         <v>200</v>
       </c>
-      <c r="AM5" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN5" s="2">
+      <c r="AJ7" s="8">
         <v>240</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
         <v>160</v>
       </c>
-      <c r="AP5" s="2">
-        <v>260</v>
-      </c>
-      <c r="AQ5" s="2">
+      <c r="AM7" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN7" s="8">
         <v>360</v>
       </c>
-      <c r="AR5" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>40</v>
+      <c r="AO7" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>240</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>80</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>60</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>60</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1062382860</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
+    <row r="8" spans="1:48">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1932694748</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.1</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>12</v>
-      </c>
-      <c r="R6" s="2">
-        <v>3</v>
-      </c>
-      <c r="S6" s="2">
-        <v>14</v>
-      </c>
-      <c r="T6" s="2">
-        <v>14</v>
-      </c>
-      <c r="U6" s="2">
-        <v>11</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" ref="Z6:Z47" si="0">P6*15</f>
-        <v>60</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="2">
-        <f t="shared" ref="AB6:AB47" si="1">S6*25</f>
-        <v>350</v>
-      </c>
-      <c r="AC6" s="2">
-        <f t="shared" ref="AC6:AC47" si="2">T6*12</f>
-        <v>168</v>
-      </c>
-      <c r="AD6" s="2">
-        <f t="shared" ref="AD6:AD47" si="3">U6*40</f>
-        <v>440</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" ref="AE6:AE47" si="4">W6*20</f>
-        <v>20</v>
-      </c>
-      <c r="AF6" s="2">
-        <f t="shared" ref="AF6:AF47" si="5">V6*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AG47" si="6">Q6*35</f>
-        <v>420</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>240</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1135924797</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2">
-        <v>4</v>
-      </c>
-      <c r="S7" s="2">
-        <v>12</v>
-      </c>
-      <c r="T7" s="2">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2</v>
-      </c>
-      <c r="V7" s="2">
-        <v>2</v>
-      </c>
-      <c r="W7" s="2">
-        <v>9</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>60</v>
-      </c>
-      <c r="AB7" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="AC7" s="2">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="AD7" s="2">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="AF7" s="2">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="AG7" s="2">
-        <f t="shared" si="6"/>
-        <v>175</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>160</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>120</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>60</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>60</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>360</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>260</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>260</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>80</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1325114940</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.2</v>
-      </c>
       <c r="I8" s="8">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J8" s="8">
         <v>55</v>
       </c>
-      <c r="K8" s="2">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="8">
+        <v>40</v>
+      </c>
+      <c r="L8" s="8">
         <v>0</v>
       </c>
       <c r="M8" s="8">
@@ -1983,29 +2002,29 @@
       <c r="N8" s="8">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="8">
         <v>0</v>
       </c>
       <c r="P8" s="8">
         <v>4</v>
       </c>
       <c r="Q8" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R8" s="8">
         <v>3</v>
       </c>
       <c r="S8" s="8">
+        <v>14</v>
+      </c>
+      <c r="T8" s="8">
         <v>13</v>
       </c>
-      <c r="T8" s="8">
-        <v>12</v>
-      </c>
       <c r="U8" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="8">
         <v>3</v>
@@ -2016,471 +2035,471 @@
       <c r="Y8" s="8">
         <v>0</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="8">
         <v>45</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="8">
         <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="AC8" s="2">
+        <v>350</v>
+      </c>
+      <c r="AC8" s="8">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AE8" s="8">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>640</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>160</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>200</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>300</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>60</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>60</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>120</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1950401450</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3</v>
+      </c>
+      <c r="S9" s="8">
+        <v>14</v>
+      </c>
+      <c r="T9" s="2">
+        <v>12</v>
+      </c>
+      <c r="U9" s="2">
+        <v>10</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="AC9" s="2">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD9" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>60</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>60</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>60</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1384644876</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>12</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
+        <v>14</v>
+      </c>
+      <c r="U10" s="2">
+        <v>11</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="AD10" s="2">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE10" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AF8" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="AG8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG10" s="2">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>200</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>240</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>160</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN8" s="8">
-        <v>360</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>240</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR8" s="8">
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN10" s="2">
         <v>180</v>
       </c>
-      <c r="AS8" s="8">
-        <v>260</v>
-      </c>
-      <c r="AT8" s="8">
-        <v>260</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV8" s="8">
-        <v>80</v>
+      <c r="AO10" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1819798421</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+    <row r="11" spans="1:48">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2">
+        <v>974506093</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
         <v>55</v>
       </c>
-      <c r="K9" s="2">
-        <v>40</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="K11" s="2">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <v>12</v>
       </c>
-      <c r="R9" s="2">
-        <v>3</v>
-      </c>
-      <c r="S9" s="2">
-        <v>8</v>
-      </c>
-      <c r="T9" s="2">
-        <v>14</v>
-      </c>
-      <c r="U9" s="2">
-        <v>11</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>7</v>
+      </c>
+      <c r="S11" s="2">
+        <v>12</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
         <v>5</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W11" s="2">
         <v>2</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>620</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>260</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>220</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>220</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>80</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1932694748</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="J10" s="8">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2">
-        <v>40</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>10</v>
-      </c>
-      <c r="R10" s="2">
-        <v>3</v>
-      </c>
-      <c r="S10" s="2">
-        <v>14</v>
-      </c>
-      <c r="T10" s="2">
-        <v>13</v>
-      </c>
-      <c r="U10" s="2">
-        <v>10</v>
-      </c>
-      <c r="V10" s="8">
-        <v>1</v>
-      </c>
-      <c r="W10" s="8">
-        <v>3</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB10" s="2">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="AC10" s="2">
-        <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="AD10" s="2">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AF10" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>640</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>160</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>100</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>200</v>
-      </c>
-      <c r="AN10" s="8">
-        <v>300</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>60</v>
-      </c>
-      <c r="AP10" s="8">
-        <v>60</v>
-      </c>
-      <c r="AQ10" s="8">
-        <v>60</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>180</v>
-      </c>
-      <c r="AS10" s="8">
-        <v>180</v>
-      </c>
-      <c r="AT10" s="8">
-        <v>180</v>
-      </c>
-      <c r="AU10" s="8">
-        <v>60</v>
-      </c>
-      <c r="AV10" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2278861141</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>8</v>
-      </c>
-      <c r="J11" s="8">
-        <v>55</v>
-      </c>
-      <c r="K11" s="2">
-        <v>40</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>3</v>
-      </c>
-      <c r="R11" s="8">
-        <v>3</v>
-      </c>
-      <c r="S11" s="8">
-        <v>12</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1</v>
-      </c>
-      <c r="U11" s="8">
-        <v>1</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>2</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
         <v>0</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AA11" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="1"/>
@@ -2500,73 +2519,73 @@
       </c>
       <c r="AF11" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>100</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>100</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>240</v>
-      </c>
-      <c r="AM11" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN11" s="8">
-        <v>100</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>60</v>
-      </c>
-      <c r="AP11" s="8">
-        <v>20</v>
-      </c>
-      <c r="AQ11" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR11" s="8">
-        <v>80</v>
-      </c>
-      <c r="AS11" s="8">
-        <v>80</v>
-      </c>
-      <c r="AT11" s="8">
-        <v>80</v>
-      </c>
-      <c r="AU11" s="8">
-        <v>60</v>
-      </c>
-      <c r="AV11" s="8">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>120</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>280</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>200</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>180</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>60</v>
+      </c>
+      <c r="AV11" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48">
       <c r="A12" s="2">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="2">
-        <v>2519661094</v>
+        <v>1078572878</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2575,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="2">
         <v>55</v>
@@ -2596,30 +2615,30 @@
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="2">
+        <v>7</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
         <v>3</v>
       </c>
-      <c r="R12" s="2">
-        <v>8</v>
-      </c>
-      <c r="S12" s="2">
-        <v>14</v>
-      </c>
-      <c r="T12" s="2">
-        <v>8</v>
-      </c>
-      <c r="U12" s="2">
-        <v>5</v>
-      </c>
-      <c r="V12" s="2">
-        <v>5</v>
-      </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>3</v>
       </c>
       <c r="X12" s="2">
@@ -2630,22 +2649,22 @@
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AA12" s="2">
         <v>120</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AE12" s="2">
         <f t="shared" si="4"/>
@@ -2653,127 +2672,127 @@
       </c>
       <c r="AF12" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="AH12" s="2">
         <v>0</v>
       </c>
       <c r="AI12" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AJ12" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK12" s="2">
         <v>0</v>
       </c>
       <c r="AL12" s="2">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AM12" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>200</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AR12" s="2">
         <v>120</v>
       </c>
-      <c r="AN12" s="2">
-        <v>180</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>240</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>240</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>200</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>180</v>
-      </c>
       <c r="AS12" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT12" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU12" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AV12" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48">
       <c r="A13" s="2">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="2">
-        <v>1035294639</v>
+        <v>1062382860</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="2">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <v>4</v>
       </c>
-      <c r="J13" s="2">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2">
-        <v>40</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>7</v>
-      </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" s="2">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>14</v>
+      </c>
+      <c r="U13" s="2">
         <v>11</v>
       </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
       <c r="V13" s="2">
         <v>1</v>
       </c>
       <c r="W13" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -2783,26 +2802,26 @@
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="AA13" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AE13" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AF13" s="2">
         <f t="shared" si="5"/>
@@ -2810,25 +2829,25 @@
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="AH13" s="2">
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AJ13" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AN13" s="2">
         <v>20</v>
@@ -2843,51 +2862,51 @@
         <v>20</v>
       </c>
       <c r="AR13" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS13" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AT13" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AU13" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AV13" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48">
       <c r="A14" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="2">
-        <v>1111200034</v>
+        <v>918404274</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K14" s="2">
         <v>40</v>
@@ -2905,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R14" s="2">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="S14" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T14" s="2">
         <v>10</v>
@@ -2926,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -2936,14 +2955,14 @@
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AA14" s="2">
-        <v>67.5</v>
+        <v>120</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="2"/>
@@ -2955,7 +2974,7 @@
       </c>
       <c r="AE14" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="5"/>
@@ -2963,63 +2982,63 @@
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="AH14" s="2">
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AJ14" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK14" s="2">
         <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AM14" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AN14" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AO14" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AP14" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="AQ14" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AR14" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS14" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AT14" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AU14" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AV14" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48">
       <c r="A15" s="2">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
-        <v>1181560653</v>
+        <v>1819798421</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -3028,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.4</v>
       </c>
-      <c r="G15" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>55</v>
@@ -3058,28 +3077,28 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R15" s="2">
+        <v>3</v>
+      </c>
+      <c r="S15" s="2">
         <v>8</v>
       </c>
-      <c r="S15" s="2">
-        <v>16</v>
-      </c>
       <c r="T15" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V15" s="2">
         <v>2</v>
       </c>
       <c r="W15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -3089,26 +3108,26 @@
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="AA15" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="AE15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" si="5"/>
@@ -3116,63 +3135,63 @@
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="AH15" s="2">
         <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AJ15" s="2">
-        <v>40</v>
+        <v>620</v>
       </c>
       <c r="AK15" s="2">
         <v>0</v>
       </c>
       <c r="AL15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AN15" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AO15" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AP15" s="2">
         <v>20</v>
       </c>
       <c r="AQ15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>150</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>150</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>150</v>
+      </c>
+      <c r="AU15" s="2">
         <v>80</v>
       </c>
-      <c r="AR15" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>40</v>
-      </c>
       <c r="AV15" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48">
       <c r="A16" s="2">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="2">
-        <v>1237436136</v>
+        <v>1135924797</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3181,16 +3200,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2">
         <v>55</v>
@@ -3211,28 +3230,28 @@
         <v>0</v>
       </c>
       <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5</v>
+      </c>
+      <c r="R16" s="2">
+        <v>4</v>
+      </c>
+      <c r="S16" s="2">
+        <v>12</v>
+      </c>
+      <c r="T16" s="2">
+        <v>3</v>
+      </c>
+      <c r="U16" s="2">
+        <v>2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
         <v>9</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2">
-        <v>7</v>
-      </c>
-      <c r="S16" s="2">
-        <v>16</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2">
-        <v>3</v>
-      </c>
-      <c r="W16" s="2">
-        <v>3</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -3242,40 +3261,40 @@
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AA16" s="2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AE16" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AH16" s="2">
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ16" s="2">
         <v>60</v>
@@ -3287,51 +3306,51 @@
         <v>520</v>
       </c>
       <c r="AM16" s="2">
+        <v>140</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO16" s="2">
         <v>120</v>
       </c>
-      <c r="AN16" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO16" s="2">
+      <c r="AP16" s="2">
+        <v>60</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>60</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>280</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>180</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU16" s="2">
         <v>80</v>
       </c>
-      <c r="AP16" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>40</v>
-      </c>
       <c r="AV16" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2">
-        <v>1240045742</v>
+        <v>2173485759</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -3340,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="2">
         <v>55</v>
@@ -3352,7 +3371,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3361,31 +3380,31 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T17" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U17" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -3395,108 +3414,108 @@
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AA17" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="AH17" s="2">
         <v>0</v>
       </c>
       <c r="AI17" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AJ17" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK17" s="2">
         <v>0</v>
       </c>
       <c r="AL17" s="2">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN17" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AO17" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AP17" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AQ17" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AR17" s="2">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="AS17" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AT17" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AU17" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AV17" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48">
       <c r="A18" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2">
-        <v>1307101692</v>
+        <v>1663731268</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2">
         <v>55</v>
@@ -3508,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3517,28 +3536,28 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R18" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S18" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V18" s="2">
         <v>2</v>
       </c>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
       <c r="W18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -3548,43 +3567,43 @@
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AA18" s="2">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE18" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="6"/>
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AH18" s="2">
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AJ18" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK18" s="2">
         <v>0</v>
@@ -3593,13 +3612,13 @@
         <v>520</v>
       </c>
       <c r="AM18" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AN18" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AO18" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AP18" s="2">
         <v>20</v>
@@ -3608,39 +3627,39 @@
         <v>20</v>
       </c>
       <c r="AR18" s="2">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AS18" s="2">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AT18" s="2">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AU18" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AV18" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48">
       <c r="A19" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2">
-        <v>1357116794</v>
+        <v>1154594723</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="2">
         <v>0.05</v>
@@ -3649,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J19" s="2">
         <v>55</v>
@@ -3670,28 +3689,28 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S19" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U19" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W19" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -3701,30 +3720,30 @@
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA19" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AE19" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="6"/>
@@ -3734,75 +3753,75 @@
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ19" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AK19" s="2">
         <v>0</v>
       </c>
       <c r="AL19" s="2">
-        <v>240</v>
+        <v>520</v>
       </c>
       <c r="AM19" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN19" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AO19" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AP19" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AQ19" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AR19" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AS19" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AT19" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AU19" s="2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AV19" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48">
       <c r="A20" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2">
-        <v>1384644876</v>
+        <v>1679589225</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="2">
         <v>55</v>
@@ -3820,31 +3839,31 @@
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R20" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S20" s="2">
+        <v>11</v>
+      </c>
+      <c r="T20" s="2">
         <v>8</v>
       </c>
-      <c r="T20" s="2">
-        <v>14</v>
-      </c>
       <c r="U20" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V20" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W20" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
@@ -3854,108 +3873,108 @@
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AA20" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AJ20" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
       </c>
       <c r="AL20" s="2">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AM20" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN20" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP20" s="2">
         <v>180</v>
       </c>
-      <c r="AO20" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0</v>
-      </c>
       <c r="AQ20" s="2">
         <v>20</v>
       </c>
       <c r="AR20" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS20" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AT20" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AU20" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AV20" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48">
       <c r="A21" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2">
-        <v>1599219954</v>
+        <v>2519661094</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J21" s="2">
         <v>55</v>
@@ -3973,98 +3992,98 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>10</v>
-      </c>
-      <c r="R21" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="S21" s="8">
-        <v>11</v>
-      </c>
-      <c r="T21" s="8">
-        <v>9</v>
-      </c>
-      <c r="U21" s="8">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2">
         <v>8</v>
       </c>
-      <c r="V21" s="8">
-        <v>2</v>
-      </c>
-      <c r="W21" s="8">
+      <c r="S21" s="2">
+        <v>14</v>
+      </c>
+      <c r="T21" s="2">
+        <v>8</v>
+      </c>
+      <c r="U21" s="2">
+        <v>5</v>
+      </c>
+      <c r="V21" s="2">
         <v>4</v>
       </c>
-      <c r="X21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="8">
+      <c r="W21" s="2">
+        <v>3</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
         <v>0</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="AA21" s="2">
-        <v>67.5</v>
+        <v>120</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF21" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="AH21" s="8">
+        <v>105</v>
+      </c>
+      <c r="AH21" s="2">
         <v>0</v>
       </c>
       <c r="AI21" s="8">
+        <v>150</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>60</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>120</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>160</v>
+      </c>
+      <c r="AO21" s="8">
         <v>200</v>
       </c>
-      <c r="AJ21" s="8">
-        <v>240</v>
-      </c>
-      <c r="AK21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="8">
-        <v>160</v>
-      </c>
-      <c r="AM21" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN21" s="8">
-        <v>20</v>
-      </c>
-      <c r="AO21" s="8">
-        <v>20</v>
-      </c>
       <c r="AP21" s="8">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AQ21" s="8">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AR21" s="8">
         <v>120</v>
@@ -4076,39 +4095,39 @@
         <v>120</v>
       </c>
       <c r="AU21" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AV21" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48">
       <c r="A22" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2">
-        <v>1663731268</v>
+        <v>1240045742</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J22" s="2">
         <v>55</v>
@@ -4126,31 +4145,31 @@
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P22" s="2">
         <v>8</v>
       </c>
       <c r="Q22" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R22" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S22" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U22" s="2">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="V22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -4163,40 +4182,40 @@
         <v>120</v>
       </c>
       <c r="AA22" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AE22" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="AH22" s="2">
         <v>0</v>
       </c>
       <c r="AI22" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ22" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK22" s="2">
         <v>0</v>
@@ -4205,51 +4224,51 @@
         <v>520</v>
       </c>
       <c r="AM22" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN22" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AO22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>200</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>280</v>
+      </c>
+      <c r="AS22" s="2">
         <v>180</v>
       </c>
-      <c r="AP22" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>120</v>
-      </c>
       <c r="AT22" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU22" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AV22" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2">
-        <v>1679589225</v>
+        <v>1307101692</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -4258,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J23" s="2">
         <v>55</v>
@@ -4273,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -4282,28 +4301,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S23" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T23" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U23" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W23" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -4313,67 +4332,67 @@
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AA23" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>490</v>
       </c>
       <c r="AH23" s="2">
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AJ23" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AK23" s="2">
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="AM23" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AN23" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AO23" s="2">
         <v>20</v>
       </c>
       <c r="AP23" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AQ23" s="2">
         <v>20</v>
       </c>
       <c r="AR23" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AS23" s="2">
         <v>180</v>
@@ -4382,15 +4401,15 @@
         <v>180</v>
       </c>
       <c r="AU23" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV23" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48">
       <c r="A24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>71</v>
@@ -4402,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -4411,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <v>55</v>
@@ -4453,7 +4472,7 @@
         <v>5</v>
       </c>
       <c r="V24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W24" s="2">
         <v>5</v>
@@ -4489,7 +4508,7 @@
       </c>
       <c r="AF24" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="6"/>
@@ -4526,13 +4545,13 @@
         <v>80</v>
       </c>
       <c r="AR24" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="AS24" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AT24" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AU24" s="2">
         <v>80</v>
@@ -4541,75 +4560,75 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1111200034</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2">
+        <v>70</v>
+      </c>
+      <c r="K25" s="2">
+        <v>40</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>3</v>
+      </c>
+      <c r="R25" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="S25" s="2">
+        <v>16</v>
+      </c>
+      <c r="T25" s="2">
+        <v>10</v>
+      </c>
+      <c r="U25" s="2">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1950401450</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>55</v>
-      </c>
-      <c r="K25" s="2">
-        <v>40</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>10</v>
-      </c>
-      <c r="R25" s="2">
-        <v>3</v>
-      </c>
-      <c r="S25" s="2">
-        <v>14</v>
-      </c>
-      <c r="T25" s="2">
-        <v>12</v>
-      </c>
-      <c r="U25" s="2">
-        <v>5</v>
-      </c>
       <c r="V25" s="2">
         <v>1</v>
       </c>
       <c r="W25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -4619,26 +4638,26 @@
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="AA25" s="2">
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="5"/>
@@ -4646,25 +4665,25 @@
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="AH25" s="2">
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AJ25" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
       </c>
       <c r="AL25" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM25" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN25" s="2">
         <v>20</v>
@@ -4679,48 +4698,48 @@
         <v>20</v>
       </c>
       <c r="AR25" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS25" s="2">
         <v>200</v>
       </c>
-      <c r="AS25" s="2">
-        <v>120</v>
-      </c>
       <c r="AT25" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AU25" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AV25" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2">
-        <v>2173485759</v>
+        <v>2466320041</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H26" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J26" s="2">
         <v>55</v>
@@ -4729,40 +4748,40 @@
         <v>40</v>
       </c>
       <c r="L26" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="2">
         <v>2</v>
       </c>
       <c r="R26" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S26" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4772,30 +4791,30 @@
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AA26" s="2">
         <v>180</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>105</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="6"/>
@@ -4805,78 +4824,78 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>120</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>280</v>
+      </c>
+      <c r="AS26" s="2">
         <v>200</v>
       </c>
-      <c r="AJ26" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>160</v>
-      </c>
-      <c r="AO26" s="2">
+      <c r="AT26" s="2">
         <v>200</v>
       </c>
-      <c r="AP26" s="2">
-        <v>160</v>
-      </c>
-      <c r="AQ26" s="2">
-        <v>160</v>
-      </c>
-      <c r="AR26" s="2">
+      <c r="AU26" s="2">
         <v>120</v>
       </c>
-      <c r="AS26" s="2">
+      <c r="AV26" s="2">
         <v>120</v>
       </c>
-      <c r="AT26" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU26" s="2">
-        <v>60</v>
-      </c>
-      <c r="AV26" s="2">
-        <v>60</v>
-      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2">
-        <v>927214883</v>
+        <v>1493233944</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K27" s="2">
         <v>40</v>
@@ -4894,28 +4913,28 @@
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S27" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T27" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2">
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4925,26 +4944,26 @@
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="AA27" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="5"/>
@@ -4952,72 +4971,72 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>35</v>
       </c>
       <c r="AH27" s="2">
         <v>0</v>
       </c>
       <c r="AI27" s="2">
+        <v>600</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>120</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS27" s="2">
         <v>200</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AT27" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU27" s="2">
         <v>240</v>
       </c>
-      <c r="AK27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>320</v>
-      </c>
-      <c r="AS27" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>40</v>
-      </c>
       <c r="AV27" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48">
       <c r="A28" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2">
-        <v>961518960</v>
+        <v>1515436657</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -5026,16 +5045,16 @@
         <v>0.05</v>
       </c>
       <c r="I28" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K28" s="2">
         <v>40</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -5046,28 +5065,28 @@
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>2</v>
-      </c>
-      <c r="R28" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="S28" s="8">
+      <c r="P28" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2">
+        <v>4</v>
+      </c>
+      <c r="S28" s="2">
         <v>16</v>
       </c>
-      <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="8">
-        <v>1</v>
-      </c>
-      <c r="V28" s="8">
-        <v>1</v>
-      </c>
-      <c r="W28" s="8">
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2">
         <v>9</v>
       </c>
       <c r="X28" s="2">
@@ -5078,10 +5097,10 @@
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="AA28" s="2">
-        <v>67.5</v>
+        <v>60</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="1"/>
@@ -5089,11 +5108,11 @@
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2">
         <f t="shared" si="4"/>
@@ -5105,90 +5124,90 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>520</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>240</v>
+      </c>
+      <c r="AV28" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1035294639</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
         <v>70</v>
       </c>
-      <c r="AH28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="8">
-        <v>140</v>
-      </c>
-      <c r="AJ28" s="8">
-        <v>100</v>
-      </c>
-      <c r="AK28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="8">
-        <v>140</v>
-      </c>
-      <c r="AM28" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN28" s="8">
-        <v>200</v>
-      </c>
-      <c r="AO28" s="8">
-        <v>60</v>
-      </c>
-      <c r="AP28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AQ28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR28" s="8">
-        <v>260</v>
-      </c>
-      <c r="AS28" s="8">
-        <v>180</v>
-      </c>
-      <c r="AT28" s="8">
-        <v>180</v>
-      </c>
-      <c r="AU28" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV28" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="2">
-        <v>974506093</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>55</v>
-      </c>
       <c r="K29" s="2">
         <v>40</v>
       </c>
       <c r="L29" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5200,28 +5219,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q29" s="2">
         <v>1</v>
       </c>
       <c r="R29" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S29" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W29" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -5231,30 +5250,30 @@
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AA29" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="6"/>
@@ -5264,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AJ29" s="2">
         <v>60</v>
@@ -5273,25 +5292,25 @@
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AM29" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AN29" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AO29" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="AP29" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AQ29" s="2">
         <v>20</v>
       </c>
       <c r="AR29" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AS29" s="2">
         <v>200</v>
@@ -5300,21 +5319,21 @@
         <v>200</v>
       </c>
       <c r="AU29" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AV29" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48">
       <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2">
-        <v>1067924459</v>
+        <v>927214883</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -5417,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ30" s="2">
         <v>240</v>
@@ -5444,13 +5463,13 @@
         <v>20</v>
       </c>
       <c r="AR30" s="2">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="AS30" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT30" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU30" s="2">
         <v>40</v>
@@ -5459,15 +5478,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48">
       <c r="A31" s="2">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C31" s="2">
-        <v>1078572878</v>
+        <v>1067924459</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -5476,16 +5495,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
         <v>55</v>
@@ -5506,28 +5525,28 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="2">
+        <v>12</v>
+      </c>
+      <c r="R31" s="2">
+        <v>3</v>
+      </c>
+      <c r="S31" s="2">
         <v>7</v>
       </c>
-      <c r="R31" s="1">
-        <v>8</v>
-      </c>
-      <c r="S31" s="1">
-        <v>10</v>
-      </c>
-      <c r="T31" s="1">
-        <v>5</v>
-      </c>
-      <c r="U31" s="1">
-        <v>4</v>
-      </c>
-      <c r="V31" s="1">
-        <v>3</v>
-      </c>
-      <c r="W31" s="1">
-        <v>3</v>
+      <c r="T31" s="2">
+        <v>14</v>
+      </c>
+      <c r="U31" s="2">
+        <v>11</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>1</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -5537,108 +5556,108 @@
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AA31" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="AE31" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="6"/>
-        <v>245</v>
+        <v>420</v>
       </c>
       <c r="AH31" s="2">
         <v>0</v>
       </c>
       <c r="AI31" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AJ31" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>180</v>
+      </c>
+      <c r="AS31" s="2">
         <v>120</v>
       </c>
-      <c r="AK31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>200</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>160</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>200</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>160</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>140</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>140</v>
-      </c>
       <c r="AT31" s="2">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AU31" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV31" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>1101638879</v>
+        <v>1599219954</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <v>55</v>
@@ -5658,58 +5677,58 @@
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>10</v>
+      </c>
+      <c r="R32" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S32" s="8">
+        <v>11</v>
+      </c>
+      <c r="T32" s="8">
+        <v>9</v>
+      </c>
+      <c r="U32" s="8">
+        <v>8</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1</v>
+      </c>
+      <c r="W32" s="8">
         <v>4</v>
       </c>
-      <c r="Q32" s="2">
-        <v>12</v>
-      </c>
-      <c r="R32" s="2">
-        <v>3</v>
-      </c>
-      <c r="S32" s="2">
-        <v>8</v>
-      </c>
-      <c r="T32" s="2">
-        <v>14</v>
-      </c>
-      <c r="U32" s="2">
-        <v>11</v>
-      </c>
-      <c r="V32" s="2">
-        <v>1</v>
-      </c>
-      <c r="W32" s="2">
-        <v>3</v>
-      </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2">
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="8">
         <v>0</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="AA32" s="2">
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="5"/>
@@ -5717,81 +5736,81 @@
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ32" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>280</v>
-      </c>
-      <c r="AQ32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR32" s="2">
-        <v>220</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>150</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>150</v>
-      </c>
-      <c r="AU32" s="2">
-        <v>60</v>
-      </c>
-      <c r="AV32" s="2">
-        <v>60</v>
+        <v>350</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="8">
+        <v>200</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>240</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>160</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>140</v>
+      </c>
+      <c r="AQ32" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR32" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>120</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>40</v>
+      </c>
+      <c r="AV32" s="8">
+        <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48">
       <c r="A33" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2">
-        <v>1154594723</v>
+        <v>961518960</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
       <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
         <v>0.05</v>
       </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
       <c r="I33" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J33" s="2">
         <v>55</v>
@@ -5811,29 +5830,29 @@
       <c r="O33" s="2">
         <v>0</v>
       </c>
-      <c r="P33" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
-        <v>10</v>
-      </c>
-      <c r="S33" s="2">
-        <v>12</v>
-      </c>
-      <c r="T33" s="2">
-        <v>1</v>
-      </c>
-      <c r="U33" s="2">
-        <v>1</v>
-      </c>
-      <c r="V33" s="2">
-        <v>5</v>
-      </c>
-      <c r="W33" s="2">
-        <v>3</v>
+      <c r="P33" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>2</v>
+      </c>
+      <c r="R33" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S33" s="8">
+        <v>16</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8">
+        <v>1</v>
+      </c>
+      <c r="V33" s="8">
+        <v>1</v>
+      </c>
+      <c r="W33" s="8">
+        <v>9</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -5843,14 +5862,14 @@
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AA33" s="2">
-        <v>150</v>
+        <v>67.5</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="2"/>
@@ -5862,71 +5881,71 @@
       </c>
       <c r="AE33" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AH33" s="2">
         <v>0</v>
       </c>
-      <c r="AI33" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>300</v>
-      </c>
-      <c r="AO33" s="2">
+      <c r="AI33" s="8">
+        <v>140</v>
+      </c>
+      <c r="AJ33" s="8">
         <v>100</v>
       </c>
-      <c r="AP33" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>100</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU33" s="2">
-        <v>60</v>
-      </c>
-      <c r="AV33" s="2">
-        <v>100</v>
+      <c r="AK33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>140</v>
+      </c>
+      <c r="AM33" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>200</v>
+      </c>
+      <c r="AO33" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP33" s="8">
+        <v>20</v>
+      </c>
+      <c r="AQ33" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR33" s="8">
+        <v>240</v>
+      </c>
+      <c r="AS33" s="8">
+        <v>160</v>
+      </c>
+      <c r="AT33" s="8">
+        <v>160</v>
+      </c>
+      <c r="AU33" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV33" s="8">
+        <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
-        <v>1493239978</v>
+        <v>1101638879</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -5935,58 +5954,58 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>55</v>
+      </c>
+      <c r="K34" s="2">
+        <v>40</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
         <v>4</v>
       </c>
-      <c r="J34" s="2">
-        <v>70</v>
-      </c>
-      <c r="K34" s="2">
-        <v>40</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>10</v>
-      </c>
       <c r="Q34" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R34" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S34" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U34" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V34" s="2">
         <v>1</v>
       </c>
       <c r="W34" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -5996,26 +6015,26 @@
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AA34" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="AE34" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AF34" s="2">
         <f t="shared" si="5"/>
@@ -6023,85 +6042,85 @@
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>280</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>200</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>60</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1493239978</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2">
         <v>70</v>
       </c>
-      <c r="AH34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR34" s="2">
-        <v>80</v>
-      </c>
-      <c r="AS34" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU34" s="2">
-        <v>120</v>
-      </c>
-      <c r="AV34" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1590408755</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>55</v>
-      </c>
       <c r="K35" s="2">
         <v>40</v>
       </c>
@@ -6112,22 +6131,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S35" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T35" s="2">
         <v>1</v>
@@ -6136,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="V35" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W35" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
@@ -6149,14 +6168,14 @@
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA35" s="2">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="2"/>
@@ -6168,15 +6187,15 @@
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AH35" s="2">
         <v>0</v>
@@ -6191,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AM35" s="2">
         <v>60</v>
@@ -6200,96 +6219,96 @@
         <v>20</v>
       </c>
       <c r="AO35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR35" s="2">
         <v>80</v>
       </c>
-      <c r="AP35" s="2">
-        <v>280</v>
-      </c>
-      <c r="AQ35" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR35" s="2">
+      <c r="AS35" s="2">
+        <v>180</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU35" s="2">
         <v>120</v>
       </c>
-      <c r="AS35" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT35" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU35" s="2">
-        <v>60</v>
-      </c>
       <c r="AV35" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:48">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1590408755</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>55</v>
+      </c>
+      <c r="K36" s="2">
+        <v>40</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2">
+        <v>14</v>
+      </c>
+      <c r="S36" s="2">
+        <v>10</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
         <v>2</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1998233295</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
-        <v>3</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I36" s="8">
-        <v>3</v>
-      </c>
-      <c r="J36" s="8">
-        <v>55</v>
-      </c>
-      <c r="K36" s="2">
-        <v>40</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>2</v>
-      </c>
-      <c r="P36" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>3</v>
-      </c>
-      <c r="R36" s="2">
-        <v>8</v>
-      </c>
-      <c r="S36" s="2">
-        <v>14</v>
-      </c>
-      <c r="T36" s="2">
-        <v>8</v>
-      </c>
-      <c r="U36" s="2">
-        <v>5</v>
-      </c>
-      <c r="V36" s="2">
-        <v>4</v>
       </c>
       <c r="W36" s="2">
         <v>3</v>
@@ -6302,22 +6321,22 @@
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AA36" s="2">
         <v>210</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>120</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="4"/>
@@ -6325,17 +6344,17 @@
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="AH36" s="2">
         <v>0</v>
       </c>
       <c r="AI36" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ36" s="2">
         <v>60</v>
@@ -6344,69 +6363,69 @@
         <v>0</v>
       </c>
       <c r="AL36" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AM36" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>280</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR36" s="2">
         <v>120</v>
       </c>
-      <c r="AN36" s="2">
-        <v>160</v>
-      </c>
-      <c r="AO36" s="2">
-        <v>200</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>210</v>
-      </c>
-      <c r="AQ36" s="2">
-        <v>160</v>
-      </c>
-      <c r="AR36" s="2">
-        <v>180</v>
-      </c>
       <c r="AS36" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT36" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU36" s="2">
         <v>60</v>
       </c>
       <c r="AV36" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C37" s="2">
-        <v>2350714359</v>
+        <v>3104974405</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>0.4</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H37" s="2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K37" s="2">
         <v>40</v>
@@ -6421,31 +6440,31 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q37" s="2">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2">
         <v>6</v>
       </c>
-      <c r="R37" s="2">
-        <v>8</v>
-      </c>
       <c r="S37" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T37" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W37" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
@@ -6455,108 +6474,108 @@
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AA37" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF37" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AH37" s="2">
         <v>0</v>
       </c>
       <c r="AI37" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ37" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK37" s="2">
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AM37" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN37" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU37" s="2">
         <v>240</v>
       </c>
-      <c r="AO37" s="2">
-        <v>120</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>120</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>80</v>
-      </c>
-      <c r="AR37" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS37" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT37" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU37" s="2">
-        <v>80</v>
-      </c>
       <c r="AV37" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48">
       <c r="A38" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2">
-        <v>2466320041</v>
+        <v>2350714359</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F38" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G38" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I38" s="2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
         <v>55</v>
@@ -6571,31 +6590,31 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>6</v>
+      </c>
+      <c r="R38" s="2">
         <v>8</v>
       </c>
-      <c r="Q38" s="2">
-        <v>2</v>
-      </c>
-      <c r="R38" s="2">
-        <v>12</v>
-      </c>
       <c r="S38" s="2">
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W38" s="2">
         <v>3</v>
@@ -6608,10 +6627,10 @@
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="AA38" s="2">
         <v>120</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>180</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="1"/>
@@ -6619,11 +6638,11 @@
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AD38" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AE38" s="2">
         <f t="shared" si="4"/>
@@ -6631,67 +6650,67 @@
       </c>
       <c r="AF38" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AH38" s="2">
         <v>0</v>
       </c>
       <c r="AI38" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ38" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK38" s="2">
         <v>0</v>
       </c>
       <c r="AL38" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AM38" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO38" s="2">
         <v>120</v>
       </c>
-      <c r="AN38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO38" s="2">
-        <v>40</v>
-      </c>
       <c r="AP38" s="2">
+        <v>120</v>
+      </c>
+      <c r="AQ38" s="2">
         <v>80</v>
       </c>
-      <c r="AQ38" s="2">
-        <v>40</v>
-      </c>
       <c r="AR38" s="2">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="AS38" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AT38" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AU38" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AV38" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48">
       <c r="A39" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2">
-        <v>3104974405</v>
+        <v>1830649078</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -6700,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="2">
         <v>0.05</v>
@@ -6709,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K39" s="2">
         <v>40</v>
@@ -6724,34 +6743,34 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R39" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S39" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W39" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -6761,49 +6780,49 @@
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AA39" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD39" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE39" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AF39" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AH39" s="2">
         <v>0</v>
       </c>
       <c r="AI39" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AJ39" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
       </c>
       <c r="AL39" s="2">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AM39" s="2">
         <v>60</v>
@@ -6812,16 +6831,16 @@
         <v>20</v>
       </c>
       <c r="AO39" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AP39" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AQ39" s="2">
         <v>20</v>
       </c>
       <c r="AR39" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AS39" s="2">
         <v>240</v>
@@ -6830,81 +6849,81 @@
         <v>240</v>
       </c>
       <c r="AU39" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AV39" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48">
       <c r="A40" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2">
-        <v>1493233944</v>
+        <v>2250799209</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>55</v>
+      </c>
+      <c r="K40" s="2">
+        <v>40</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="2">
         <v>4</v>
       </c>
-      <c r="J40" s="2">
-        <v>70</v>
-      </c>
-      <c r="K40" s="2">
-        <v>40</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
+        <v>14</v>
+      </c>
+      <c r="S40" s="2">
+        <v>6</v>
+      </c>
+      <c r="T40" s="2">
         <v>11</v>
       </c>
-      <c r="Q40" s="2">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2">
-        <v>6</v>
-      </c>
-      <c r="S40" s="2">
-        <v>16</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
       <c r="U40" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W40" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -6914,179 +6933,179 @@
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="AA40" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AF40" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AH40" s="2">
         <v>0</v>
       </c>
       <c r="AI40" s="2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="AJ40" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK40" s="2">
         <v>0</v>
       </c>
       <c r="AL40" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>60</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR40" s="2">
         <v>120</v>
       </c>
-      <c r="AN40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>60</v>
-      </c>
       <c r="AS40" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AT40" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AU40" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AV40" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48">
       <c r="A41" s="2">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2">
-        <v>1515436657</v>
+        <v>2478730055</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.5</v>
       </c>
       <c r="I41" s="2">
         <v>3</v>
       </c>
-      <c r="J41" s="2">
-        <v>70</v>
+      <c r="J41" s="8">
+        <v>55</v>
       </c>
       <c r="K41" s="2">
         <v>40</v>
       </c>
       <c r="L41" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
         <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>12</v>
+      </c>
+      <c r="R41" s="8">
+        <v>3</v>
+      </c>
+      <c r="S41" s="8">
+        <v>13</v>
+      </c>
+      <c r="T41" s="8">
+        <v>12</v>
+      </c>
+      <c r="U41" s="8">
         <v>11</v>
       </c>
-      <c r="Q41" s="2">
-        <v>1</v>
-      </c>
-      <c r="R41" s="2">
-        <v>4</v>
-      </c>
-      <c r="S41" s="2">
-        <v>16</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>1</v>
-      </c>
-      <c r="W41" s="2">
-        <v>9</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
+      <c r="V41" s="8">
+        <v>1</v>
+      </c>
+      <c r="W41" s="8">
+        <v>3</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="8">
         <v>0</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="AA41" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AE41" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AF41" s="2">
         <f t="shared" si="5"/>
@@ -7094,63 +7113,63 @@
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="AH41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="2">
-        <v>520</v>
-      </c>
-      <c r="AJ41" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM41" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO41" s="2">
+        <v>420</v>
+      </c>
+      <c r="AH41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="8">
         <v>80</v>
       </c>
-      <c r="AP41" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ41" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR41" s="2">
-        <v>60</v>
-      </c>
-      <c r="AS41" s="2">
-        <v>240</v>
-      </c>
-      <c r="AT41" s="2">
-        <v>240</v>
-      </c>
-      <c r="AU41" s="2">
-        <v>240</v>
-      </c>
-      <c r="AV41" s="2">
-        <v>60</v>
+      <c r="AJ41" s="8">
+        <v>200</v>
+      </c>
+      <c r="AK41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN41" s="8">
+        <v>60</v>
+      </c>
+      <c r="AO41" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP41" s="8">
+        <v>40</v>
+      </c>
+      <c r="AQ41" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR41" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS41" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT41" s="8">
+        <v>100</v>
+      </c>
+      <c r="AU41" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV41" s="8">
+        <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48">
       <c r="A42" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2">
-        <v>1830649078</v>
+        <v>1357116794</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -7159,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G42" s="2">
         <v>0.05</v>
@@ -7168,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" s="2">
         <v>55</v>
@@ -7183,34 +7202,34 @@
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q42" s="2">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2">
+        <v>6</v>
+      </c>
+      <c r="S42" s="2">
+        <v>14</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V42" s="2">
         <v>2</v>
       </c>
-      <c r="R42" s="2">
-        <v>10</v>
-      </c>
-      <c r="S42" s="2">
-        <v>8</v>
-      </c>
-      <c r="T42" s="2">
-        <v>1</v>
-      </c>
-      <c r="U42" s="2">
-        <v>1</v>
-      </c>
-      <c r="V42" s="2">
-        <v>6</v>
-      </c>
       <c r="W42" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -7220,52 +7239,52 @@
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AA42" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD42" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AE42" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AF42" s="2">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AH42" s="2">
         <v>0</v>
       </c>
       <c r="AI42" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ42" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AK42" s="2">
         <v>0</v>
       </c>
       <c r="AL42" s="2">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AM42" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AN42" s="2">
         <v>20</v>
@@ -7274,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="AP42" s="2">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="AQ42" s="2">
         <v>20</v>
@@ -7289,21 +7308,21 @@
         <v>240</v>
       </c>
       <c r="AU42" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AV42" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2">
-        <v>2478730187</v>
+        <v>1237436136</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -7312,16 +7331,16 @@
         <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I43" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2">
         <v>55</v>
@@ -7342,16 +7361,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="2">
         <v>3</v>
       </c>
       <c r="R43" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S43" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T43" s="2">
         <v>1</v>
@@ -7363,7 +7382,7 @@
         <v>2</v>
       </c>
       <c r="W43" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X43" s="2">
         <v>0</v>
@@ -7373,14 +7392,14 @@
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AA43" s="2">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="2"/>
@@ -7392,7 +7411,7 @@
       </c>
       <c r="AE43" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AF43" s="2">
         <f t="shared" si="5"/>
@@ -7406,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="2">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="AJ43" s="2">
         <v>60</v>
@@ -7415,16 +7434,16 @@
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="AM43" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN43" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AO43" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP43" s="2">
         <v>20</v>
@@ -7445,39 +7464,39 @@
         <v>40</v>
       </c>
       <c r="AV43" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2">
-        <v>929498411</v>
+        <v>1633085506</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G44" s="2">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K44" s="2">
         <v>40</v>
@@ -7486,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -7495,28 +7514,28 @@
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q44" s="2">
+        <v>12</v>
+      </c>
+      <c r="R44" s="2">
+        <v>3</v>
+      </c>
+      <c r="S44" s="2">
         <v>14</v>
       </c>
-      <c r="R44" s="2">
-        <v>8</v>
-      </c>
-      <c r="S44" s="2">
-        <v>12</v>
-      </c>
       <c r="T44" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U44" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V44" s="2">
         <v>1</v>
       </c>
       <c r="W44" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X44" s="2">
         <v>0</v>
@@ -7526,26 +7545,26 @@
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AA44" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AB44" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC44" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AD44" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="AE44" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AF44" s="2">
         <f t="shared" si="5"/>
@@ -7553,83 +7572,83 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="6"/>
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="AH44" s="2">
         <v>0</v>
       </c>
       <c r="AI44" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ44" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AK44" s="2">
         <v>0</v>
       </c>
       <c r="AL44" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN44" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO44" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP44" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ44" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR44" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AS44" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AT44" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AU44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48">
       <c r="A45" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
-        <v>2478730055</v>
+        <v>2478730187</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="H45" s="8">
         <v>0.5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.1</v>
       </c>
       <c r="I45" s="2">
         <v>3</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="2">
         <v>55</v>
       </c>
       <c r="K45" s="2">
@@ -7638,152 +7657,152 @@
       <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="M45" s="8">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8">
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
       </c>
-      <c r="P45" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="8">
+      <c r="P45" s="2">
         <v>12</v>
       </c>
-      <c r="R45" s="8">
+      <c r="Q45" s="2">
         <v>3</v>
       </c>
-      <c r="S45" s="8">
-        <v>13</v>
-      </c>
-      <c r="T45" s="8">
+      <c r="R45" s="2">
+        <v>10</v>
+      </c>
+      <c r="S45" s="2">
         <v>12</v>
       </c>
-      <c r="U45" s="8">
-        <v>11</v>
-      </c>
-      <c r="V45" s="8">
-        <v>2</v>
-      </c>
-      <c r="W45" s="8">
+      <c r="T45" s="2">
+        <v>1</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
         <v>3</v>
       </c>
-      <c r="X45" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="8">
+      <c r="W45" s="2">
+        <v>9</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
         <v>0</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AA45" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="AC45" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="AD45" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AE45" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF45" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="AH45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="8">
-        <v>80</v>
-      </c>
-      <c r="AJ45" s="8">
+        <v>105</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM45" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN45" s="2">
         <v>200</v>
       </c>
-      <c r="AK45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN45" s="8">
-        <v>60</v>
-      </c>
-      <c r="AO45" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP45" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ45" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR45" s="8">
-        <v>180</v>
-      </c>
-      <c r="AS45" s="8">
-        <v>150</v>
-      </c>
-      <c r="AT45" s="8">
-        <v>150</v>
-      </c>
-      <c r="AU45" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV45" s="8">
-        <v>80</v>
+      <c r="AO45" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ45" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR45" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS45" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT45" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU45" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV45" s="2">
+        <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48">
       <c r="A46" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2">
-        <v>2250799209</v>
+        <v>929498411</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G46" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H46" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K46" s="2">
         <v>40</v>
@@ -7792,37 +7811,37 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N46" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R46" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S46" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T46" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V46" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W46" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -7832,43 +7851,43 @@
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AA46" s="2">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AB46" s="2">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AC46" s="2">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="AD46" s="2">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="AE46" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AF46" s="2">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AG46" s="2">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>490</v>
       </c>
       <c r="AH46" s="2">
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="2">
         <v>0</v>
@@ -7877,63 +7896,63 @@
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2">
-        <v>1633085506</v>
+        <v>1181560653</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G47" s="2">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J47" s="2">
         <v>55</v>
@@ -7954,28 +7973,28 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R47" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S47" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T47" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U47" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W47" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -7985,87 +8004,90 @@
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="AA47" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AB47" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AC47" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="AD47" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AE47" s="2">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG47" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="AH47" s="2">
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AJ47" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AK47" s="2">
         <v>0</v>
       </c>
       <c r="AL47" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AM47" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>300</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP47" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ47" s="2">
         <v>80</v>
       </c>
-      <c r="AN47" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO47" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP47" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ47" s="2">
-        <v>20</v>
-      </c>
       <c r="AR47" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AS47" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT47" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU47" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV47" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48">
       <c r="B48" s="2" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:AV47">
+    <sortCondition ref="A47"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8081,7 +8103,7 @@
       <selection activeCell="O11" sqref="O11:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -8091,7 +8113,7 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="2">
         <v>44</v>
       </c>
@@ -8231,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -8371,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8511,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8651,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -8791,13 +8813,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -8824,7 +8846,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -8917,7 +8939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -8949,7 +8971,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
@@ -9050,7 +9072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="2">
         <v>13811</v>
       </c>
@@ -9148,7 +9170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="2">
         <v>1078572878</v>
       </c>
@@ -9191,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="B14" s="1"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
@@ -9226,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="B15" s="1"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
@@ -9261,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="B16" s="1"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
@@ -9296,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22">
       <c r="B17" s="1"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
@@ -9331,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22">
       <c r="B18" s="1"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
@@ -9366,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22">
       <c r="B19" s="1"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
@@ -9401,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22">
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9435,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22">
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9469,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22">
       <c r="E28" s="2" t="s">
         <v>108</v>
       </c>
@@ -9498,7 +9520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22">
       <c r="E29" s="2" t="s">
         <v>99</v>
       </c>
@@ -9524,7 +9546,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22">
       <c r="E30" s="2" t="s">
         <v>109</v>
       </c>
@@ -9541,7 +9563,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22">
       <c r="E31" s="2" t="s">
         <v>103</v>
       </c>
@@ -9564,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22">
       <c r="E32" s="2" t="s">
         <v>110</v>
       </c>
@@ -9587,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:28">
       <c r="E33" s="2" t="s">
         <v>111</v>
       </c>
@@ -9615,7 +9637,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:28">
       <c r="E34" s="2" t="s">
         <v>98</v>
       </c>
@@ -9660,7 +9682,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:28">
       <c r="E35" s="2" t="s">
         <v>100</v>
       </c>
@@ -9709,7 +9731,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:28">
       <c r="F36" s="2">
         <f>F34/F35</f>
         <v>1.0143233925973822</v>
@@ -9757,7 +9779,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:28">
       <c r="P37" s="2">
         <v>1</v>
       </c>
@@ -9792,7 +9814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:28">
       <c r="P38" s="2">
         <v>0.1</v>
       </c>
@@ -9809,7 +9831,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:28">
       <c r="P39" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D007BE6-665B-438E-AA20-B326A4B1D321}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2489B73-52F4-4D19-B054-0B2652A37533}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,11 +649,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>风萝莉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风萝莉</t>
+    <t>水熊猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,10 +1060,10 @@
   <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1091,7 +1091,7 @@
     <col min="27" max="33" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.5" style="2" customWidth="1"/>
     <col min="35" max="36" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.5" style="2" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5" style="2" customWidth="1"/>
     <col min="38" max="48" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
@@ -1577,34 +1577,35 @@
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" ref="Z5:Z47" si="0">P5*15</f>
+        <f t="shared" ref="Z5:Z48" si="0">P5*15</f>
         <v>75</v>
       </c>
       <c r="AA5" s="8">
+        <f>R5*15</f>
         <v>45</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" ref="AB5:AB47" si="1">S5*25</f>
+        <f t="shared" ref="AB5:AB48" si="1">S5*25</f>
         <v>300</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" ref="AC5:AC47" si="2">T5*12</f>
+        <f t="shared" ref="AC5:AC48" si="2">T5*12</f>
         <v>12</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" ref="AD5:AD47" si="3">U5*40</f>
+        <f t="shared" ref="AD5:AD48" si="3">U5*40</f>
         <v>40</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" ref="AE5:AE47" si="4">W5*20</f>
+        <f t="shared" ref="AE5:AE48" si="4">W5*20</f>
         <v>40</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" ref="AF5:AF47" si="5">V5*20</f>
+        <f t="shared" ref="AF5:AF48" si="5">V5*20</f>
         <v>0</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" ref="AG5:AG47" si="6">Q5*35</f>
+        <f t="shared" ref="AG5:AG48" si="6">Q5*35</f>
         <v>105</v>
       </c>
       <c r="AH5" s="8">
@@ -1733,7 +1734,8 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="8">
+        <f t="shared" ref="AA6:AA48" si="7">R6*15</f>
         <v>120</v>
       </c>
       <c r="AB6" s="2">
@@ -1887,6 +1889,7 @@
         <v>60</v>
       </c>
       <c r="AA7" s="8">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AB7" s="8">
@@ -1960,155 +1963,156 @@
       </c>
     </row>
     <row r="8" spans="1:48">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1932694748</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1950401450</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="G8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>55</v>
       </c>
-      <c r="K8" s="8">
-        <v>40</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="K8" s="2">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="2">
         <v>10</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="2">
         <v>3</v>
       </c>
       <c r="S8" s="8">
         <v>14</v>
       </c>
-      <c r="T8" s="8">
-        <v>13</v>
-      </c>
-      <c r="U8" s="8">
+      <c r="T8" s="2">
+        <v>12</v>
+      </c>
+      <c r="U8" s="2">
         <v>10</v>
       </c>
-      <c r="V8" s="8">
-        <v>1</v>
-      </c>
-      <c r="W8" s="8">
-        <v>3</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="AA8" s="8">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="2">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="2">
         <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="AD8" s="8">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="2">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AF8" s="8">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="2">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>640</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>160</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>100</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>200</v>
-      </c>
-      <c r="AN8" s="8">
-        <v>300</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>60</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>60</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>60</v>
-      </c>
-      <c r="AR8" s="8">
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
         <v>120</v>
       </c>
-      <c r="AS8" s="8">
-        <v>120</v>
-      </c>
-      <c r="AT8" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>60</v>
-      </c>
-      <c r="AV8" s="8">
+      <c r="AJ8" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>60</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>60</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>60</v>
+      </c>
+      <c r="AV8" s="2">
         <v>60</v>
       </c>
     </row>
@@ -2117,28 +2121,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2">
-        <v>1950401450</v>
+        <v>1384644876</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>55</v>
@@ -2156,31 +2160,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
         <v>4</v>
       </c>
       <c r="Q9" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R9" s="2">
         <v>3</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="2">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2">
         <v>14</v>
       </c>
-      <c r="T9" s="2">
-        <v>12</v>
-      </c>
       <c r="U9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V9" s="2">
         <v>1</v>
       </c>
       <c r="W9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -2192,24 +2196,25 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="8">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="AE9" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AF9" s="2">
         <f t="shared" si="5"/>
@@ -2217,34 +2222,34 @@
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AH9" s="2">
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AJ9" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN9" s="2">
         <v>180</v>
       </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>20</v>
-      </c>
       <c r="AO9" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AP9" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="2">
         <v>20</v>
@@ -2259,10 +2264,10 @@
         <v>60</v>
       </c>
       <c r="AU9" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AV9" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:48">
@@ -2270,10 +2275,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
-        <v>1384644876</v>
+        <v>974506093</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2282,16 +2287,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J10" s="2">
         <v>55</v>
@@ -2300,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2309,28 +2314,28 @@
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>7</v>
+      </c>
+      <c r="S10" s="2">
         <v>12</v>
       </c>
-      <c r="R10" s="2">
-        <v>3</v>
-      </c>
-      <c r="S10" s="2">
-        <v>8</v>
-      </c>
       <c r="T10" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W10" s="2">
         <v>2</v>
@@ -2343,22 +2348,23 @@
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>45</v>
+        <v>180</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AE10" s="2">
         <f t="shared" si="4"/>
@@ -2366,85 +2372,85 @@
       </c>
       <c r="AF10" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>35</v>
       </c>
       <c r="AH10" s="2">
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AJ10" s="2">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="AK10" s="2">
         <v>0</v>
       </c>
       <c r="AL10" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AM10" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN10" s="2">
+        <v>120</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>280</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>200</v>
+      </c>
+      <c r="AS10" s="2">
         <v>180</v>
       </c>
-      <c r="AO10" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>60</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>60</v>
-      </c>
       <c r="AT10" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AU10" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AV10" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:48">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>974506093</v>
+        <v>1062382860</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>55</v>
@@ -2453,7 +2459,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2465,28 +2471,28 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
         <v>12</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
       <c r="R11" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2">
+        <v>14</v>
+      </c>
+      <c r="U11" s="2">
         <v>12</v>
       </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
       <c r="V11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2496,232 +2502,234 @@
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="AE11" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="AH11" s="2">
         <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AJ11" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AK11" s="2">
         <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="AM11" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AN11" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AO11" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="AP11" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AQ11" s="2">
         <v>20</v>
       </c>
       <c r="AR11" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AS11" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AT11" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AU11" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AV11" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:48">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1078572878</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1932694748</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="J12" s="8">
         <v>55</v>
       </c>
-      <c r="K12" s="2">
-        <v>40</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="K12" s="8">
+        <v>40</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="8">
         <v>10</v>
       </c>
-      <c r="Q12" s="2">
-        <v>7</v>
-      </c>
-      <c r="R12" s="1">
-        <v>8</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="R12" s="8">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8">
+        <v>14</v>
+      </c>
+      <c r="T12" s="8">
+        <v>13</v>
+      </c>
+      <c r="U12" s="8">
         <v>10</v>
       </c>
-      <c r="T12" s="1">
-        <v>5</v>
-      </c>
-      <c r="U12" s="1">
-        <v>4</v>
-      </c>
-      <c r="V12" s="1">
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8">
         <v>3</v>
       </c>
-      <c r="W12" s="1">
-        <v>3</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="AA12" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="AC12" s="8">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AE12" s="8">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>640</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>160</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>200</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>300</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>60</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>60</v>
+      </c>
+      <c r="AR12" s="8">
         <v>120</v>
       </c>
-      <c r="AB12" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="AC12" s="2">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AF12" s="2">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="6"/>
-        <v>245</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>300</v>
-      </c>
-      <c r="AJ12" s="2">
+      <c r="AS12" s="8">
         <v>120</v>
       </c>
-      <c r="AK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>200</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>160</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>200</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>100</v>
-      </c>
-      <c r="AR12" s="2">
+      <c r="AT12" s="8">
         <v>120</v>
       </c>
-      <c r="AS12" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>80</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>80</v>
+      <c r="AU12" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:48">
@@ -2729,28 +2737,28 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
-        <v>1062382860</v>
+        <v>1078572878</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="2">
         <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>55</v>
@@ -2771,28 +2779,28 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>8</v>
+      </c>
+      <c r="S13" s="1">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1">
         <v>4</v>
       </c>
-      <c r="Q13" s="2">
-        <v>12</v>
-      </c>
-      <c r="R13" s="2">
+      <c r="V13" s="1">
         <v>3</v>
       </c>
-      <c r="S13" s="2">
-        <v>14</v>
-      </c>
-      <c r="T13" s="2">
-        <v>14</v>
-      </c>
-      <c r="U13" s="2">
-        <v>11</v>
-      </c>
-      <c r="V13" s="2">
-        <v>1</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1</v>
+      <c r="W13" s="1">
+        <v>3</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -2802,79 +2810,80 @@
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>45</v>
+        <v>150</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AE13" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF13" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="AH13" s="2">
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AJ13" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AM13" s="2">
         <v>80</v>
       </c>
       <c r="AN13" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AO13" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AP13" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AQ13" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AR13" s="2">
         <v>120</v>
       </c>
       <c r="AS13" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU13" s="2">
         <v>80</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AV13" s="2">
         <v>80</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:48">
@@ -2957,7 +2966,8 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="8">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="AB14" s="2">
@@ -2997,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="AM14" s="2">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN14" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AO14" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP14" s="2">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="AQ14" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="AR14" s="2">
         <v>120</v>
@@ -3110,7 +3120,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="8">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AB15" s="2">
@@ -3263,7 +3274,8 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="8">
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="AB16" s="2">
@@ -3416,7 +3428,8 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="8">
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="AB17" s="2">
@@ -3494,28 +3507,28 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2">
-        <v>1663731268</v>
+        <v>3119602897</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J18" s="2">
         <v>55</v>
@@ -3536,28 +3549,28 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
         <v>2</v>
       </c>
       <c r="W18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -3567,26 +3580,27 @@
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AA18" s="2">
         <v>150</v>
+      </c>
+      <c r="AA18" s="8">
+        <f>R18*15</f>
+        <v>90</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AE18" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" si="5"/>
@@ -3594,52 +3608,52 @@
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AH18" s="2">
         <v>0</v>
       </c>
       <c r="AI18" s="2">
+        <v>220</v>
+      </c>
+      <c r="AJ18" s="2">
         <v>100</v>
       </c>
-      <c r="AJ18" s="2">
-        <v>60</v>
-      </c>
       <c r="AK18" s="2">
         <v>0</v>
       </c>
       <c r="AL18" s="2">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="AM18" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN18" s="2">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="AO18" s="2">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AP18" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AQ18" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AR18" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AS18" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AT18" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AU18" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AV18" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:48">
@@ -3647,10 +3661,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2">
-        <v>1154594723</v>
+        <v>1663731268</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -3659,16 +3673,16 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2">
         <v>55</v>
@@ -3689,25 +3703,25 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" s="2">
         <v>10</v>
       </c>
       <c r="S19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W19" s="2">
         <v>1</v>
@@ -3720,22 +3734,23 @@
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="AA19" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="8">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AE19" s="2">
         <f t="shared" si="4"/>
@@ -3743,17 +3758,17 @@
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AH19" s="2">
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ19" s="2">
         <v>60</v>
@@ -3768,16 +3783,16 @@
         <v>120</v>
       </c>
       <c r="AN19" s="2">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="AO19" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AP19" s="2">
         <v>20</v>
       </c>
       <c r="AQ19" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AR19" s="2">
         <v>120</v>
@@ -3789,10 +3804,10 @@
         <v>120</v>
       </c>
       <c r="AU19" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AV19" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:48">
@@ -3800,28 +3815,28 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2">
-        <v>1679589225</v>
+        <v>1154594723</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H20" s="2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J20" s="2">
         <v>55</v>
@@ -3842,28 +3857,28 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S20" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T20" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
@@ -3873,34 +3888,35 @@
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="AA20" s="8">
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
@@ -3909,28 +3925,28 @@
         <v>60</v>
       </c>
       <c r="AJ20" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
       </c>
       <c r="AL20" s="2">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="AM20" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN20" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AO20" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AP20" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AQ20" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AR20" s="2">
         <v>120</v>
@@ -3942,10 +3958,10 @@
         <v>120</v>
       </c>
       <c r="AU20" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AV20" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:48">
@@ -3953,16 +3969,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2">
-        <v>2519661094</v>
+        <v>1679589225</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -3971,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I21" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="2">
         <v>55</v>
@@ -3992,31 +4008,31 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R21" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S21" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T21" s="2">
         <v>8</v>
       </c>
       <c r="U21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -4026,14 +4042,15 @@
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="AA21" s="2">
         <v>120</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="2"/>
@@ -4041,63 +4058,63 @@
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AF21" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="AH21" s="2">
         <v>0</v>
       </c>
-      <c r="AI21" s="8">
-        <v>150</v>
-      </c>
-      <c r="AJ21" s="8">
-        <v>60</v>
-      </c>
-      <c r="AK21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="8">
-        <v>100</v>
-      </c>
-      <c r="AM21" s="8">
+      <c r="AI21" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>180</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR21" s="2">
         <v>120</v>
       </c>
-      <c r="AN21" s="8">
-        <v>160</v>
-      </c>
-      <c r="AO21" s="8">
-        <v>200</v>
-      </c>
-      <c r="AP21" s="8">
-        <v>210</v>
-      </c>
-      <c r="AQ21" s="8">
-        <v>200</v>
-      </c>
-      <c r="AR21" s="8">
+      <c r="AS21" s="2">
         <v>120</v>
       </c>
-      <c r="AS21" s="8">
+      <c r="AT21" s="2">
         <v>120</v>
       </c>
-      <c r="AT21" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU21" s="8">
-        <v>60</v>
-      </c>
-      <c r="AV21" s="8">
+      <c r="AU21" s="2">
+        <v>80</v>
+      </c>
+      <c r="AV21" s="2">
         <v>60</v>
       </c>
     </row>
@@ -4106,16 +4123,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2">
-        <v>1240045742</v>
+        <v>2519661094</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -4124,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="I22" s="2">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="2">
         <v>55</v>
@@ -4145,31 +4162,31 @@
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P22" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2">
         <v>8</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
+        <v>14</v>
+      </c>
+      <c r="T22" s="2">
         <v>8</v>
       </c>
-      <c r="R22" s="2">
-        <v>6</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>12</v>
-      </c>
       <c r="U22" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -4179,79 +4196,80 @@
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="AA22" s="8">
+        <f t="shared" si="7"/>
         <v>120</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>90</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="AE22" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF22" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="AH22" s="2">
         <v>0</v>
       </c>
-      <c r="AI22" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP22" s="2">
+      <c r="AI22" s="8">
+        <v>150</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>60</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>120</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>160</v>
+      </c>
+      <c r="AO22" s="8">
         <v>200</v>
       </c>
-      <c r="AQ22" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>280</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU22" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>40</v>
+      <c r="AP22" s="8">
+        <v>210</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>200</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>120</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV22" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:48">
@@ -4259,10 +4277,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2">
-        <v>1307101692</v>
+        <v>1240045742</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -4277,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I23" s="2">
         <v>3.5</v>
@@ -4292,31 +4310,31 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P23" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R23" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S23" s="2">
         <v>10</v>
       </c>
       <c r="T23" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U23" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V23" s="2">
         <v>1</v>
@@ -4332,10 +4350,11 @@
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="1"/>
@@ -4343,11 +4362,11 @@
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="4"/>
@@ -4359,13 +4378,13 @@
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="6"/>
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="AH23" s="2">
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AJ23" s="2">
         <v>40</v>
@@ -4377,7 +4396,7 @@
         <v>520</v>
       </c>
       <c r="AM23" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AN23" s="2">
         <v>20</v>
@@ -4386,13 +4405,13 @@
         <v>20</v>
       </c>
       <c r="AP23" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AQ23" s="2">
         <v>20</v>
       </c>
       <c r="AR23" s="2">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AS23" s="2">
         <v>180</v>
@@ -4412,16 +4431,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2">
-        <v>1679608308</v>
+        <v>1307101692</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -4430,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J24" s="2">
         <v>55</v>
@@ -4445,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N24" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4457,25 +4476,25 @@
         <v>5</v>
       </c>
       <c r="Q24" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R24" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S24" s="2">
         <v>10</v>
       </c>
       <c r="T24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U24" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -4487,8 +4506,9 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AA24" s="2">
-        <v>150</v>
+      <c r="AA24" s="8">
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="1"/>
@@ -4496,68 +4516,68 @@
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AE24" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>490</v>
       </c>
       <c r="AH24" s="2">
         <v>0</v>
       </c>
       <c r="AI24" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AJ24" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK24" s="2">
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="AM24" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AN24" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AO24" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP24" s="2">
         <v>20</v>
       </c>
       <c r="AQ24" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AR24" s="2">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AS24" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AT24" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AU24" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV24" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:48">
@@ -4565,10 +4585,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2">
-        <v>1111200034</v>
+        <v>1679608308</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4583,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K25" s="2">
         <v>40</v>
@@ -4601,34 +4621,34 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="2">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="S25" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T25" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U25" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V25" s="2">
         <v>1</v>
       </c>
       <c r="W25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -4638,26 +4658,27 @@
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>67.5</v>
+        <v>75</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="5"/>
@@ -4665,40 +4686,40 @@
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AH25" s="2">
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ25" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK25" s="2">
         <v>0</v>
       </c>
       <c r="AL25" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AM25" s="2">
         <v>60</v>
       </c>
       <c r="AN25" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO25" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AP25" s="2">
         <v>20</v>
       </c>
       <c r="AQ25" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AR25" s="2">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AS25" s="2">
         <v>200</v>
@@ -4707,10 +4728,10 @@
         <v>200</v>
       </c>
       <c r="AU25" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AV25" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:48">
@@ -4718,31 +4739,31 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2">
-        <v>2466320041</v>
+        <v>1111200034</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K26" s="2">
         <v>40</v>
@@ -4754,34 +4775,34 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>3</v>
+      </c>
+      <c r="R26" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="S26" s="2">
+        <v>16</v>
+      </c>
+      <c r="T26" s="2">
+        <v>10</v>
+      </c>
+      <c r="U26" s="2">
         <v>8</v>
       </c>
-      <c r="Q26" s="2">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2">
-        <v>12</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
-        <v>1</v>
-      </c>
-      <c r="U26" s="2">
-        <v>1</v>
-      </c>
       <c r="V26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4791,67 +4812,68 @@
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>180</v>
+        <v>105</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AH26" s="2">
         <v>0</v>
       </c>
       <c r="AI26" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ26" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK26" s="2">
         <v>0</v>
       </c>
       <c r="AL26" s="2">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="AM26" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN26" s="2">
         <v>20</v>
       </c>
       <c r="AO26" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AP26" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AQ26" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AR26" s="2">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="AS26" s="2">
         <v>200</v>
@@ -4860,10 +4882,10 @@
         <v>200</v>
       </c>
       <c r="AU26" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AV26" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:48">
@@ -4871,19 +4893,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2">
-        <v>1493233944</v>
+        <v>2466320041</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G27" s="2">
         <v>0.05</v>
@@ -4892,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J27" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K27" s="2">
         <v>40</v>
@@ -4907,34 +4929,34 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S27" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="2">
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4944,26 +4966,27 @@
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="AA27" s="8">
+        <f t="shared" si="7"/>
+        <v>180</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="5"/>
@@ -4971,13 +4994,13 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AH27" s="2">
         <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AJ27" s="2">
         <v>60</v>
@@ -4986,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="2">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AM27" s="2">
         <v>120</v>
@@ -4995,16 +5018,16 @@
         <v>20</v>
       </c>
       <c r="AO27" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP27" s="2">
         <v>80</v>
       </c>
-      <c r="AP27" s="2">
-        <v>20</v>
-      </c>
       <c r="AQ27" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AR27" s="2">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AS27" s="2">
         <v>200</v>
@@ -5013,10 +5036,10 @@
         <v>200</v>
       </c>
       <c r="AU27" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AV27" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:48">
@@ -5024,28 +5047,28 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2">
-        <v>1515436657</v>
+        <v>1493233944</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>4</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3</v>
       </c>
       <c r="J28" s="2">
         <v>70</v>
@@ -5054,7 +5077,7 @@
         <v>40</v>
       </c>
       <c r="L28" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -5072,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S28" s="2">
         <v>16</v>
@@ -5084,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2">
         <v>9</v>
@@ -5099,8 +5122,9 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="AA28" s="2">
-        <v>60</v>
+      <c r="AA28" s="8">
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="1"/>
@@ -5120,7 +5144,7 @@
       </c>
       <c r="AF28" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="6"/>
@@ -5130,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="AJ28" s="2">
         <v>60</v>
@@ -5139,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="2">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="AM28" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN28" s="2">
         <v>20</v>
@@ -5177,28 +5201,28 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2">
-        <v>1035294639</v>
+        <v>1515436657</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
         <v>0.05</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
       <c r="I29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2">
         <v>70</v>
@@ -5207,7 +5231,7 @@
         <v>40</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5219,16 +5243,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="2">
         <v>1</v>
       </c>
       <c r="R29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -5250,14 +5274,15 @@
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>75</v>
+        <v>165</v>
+      </c>
+      <c r="AA29" s="8">
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="2"/>
@@ -5283,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="AJ29" s="2">
         <v>60</v>
@@ -5292,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="AM29" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AN29" s="2">
         <v>20</v>
       </c>
       <c r="AO29" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AP29" s="2">
         <v>20</v>
@@ -5322,7 +5347,7 @@
         <v>240</v>
       </c>
       <c r="AV29" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:48">
@@ -5330,10 +5355,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2">
-        <v>927214883</v>
+        <v>1035294639</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -5342,19 +5367,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2">
         <v>40</v>
@@ -5372,28 +5397,28 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T30" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U30" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V30" s="2">
         <v>1</v>
       </c>
       <c r="W30" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
@@ -5403,26 +5428,27 @@
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="AA30" s="8">
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="5"/>
@@ -5430,52 +5456,52 @@
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>35</v>
       </c>
       <c r="AH30" s="2">
         <v>0</v>
       </c>
       <c r="AI30" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="AJ30" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU30" s="2">
         <v>240</v>
       </c>
-      <c r="AK30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>40</v>
-      </c>
       <c r="AV30" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:48">
@@ -5483,10 +5509,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2">
-        <v>1067924459</v>
+        <v>927214883</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -5558,7 +5584,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="8">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AB31" s="2">
@@ -5636,25 +5663,25 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2">
-        <v>1599219954</v>
+        <v>1067924459</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G32" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -5677,58 +5704,59 @@
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>12</v>
+      </c>
+      <c r="R32" s="2">
+        <v>3</v>
+      </c>
+      <c r="S32" s="2">
         <v>7</v>
       </c>
-      <c r="Q32" s="8">
-        <v>10</v>
-      </c>
-      <c r="R32" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="S32" s="8">
+      <c r="T32" s="2">
+        <v>14</v>
+      </c>
+      <c r="U32" s="2">
         <v>11</v>
       </c>
-      <c r="T32" s="8">
-        <v>9</v>
-      </c>
-      <c r="U32" s="8">
-        <v>8</v>
-      </c>
-      <c r="V32" s="8">
-        <v>1</v>
-      </c>
-      <c r="W32" s="8">
-        <v>4</v>
-      </c>
-      <c r="X32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="8">
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
         <v>0</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>67.5</v>
+        <v>60</v>
+      </c>
+      <c r="AA32" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="5"/>
@@ -5736,51 +5764,51 @@
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="AH32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="8">
-        <v>200</v>
-      </c>
-      <c r="AJ32" s="8">
+        <v>420</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ32" s="2">
         <v>240</v>
       </c>
-      <c r="AK32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="8">
-        <v>160</v>
-      </c>
-      <c r="AM32" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN32" s="8">
-        <v>20</v>
-      </c>
-      <c r="AO32" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP32" s="8">
-        <v>140</v>
-      </c>
-      <c r="AQ32" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR32" s="8">
+      <c r="AK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>180</v>
+      </c>
+      <c r="AS32" s="2">
         <v>120</v>
       </c>
-      <c r="AS32" s="8">
+      <c r="AT32" s="2">
         <v>120</v>
       </c>
-      <c r="AT32" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU32" s="8">
-        <v>40</v>
-      </c>
-      <c r="AV32" s="8">
+      <c r="AU32" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV32" s="2">
         <v>40</v>
       </c>
     </row>
@@ -5789,10 +5817,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2">
-        <v>961518960</v>
+        <v>1599219954</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -5801,16 +5829,16 @@
         <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H33" s="2">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="I33" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>55</v>
@@ -5831,57 +5859,58 @@
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R33" s="8">
         <v>4.5</v>
       </c>
       <c r="S33" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T33" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U33" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V33" s="8">
         <v>1</v>
       </c>
       <c r="W33" s="8">
-        <v>9</v>
-      </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="2">
+        <v>4</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="8">
         <v>0</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="AA33" s="2">
+        <v>105</v>
+      </c>
+      <c r="AA33" s="8">
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="5"/>
@@ -5889,52 +5918,52 @@
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="AH33" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH33" s="8">
         <v>0</v>
       </c>
       <c r="AI33" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AJ33" s="8">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AK33" s="8">
         <v>0</v>
       </c>
       <c r="AL33" s="8">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AM33" s="8">
         <v>80</v>
       </c>
       <c r="AN33" s="8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AO33" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AP33" s="8">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AQ33" s="8">
         <v>20</v>
       </c>
       <c r="AR33" s="8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AS33" s="8">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AT33" s="8">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AU33" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV33" s="8">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:48">
@@ -5942,28 +5971,28 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2">
-        <v>1101638879</v>
+        <v>961518960</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I34" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J34" s="2">
         <v>55</v>
@@ -5983,29 +6012,29 @@
       <c r="O34" s="2">
         <v>0</v>
       </c>
-      <c r="P34" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>12</v>
-      </c>
-      <c r="R34" s="2">
-        <v>3</v>
-      </c>
-      <c r="S34" s="2">
-        <v>8</v>
-      </c>
-      <c r="T34" s="2">
-        <v>14</v>
-      </c>
-      <c r="U34" s="2">
-        <v>11</v>
-      </c>
-      <c r="V34" s="2">
-        <v>1</v>
-      </c>
-      <c r="W34" s="2">
-        <v>3</v>
+      <c r="P34" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>2</v>
+      </c>
+      <c r="R34" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S34" s="8">
+        <v>16</v>
+      </c>
+      <c r="T34" s="8">
+        <v>1</v>
+      </c>
+      <c r="U34" s="8">
+        <v>1</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>9</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -6015,78 +6044,79 @@
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AE34" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF34" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="AH34" s="2">
         <v>0</v>
       </c>
-      <c r="AI34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>280</v>
-      </c>
-      <c r="AQ34" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR34" s="2">
+      <c r="AI34" s="8">
+        <v>140</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>140</v>
+      </c>
+      <c r="AM34" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN34" s="8">
         <v>200</v>
       </c>
-      <c r="AS34" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU34" s="2">
-        <v>60</v>
-      </c>
-      <c r="AV34" s="2">
+      <c r="AO34" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP34" s="8">
+        <v>20</v>
+      </c>
+      <c r="AQ34" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR34" s="8">
+        <v>240</v>
+      </c>
+      <c r="AS34" s="8">
+        <v>160</v>
+      </c>
+      <c r="AT34" s="8">
+        <v>160</v>
+      </c>
+      <c r="AU34" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV34" s="8">
         <v>60</v>
       </c>
     </row>
@@ -6095,10 +6125,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2">
-        <v>1493239978</v>
+        <v>1101638879</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -6107,58 +6137,58 @@
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>55</v>
+      </c>
+      <c r="K35" s="2">
+        <v>40</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
         <v>4</v>
       </c>
-      <c r="J35" s="2">
-        <v>70</v>
-      </c>
-      <c r="K35" s="2">
-        <v>40</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>10</v>
-      </c>
       <c r="Q35" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R35" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S35" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T35" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U35" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
@@ -6168,34 +6198,35 @@
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="AH35" s="2">
         <v>0</v>
@@ -6210,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="AM35" s="2">
         <v>60</v>
@@ -6222,25 +6253,25 @@
         <v>20</v>
       </c>
       <c r="AP35" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AQ35" s="2">
         <v>20</v>
       </c>
       <c r="AR35" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AS35" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT35" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU35" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AV35" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:48">
@@ -6248,10 +6279,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
-        <v>1590408755</v>
+        <v>1493239978</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -6260,19 +6291,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K36" s="2">
         <v>40</v>
@@ -6284,22 +6315,22 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
       <c r="P36" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S36" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T36" s="2">
         <v>1</v>
@@ -6308,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="V36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -6321,14 +6352,15 @@
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>210</v>
+        <v>150</v>
+      </c>
+      <c r="AA36" s="8">
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="2"/>
@@ -6340,15 +6372,15 @@
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AH36" s="2">
         <v>0</v>
@@ -6363,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="2">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AM36" s="2">
         <v>60</v>
@@ -6372,28 +6404,28 @@
         <v>20</v>
       </c>
       <c r="AO36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR36" s="2">
         <v>80</v>
       </c>
-      <c r="AP36" s="2">
-        <v>280</v>
-      </c>
-      <c r="AQ36" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR36" s="2">
+      <c r="AS36" s="2">
+        <v>180</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU36" s="2">
         <v>120</v>
       </c>
-      <c r="AS36" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT36" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU36" s="2">
-        <v>60</v>
-      </c>
       <c r="AV36" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:48">
@@ -6401,10 +6433,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2">
-        <v>3104974405</v>
+        <v>1590408755</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -6413,19 +6445,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
         <v>0.05</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
       <c r="I37" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K37" s="2">
         <v>40</v>
@@ -6437,34 +6469,34 @@
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q37" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S37" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
@@ -6474,40 +6506,41 @@
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="AA37" s="8">
+        <f t="shared" si="7"/>
+        <v>210</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE37" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AF37" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="AH37" s="2">
         <v>0</v>
       </c>
       <c r="AI37" s="2">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="AJ37" s="2">
         <v>60</v>
@@ -6516,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AM37" s="2">
         <v>60</v>
@@ -6525,28 +6558,28 @@
         <v>20</v>
       </c>
       <c r="AO37" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP37" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AQ37" s="2">
         <v>20</v>
       </c>
       <c r="AR37" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS37" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AT37" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AU37" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AV37" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:48">
@@ -6554,31 +6587,31 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2">
-        <v>2350714359</v>
+        <v>3104974405</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
         <v>0.4</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H38" s="2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K38" s="2">
         <v>40</v>
@@ -6593,31 +6626,31 @@
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="2">
+        <v>4</v>
+      </c>
+      <c r="R38" s="2">
         <v>6</v>
       </c>
-      <c r="R38" s="2">
-        <v>8</v>
-      </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T38" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W38" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -6627,79 +6660,80 @@
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="AA38" s="8">
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="2">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF38" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AH38" s="2">
         <v>0</v>
       </c>
       <c r="AI38" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ38" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK38" s="2">
         <v>0</v>
       </c>
       <c r="AL38" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AM38" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU38" s="2">
         <v>240</v>
       </c>
-      <c r="AO38" s="2">
-        <v>120</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>120</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>80</v>
-      </c>
-      <c r="AR38" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS38" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT38" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU38" s="2">
-        <v>80</v>
-      </c>
       <c r="AV38" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:48">
@@ -6707,28 +6741,28 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2">
-        <v>1830649078</v>
+        <v>2350714359</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G39" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <v>55</v>
@@ -6743,34 +6777,34 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R39" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S39" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W39" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -6780,79 +6814,80 @@
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="AA39" s="2">
         <v>150</v>
+      </c>
+      <c r="AA39" s="8">
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AD39" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AE39" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AF39" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AH39" s="2">
         <v>0</v>
       </c>
       <c r="AI39" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ39" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
       </c>
       <c r="AL39" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AM39" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN39" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AO39" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AP39" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AQ39" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AR39" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AS39" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AT39" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AU39" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AV39" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:48">
@@ -6860,28 +6895,28 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2">
-        <v>2250799209</v>
+        <v>1830649078</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H40" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2">
         <v>55</v>
@@ -6896,34 +6931,34 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R40" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S40" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T40" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U40" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W40" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -6933,34 +6968,35 @@
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>210</v>
+        <v>180</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AF40" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AH40" s="2">
         <v>0</v>
@@ -6969,43 +7005,43 @@
         <v>100</v>
       </c>
       <c r="AJ40" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AK40" s="2">
         <v>0</v>
       </c>
       <c r="AL40" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM40" s="2">
         <v>60</v>
       </c>
       <c r="AN40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>200</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>240</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>240</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>240</v>
+      </c>
+      <c r="AU40" s="2">
         <v>180</v>
       </c>
-      <c r="AO40" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>60</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT40" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU40" s="2">
-        <v>40</v>
-      </c>
       <c r="AV40" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:48">
@@ -7013,152 +7049,153 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2">
-        <v>2478730055</v>
+        <v>2250799209</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>55</v>
+      </c>
+      <c r="K41" s="2">
+        <v>40</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>4</v>
+      </c>
+      <c r="R41" s="2">
+        <v>14</v>
+      </c>
+      <c r="S41" s="2">
+        <v>6</v>
+      </c>
+      <c r="T41" s="2">
+        <v>11</v>
+      </c>
+      <c r="U41" s="2">
+        <v>10</v>
+      </c>
+      <c r="V41" s="2">
+        <v>4</v>
+      </c>
+      <c r="W41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="2">
-        <v>3</v>
-      </c>
-      <c r="J41" s="8">
-        <v>55</v>
-      </c>
-      <c r="K41" s="2">
-        <v>40</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="8">
-        <v>0</v>
-      </c>
-      <c r="N41" s="8">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>12</v>
-      </c>
-      <c r="R41" s="8">
-        <v>3</v>
-      </c>
-      <c r="S41" s="8">
-        <v>13</v>
-      </c>
-      <c r="T41" s="8">
-        <v>12</v>
-      </c>
-      <c r="U41" s="8">
-        <v>11</v>
-      </c>
-      <c r="V41" s="8">
-        <v>1</v>
-      </c>
-      <c r="W41" s="8">
-        <v>3</v>
-      </c>
-      <c r="X41" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="8">
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
         <v>0</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="7"/>
+        <v>210</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="AE41" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF41" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="AH41" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="8">
-        <v>80</v>
-      </c>
-      <c r="AJ41" s="8">
-        <v>200</v>
-      </c>
-      <c r="AK41" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN41" s="8">
-        <v>60</v>
-      </c>
-      <c r="AO41" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP41" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ41" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR41" s="8">
+        <v>140</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>60</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR41" s="2">
         <v>120</v>
       </c>
-      <c r="AS41" s="8">
-        <v>100</v>
-      </c>
-      <c r="AT41" s="8">
-        <v>100</v>
-      </c>
-      <c r="AU41" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV41" s="8">
-        <v>80</v>
+      <c r="AS41" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:48">
@@ -7166,152 +7203,153 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2">
-        <v>1357116794</v>
+        <v>2478730055</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.5</v>
       </c>
       <c r="I42" s="2">
+        <v>3</v>
+      </c>
+      <c r="J42" s="8">
+        <v>55</v>
+      </c>
+      <c r="K42" s="2">
+        <v>40</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
         <v>4</v>
       </c>
-      <c r="J42" s="2">
-        <v>55</v>
-      </c>
-      <c r="K42" s="2">
-        <v>40</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>1</v>
-      </c>
-      <c r="R42" s="2">
-        <v>6</v>
-      </c>
-      <c r="S42" s="2">
-        <v>14</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="V42" s="2">
-        <v>2</v>
-      </c>
-      <c r="W42" s="2">
-        <v>7</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
+      <c r="Q42" s="8">
+        <v>12</v>
+      </c>
+      <c r="R42" s="8">
+        <v>3</v>
+      </c>
+      <c r="S42" s="8">
+        <v>13</v>
+      </c>
+      <c r="T42" s="8">
+        <v>12</v>
+      </c>
+      <c r="U42" s="8">
+        <v>11</v>
+      </c>
+      <c r="V42" s="8">
+        <v>1</v>
+      </c>
+      <c r="W42" s="8">
+        <v>3</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="8">
         <v>0</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="AA42" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="AD42" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="AE42" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AF42" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ42" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM42" s="2">
-        <v>180</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO42" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>360</v>
-      </c>
-      <c r="AQ42" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR42" s="2">
-        <v>240</v>
-      </c>
-      <c r="AS42" s="2">
-        <v>240</v>
-      </c>
-      <c r="AT42" s="2">
-        <v>240</v>
-      </c>
-      <c r="AU42" s="2">
-        <v>160</v>
-      </c>
-      <c r="AV42" s="2">
-        <v>300</v>
+        <v>420</v>
+      </c>
+      <c r="AH42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="8">
+        <v>80</v>
+      </c>
+      <c r="AJ42" s="8">
+        <v>200</v>
+      </c>
+      <c r="AK42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN42" s="8">
+        <v>60</v>
+      </c>
+      <c r="AO42" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP42" s="8">
+        <v>40</v>
+      </c>
+      <c r="AQ42" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR42" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS42" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT42" s="8">
+        <v>100</v>
+      </c>
+      <c r="AU42" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV42" s="8">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:48">
@@ -7319,10 +7357,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2">
-        <v>1237436136</v>
+        <v>1357116794</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -7331,16 +7369,16 @@
         <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="2">
         <v>55</v>
@@ -7361,28 +7399,28 @@
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S43" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T43" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U43" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V43" s="2">
         <v>2</v>
       </c>
       <c r="W43" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X43" s="2">
         <v>0</v>
@@ -7392,26 +7430,27 @@
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="AA43" s="8">
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD43" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AE43" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AF43" s="2">
         <f t="shared" si="5"/>
@@ -7419,52 +7458,52 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="AH43" s="2">
         <v>0</v>
       </c>
       <c r="AI43" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ43" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AK43" s="2">
         <v>0</v>
       </c>
       <c r="AL43" s="2">
-        <v>520</v>
+        <v>240</v>
       </c>
       <c r="AM43" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN43" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AO43" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP43" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AQ43" s="2">
         <v>20</v>
       </c>
       <c r="AR43" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AS43" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AT43" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AU43" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AV43" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:48">
@@ -7472,28 +7511,28 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2">
-        <v>1633085506</v>
+        <v>1237436136</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G44" s="2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2">
         <v>55</v>
@@ -7514,28 +7553,28 @@
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q44" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R44" s="2">
+        <v>7</v>
+      </c>
+      <c r="S44" s="2">
+        <v>16</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2">
+        <v>2</v>
+      </c>
+      <c r="W44" s="2">
         <v>3</v>
-      </c>
-      <c r="S44" s="2">
-        <v>14</v>
-      </c>
-      <c r="T44" s="2">
-        <v>14</v>
-      </c>
-      <c r="U44" s="2">
-        <v>11</v>
-      </c>
-      <c r="V44" s="2">
-        <v>1</v>
-      </c>
-      <c r="W44" s="2">
-        <v>4</v>
       </c>
       <c r="X44" s="2">
         <v>0</v>
@@ -7545,59 +7584,60 @@
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>45</v>
+        <v>135</v>
+      </c>
+      <c r="AA44" s="8">
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
       <c r="AB44" s="2">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AC44" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="AD44" s="2">
         <f t="shared" si="3"/>
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AE44" s="2">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF44" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="AH44" s="2">
         <v>0</v>
       </c>
       <c r="AI44" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AJ44" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AK44" s="2">
         <v>0</v>
       </c>
       <c r="AL44" s="2">
-        <v>60</v>
+        <v>520</v>
       </c>
       <c r="AM44" s="2">
+        <v>120</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO44" s="2">
         <v>80</v>
       </c>
-      <c r="AN44" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO44" s="2">
-        <v>20</v>
-      </c>
       <c r="AP44" s="2">
         <v>20</v>
       </c>
@@ -7605,19 +7645,19 @@
         <v>20</v>
       </c>
       <c r="AR44" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AS44" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT44" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU44" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV44" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:48">
@@ -7625,28 +7665,28 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2">
-        <v>2478730187</v>
+        <v>1633085506</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H45" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" s="2">
         <v>55</v>
@@ -7667,28 +7707,28 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="2">
         <v>12</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="R45" s="2">
         <v>3</v>
       </c>
-      <c r="R45" s="2">
-        <v>10</v>
-      </c>
       <c r="S45" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T45" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U45" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W45" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -7698,58 +7738,59 @@
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="AA45" s="8">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC45" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AD45" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="AE45" s="2">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AF45" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>420</v>
       </c>
       <c r="AH45" s="2">
         <v>0</v>
       </c>
       <c r="AI45" s="2">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="AJ45" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AK45" s="2">
         <v>0</v>
       </c>
       <c r="AL45" s="2">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="AM45" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN45" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AO45" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AP45" s="2">
         <v>20</v>
@@ -7758,19 +7799,19 @@
         <v>20</v>
       </c>
       <c r="AR45" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AS45" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT45" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU45" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV45" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:48">
@@ -7778,10 +7819,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2">
-        <v>929498411</v>
+        <v>2478730187</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -7790,19 +7831,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K46" s="2">
         <v>40</v>
@@ -7811,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -7820,13 +7861,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>3</v>
+      </c>
+      <c r="R46" s="2">
         <v>10</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>14</v>
-      </c>
-      <c r="R46" s="2">
-        <v>8</v>
       </c>
       <c r="S46" s="2">
         <v>12</v>
@@ -7838,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="V46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W46" s="2">
         <v>9</v>
@@ -7851,10 +7892,11 @@
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AA46" s="8">
+        <f t="shared" si="7"/>
         <v>150</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>120</v>
       </c>
       <c r="AB46" s="2">
         <f t="shared" si="1"/>
@@ -7874,56 +7916,56 @@
       </c>
       <c r="AF46" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AG46" s="2">
         <f t="shared" si="6"/>
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AH46" s="2">
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AJ46" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK46" s="2">
         <v>0</v>
       </c>
       <c r="AL46" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AM46" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN46" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO46" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AP46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR46" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AS46" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT46" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:48">
@@ -7931,10 +7973,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2">
-        <v>1181560653</v>
+        <v>929498411</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -7943,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G47" s="2">
         <v>0.05</v>
@@ -7952,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K47" s="2">
         <v>40</v>
@@ -7964,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -7973,16 +8015,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q47" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R47" s="2">
         <v>8</v>
       </c>
       <c r="S47" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T47" s="2">
         <v>1</v>
@@ -7991,10 +8033,10 @@
         <v>1</v>
       </c>
       <c r="V47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W47" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -8004,14 +8046,15 @@
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="AA47" s="2">
+        <v>150</v>
+      </c>
+      <c r="AA47" s="8">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="AB47" s="2">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC47" s="2">
         <f t="shared" si="2"/>
@@ -8023,70 +8066,219 @@
       </c>
       <c r="AE47" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF47" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG47" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>490</v>
       </c>
       <c r="AH47" s="2">
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="2">
         <v>0</v>
       </c>
       <c r="AL47" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:48">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1181560653</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2">
+        <v>55</v>
+      </c>
+      <c r="K48" s="2">
+        <v>40</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>2</v>
+      </c>
+      <c r="R48" s="2">
+        <v>8</v>
+      </c>
+      <c r="S48" s="2">
+        <v>16</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1</v>
+      </c>
+      <c r="V48" s="2">
+        <v>2</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="AA48" s="8">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="AB48" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AD48" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AE48" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AG48" s="2">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM48" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ48" s="2">
+        <v>80</v>
+      </c>
+      <c r="AR48" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS48" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT48" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU48" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV48" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:AV47">
-    <sortCondition ref="A47"/>
+  <sortState ref="A5:AV48">
+    <sortCondition ref="A48"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2489B73-52F4-4D19-B054-0B2652A37533}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD9993B-58BB-49C2-AF70-64F9A7A35021}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -33,21 +33,10 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="DengXian"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">:
+          <t xml:space="preserve">Author:
 1 </t>
         </r>
         <r>
@@ -178,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -654,6 +643,10 @@
   </si>
   <si>
     <t>水熊猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗姨夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,14 +681,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -779,7 +764,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,13 +1045,13 @@
   <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1096,7 +1081,7 @@
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1212,7 +1197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
@@ -1352,7 +1337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -1450,7 +1435,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1500,7 +1485,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1577,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" ref="Z5:Z48" si="0">P5*15</f>
+        <f>P5*15</f>
         <v>75</v>
       </c>
       <c r="AA5" s="8">
@@ -1585,27 +1570,27 @@
         <v>45</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" ref="AB5:AB48" si="1">S5*25</f>
+        <f>S5*25</f>
         <v>300</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" ref="AC5:AC48" si="2">T5*12</f>
+        <f>T5*12</f>
         <v>12</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" ref="AD5:AD48" si="3">U5*40</f>
+        <f>U5*40</f>
         <v>40</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" ref="AE5:AE48" si="4">W5*20</f>
+        <f>W5*20</f>
         <v>40</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" ref="AF5:AF48" si="5">V5*20</f>
+        <f>V5*20</f>
         <v>0</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" ref="AG5:AG48" si="6">Q5*35</f>
+        <f>Q5*35</f>
         <v>105</v>
       </c>
       <c r="AH5" s="8">
@@ -1654,7 +1639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1674,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="8">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I6" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J6" s="8">
         <v>55</v>
@@ -1731,35 +1716,35 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="0"/>
+        <f>P6*15</f>
         <v>210</v>
       </c>
       <c r="AA6" s="8">
-        <f t="shared" ref="AA6:AA48" si="7">R6*15</f>
+        <f>R6*15</f>
         <v>120</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" si="1"/>
+        <f>S6*25</f>
         <v>350</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="2"/>
+        <f>T6*12</f>
         <v>96</v>
       </c>
       <c r="AD6" s="2">
-        <f t="shared" si="3"/>
+        <f>U6*40</f>
         <v>200</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="4"/>
+        <f>W6*20</f>
         <v>60</v>
       </c>
       <c r="AF6" s="2">
-        <f t="shared" si="5"/>
+        <f>V6*20</f>
         <v>80</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" si="6"/>
+        <f>Q6*35</f>
         <v>105</v>
       </c>
       <c r="AH6" s="8">
@@ -1808,7 +1793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1885,35 +1870,35 @@
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="0"/>
+        <f>P7*15</f>
         <v>60</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="7"/>
+        <f>R7*15</f>
         <v>45</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="1"/>
+        <f>S7*25</f>
         <v>325</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="2"/>
+        <f>T7*12</f>
         <v>144</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="3"/>
+        <f>U7*40</f>
         <v>400</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="4"/>
+        <f>W7*20</f>
         <v>60</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="5"/>
+        <f>V7*20</f>
         <v>20</v>
       </c>
       <c r="AG7" s="8">
-        <f t="shared" si="6"/>
+        <f>Q7*35</f>
         <v>420</v>
       </c>
       <c r="AH7" s="8">
@@ -1962,7 +1947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2039,35 +2024,35 @@
         <v>0</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="0"/>
+        <f>P8*15</f>
         <v>60</v>
       </c>
       <c r="AA8" s="8">
-        <f t="shared" si="7"/>
+        <f>R8*15</f>
         <v>45</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="1"/>
+        <f>S8*25</f>
         <v>350</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="2"/>
+        <f>T8*12</f>
         <v>144</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="3"/>
+        <f>U8*40</f>
         <v>400</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="4"/>
+        <f>W8*20</f>
         <v>20</v>
       </c>
       <c r="AF8" s="2">
-        <f t="shared" si="5"/>
+        <f>V8*20</f>
         <v>20</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" si="6"/>
+        <f>Q8*35</f>
         <v>350</v>
       </c>
       <c r="AH8" s="2">
@@ -2116,7 +2101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2193,35 +2178,35 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="0"/>
+        <f>P9*15</f>
         <v>60</v>
       </c>
       <c r="AA9" s="8">
-        <f t="shared" si="7"/>
+        <f>R9*15</f>
         <v>45</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="1"/>
+        <f>S9*25</f>
         <v>200</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="2"/>
+        <f>T9*12</f>
         <v>168</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="3"/>
+        <f>U9*40</f>
         <v>440</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="4"/>
+        <f>W9*20</f>
         <v>40</v>
       </c>
       <c r="AF9" s="2">
-        <f t="shared" si="5"/>
+        <f>V9*20</f>
         <v>20</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" si="6"/>
+        <f>Q9*35</f>
         <v>420</v>
       </c>
       <c r="AH9" s="2">
@@ -2270,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2347,35 +2332,35 @@
         <v>0</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="0"/>
+        <f>P10*15</f>
         <v>180</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" si="7"/>
+        <f>R10*15</f>
         <v>105</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="1"/>
+        <f>S10*25</f>
         <v>300</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="2"/>
+        <f>T10*12</f>
         <v>12</v>
       </c>
       <c r="AD10" s="2">
-        <f t="shared" si="3"/>
+        <f>U10*40</f>
         <v>40</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="4"/>
+        <f>W10*20</f>
         <v>40</v>
       </c>
       <c r="AF10" s="2">
-        <f t="shared" si="5"/>
+        <f>V10*20</f>
         <v>100</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" si="6"/>
+        <f>Q10*35</f>
         <v>35</v>
       </c>
       <c r="AH10" s="2">
@@ -2424,7 +2409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2501,35 +2486,35 @@
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="0"/>
+        <f>P11*15</f>
         <v>60</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" si="7"/>
+        <f>R11*15</f>
         <v>45</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="1"/>
+        <f>S11*25</f>
         <v>350</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="2"/>
+        <f>T11*12</f>
         <v>168</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="3"/>
+        <f>U11*40</f>
         <v>480</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="4"/>
+        <f>W11*20</f>
         <v>20</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="5"/>
+        <f>V11*20</f>
         <v>0</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" si="6"/>
+        <f>Q11*35</f>
         <v>420</v>
       </c>
       <c r="AH11" s="2">
@@ -2545,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM11" s="2">
         <v>40</v>
@@ -2563,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="AR11" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS11" s="2">
         <v>60</v>
@@ -2578,7 +2563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -2655,35 +2640,35 @@
         <v>0</v>
       </c>
       <c r="Z12" s="8">
-        <f t="shared" si="0"/>
+        <f>P12*15</f>
         <v>60</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" si="7"/>
+        <f>R12*15</f>
         <v>45</v>
       </c>
       <c r="AB12" s="8">
-        <f t="shared" si="1"/>
+        <f>S12*25</f>
         <v>350</v>
       </c>
       <c r="AC12" s="8">
-        <f t="shared" si="2"/>
+        <f>T12*12</f>
         <v>156</v>
       </c>
       <c r="AD12" s="8">
-        <f t="shared" si="3"/>
+        <f>U12*40</f>
         <v>400</v>
       </c>
       <c r="AE12" s="8">
-        <f t="shared" si="4"/>
+        <f>W12*20</f>
         <v>60</v>
       </c>
       <c r="AF12" s="8">
-        <f t="shared" si="5"/>
+        <f>V12*20</f>
         <v>20</v>
       </c>
       <c r="AG12" s="8">
-        <f t="shared" si="6"/>
+        <f>Q12*35</f>
         <v>350</v>
       </c>
       <c r="AH12" s="8">
@@ -2732,21 +2717,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C13" s="2">
-        <v>1078572878</v>
+        <v>3119602897</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2755,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
         <v>55</v>
@@ -2782,26 +2767,26 @@
         <v>10</v>
       </c>
       <c r="Q13" s="2">
-        <v>7</v>
-      </c>
-      <c r="R13" s="1">
-        <v>8</v>
-      </c>
-      <c r="S13" s="1">
-        <v>10</v>
-      </c>
-      <c r="T13" s="1">
-        <v>5</v>
-      </c>
-      <c r="U13" s="1">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>6</v>
+      </c>
+      <c r="S13" s="2">
+        <v>16</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2</v>
+      </c>
+      <c r="W13" s="2">
         <v>4</v>
       </c>
-      <c r="V13" s="1">
-        <v>3</v>
-      </c>
-      <c r="W13" s="1">
-        <v>3</v>
-      </c>
       <c r="X13" s="2">
         <v>0</v>
       </c>
@@ -2809,92 +2794,92 @@
         <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="0"/>
+        <f>P13*15</f>
         <v>150</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="7"/>
-        <v>120</v>
+        <f>R13*15</f>
+        <v>90</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f>S13*25</f>
+        <v>400</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>T13*12</f>
+        <v>12</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f>U13*40</f>
+        <v>40</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f>W13*20</f>
+        <v>80</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f>V13*20</f>
+        <v>40</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="6"/>
-        <v>245</v>
+        <f>Q13*35</f>
+        <v>70</v>
       </c>
       <c r="AH13" s="2">
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="AJ13" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AM13" s="2">
         <v>80</v>
       </c>
       <c r="AN13" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AO13" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AQ13" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR13" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AS13" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AT13" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AU13" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AV13" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
-        <v>918404274</v>
+        <v>1078572878</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2909,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
         <v>55</v>
@@ -2936,25 +2921,25 @@
         <v>10</v>
       </c>
       <c r="Q14" s="2">
+        <v>7</v>
+      </c>
+      <c r="R14" s="1">
+        <v>8</v>
+      </c>
+      <c r="S14" s="1">
         <v>10</v>
       </c>
-      <c r="R14" s="2">
-        <v>8</v>
-      </c>
-      <c r="S14" s="2">
-        <v>10</v>
-      </c>
-      <c r="T14" s="2">
-        <v>10</v>
-      </c>
-      <c r="U14" s="2">
-        <v>8</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1</v>
+      <c r="T14" s="1">
+        <v>5</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -2963,66 +2948,66 @@
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="0"/>
+        <f>P14*15</f>
         <v>150</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="7"/>
+        <f>R14*15</f>
         <v>120</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="1"/>
+        <f>S14*25</f>
         <v>250</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="2"/>
+        <f>T14*12</f>
+        <v>60</v>
+      </c>
+      <c r="AD14" s="2">
+        <f>U14*40</f>
+        <v>160</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>W14*20</f>
+        <v>60</v>
+      </c>
+      <c r="AF14" s="2">
+        <f>V14*20</f>
+        <v>60</v>
+      </c>
+      <c r="AG14" s="2">
+        <f>Q14*35</f>
+        <v>245</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ14" s="2">
         <v>120</v>
       </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="AF14" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="AG14" s="2">
-        <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>140</v>
-      </c>
       <c r="AK14" s="2">
         <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AM14" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN14" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AO14" s="2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP14" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AQ14" s="2">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AR14" s="2">
         <v>120</v>
@@ -3034,21 +3019,21 @@
         <v>120</v>
       </c>
       <c r="AU14" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV14" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="2">
-        <v>1819798421</v>
+        <v>918404274</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -3060,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <v>55</v>
@@ -3087,28 +3072,28 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R15" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S15" s="2">
+        <v>10</v>
+      </c>
+      <c r="T15" s="2">
+        <v>10</v>
+      </c>
+      <c r="U15" s="2">
         <v>8</v>
       </c>
-      <c r="T15" s="2">
-        <v>14</v>
-      </c>
-      <c r="U15" s="2">
-        <v>11</v>
-      </c>
       <c r="V15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -3117,36 +3102,36 @@
         <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>P15*15</f>
+        <v>150</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <f>R15*15</f>
+        <v>120</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f>S15*25</f>
+        <v>250</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f>T15*12</f>
+        <v>120</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f>U15*40</f>
+        <v>320</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f>W15*20</f>
+        <v>20</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f>V15*20</f>
+        <v>20</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" si="6"/>
-        <v>420</v>
+        <f>Q15*35</f>
+        <v>350</v>
       </c>
       <c r="AH15" s="2">
         <v>0</v>
@@ -3155,54 +3140,54 @@
         <v>140</v>
       </c>
       <c r="AJ15" s="2">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="AK15" s="2">
         <v>0</v>
       </c>
       <c r="AL15" s="2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AM15" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AN15" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AO15" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AP15" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AQ15" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AR15" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS15" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT15" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AU15" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV15" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="2">
-        <v>1135924797</v>
+        <v>1819798421</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3214,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="2">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>55</v>
@@ -3241,28 +3226,28 @@
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T16" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="U16" s="2">
+        <v>11</v>
+      </c>
+      <c r="V16" s="2">
         <v>2</v>
       </c>
-      <c r="V16" s="2">
-        <v>1</v>
-      </c>
       <c r="W16" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -3271,98 +3256,98 @@
         <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>P16*15</f>
+        <v>60</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>R16*15</f>
+        <v>45</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f>S16*25</f>
+        <v>200</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f>T16*12</f>
+        <v>168</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f>U16*40</f>
+        <v>440</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <f>W16*20</f>
+        <v>40</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>V16*20</f>
+        <v>40</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="6"/>
-        <v>175</v>
+        <f>Q16*35</f>
+        <v>420</v>
       </c>
       <c r="AH16" s="2">
         <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ16" s="2">
-        <v>60</v>
+        <v>620</v>
       </c>
       <c r="AK16" s="2">
         <v>0</v>
       </c>
       <c r="AL16" s="2">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="AN16" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AO16" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AP16" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AQ16" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AR16" s="2">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="AS16" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AT16" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AU16" s="2">
         <v>80</v>
       </c>
       <c r="AV16" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="2">
-        <v>2173485759</v>
+        <v>1135924797</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -3371,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I17" s="2">
         <v>4</v>
@@ -3383,7 +3368,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3395,28 +3380,28 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2">
         <v>12</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="T17" s="2">
+        <v>3</v>
+      </c>
+      <c r="U17" s="2">
         <v>2</v>
       </c>
-      <c r="R17" s="2">
-        <v>7</v>
-      </c>
-      <c r="S17" s="2">
-        <v>13</v>
-      </c>
-      <c r="T17" s="2">
-        <v>4</v>
-      </c>
-      <c r="U17" s="2">
-        <v>3</v>
-      </c>
       <c r="V17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W17" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -3425,42 +3410,42 @@
         <v>0</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="0"/>
+        <f>P17*15</f>
+        <v>75</v>
+      </c>
+      <c r="AA17" s="8">
+        <f>R17*15</f>
+        <v>60</v>
+      </c>
+      <c r="AB17" s="2">
+        <f>S17*25</f>
+        <v>300</v>
+      </c>
+      <c r="AC17" s="2">
+        <f>T17*12</f>
+        <v>36</v>
+      </c>
+      <c r="AD17" s="2">
+        <f>U17*40</f>
+        <v>80</v>
+      </c>
+      <c r="AE17" s="2">
+        <f>W17*20</f>
         <v>180</v>
       </c>
-      <c r="AA17" s="8">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="AB17" s="2">
-        <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="AC17" s="2">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="AD17" s="2">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
       <c r="AF17" s="2">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f>V17*20</f>
+        <v>20</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f>Q17*35</f>
+        <v>175</v>
       </c>
       <c r="AH17" s="2">
         <v>0</v>
       </c>
       <c r="AI17" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AJ17" s="2">
         <v>60</v>
@@ -3469,48 +3454,48 @@
         <v>0</v>
       </c>
       <c r="AL17" s="2">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AM17" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AN17" s="2">
         <v>160</v>
       </c>
       <c r="AO17" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AP17" s="2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AQ17" s="2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AR17" s="2">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AS17" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT17" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU17" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AV17" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2">
-        <v>3119602897</v>
+        <v>2173485759</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3525,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="2">
         <v>55</v>
@@ -3537,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -3549,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="2">
         <v>2</v>
       </c>
       <c r="R18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S18" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -3579,75 +3564,75 @@
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>P18*15</f>
+        <v>180</v>
       </c>
       <c r="AA18" s="8">
         <f>R18*15</f>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f>S18*25</f>
+        <v>325</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>T18*12</f>
+        <v>48</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>U18*40</f>
+        <v>120</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="4"/>
+        <f>W18*20</f>
+        <v>60</v>
+      </c>
+      <c r="AF18" s="2">
+        <f>V18*20</f>
         <v>80</v>
       </c>
-      <c r="AF18" s="2">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
       <c r="AG18" s="2">
-        <f t="shared" si="6"/>
+        <f>Q18*35</f>
         <v>70</v>
       </c>
       <c r="AH18" s="2">
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AJ18" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK18" s="2">
         <v>0</v>
       </c>
       <c r="AL18" s="2">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AN18" s="2">
         <v>160</v>
       </c>
       <c r="AO18" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AP18" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AQ18" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AR18" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AS18" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AT18" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AU18" s="2">
         <v>60</v>
@@ -3656,7 +3641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -3682,7 +3667,7 @@
         <v>0.2</v>
       </c>
       <c r="I19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" s="2">
         <v>55</v>
@@ -3703,16 +3688,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="2">
         <v>3</v>
       </c>
       <c r="R19" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S19" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T19" s="2">
         <v>2</v>
@@ -3733,35 +3718,35 @@
         <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>P19*15</f>
+        <v>75</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <f>R19*15</f>
+        <v>90</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="1"/>
-        <v>425</v>
+        <f>S19*25</f>
+        <v>325</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="2"/>
+        <f>T19*12</f>
         <v>24</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="3"/>
+        <f>U19*40</f>
         <v>60</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="4"/>
+        <f>W19*20</f>
         <v>20</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="5"/>
+        <f>V19*20</f>
         <v>40</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" si="6"/>
+        <f>Q19*35</f>
         <v>105</v>
       </c>
       <c r="AH19" s="2">
@@ -3777,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="AL19" s="2">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="AM19" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>300</v>
+      </c>
+      <c r="AO19" s="2">
         <v>120</v>
-      </c>
-      <c r="AN19" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>180</v>
       </c>
       <c r="AP19" s="2">
         <v>20</v>
@@ -3810,7 +3795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -3887,35 +3872,35 @@
         <v>0</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="0"/>
+        <f>P20*15</f>
         <v>150</v>
       </c>
       <c r="AA20" s="8">
-        <f t="shared" si="7"/>
+        <f>R20*15</f>
         <v>150</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="1"/>
+        <f>S20*25</f>
         <v>300</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="2"/>
+        <f>T20*12</f>
         <v>12</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" si="3"/>
+        <f>U20*40</f>
         <v>40</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="4"/>
+        <f>W20*20</f>
         <v>20</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="5"/>
+        <f>V20*20</f>
         <v>100</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="6"/>
+        <f>Q20*35</f>
         <v>35</v>
       </c>
       <c r="AH20" s="2">
@@ -3964,7 +3949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -4041,35 +4026,35 @@
         <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="0"/>
+        <f>P21*15</f>
         <v>120</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="7"/>
+        <f>R21*15</f>
         <v>90</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="1"/>
+        <f>S21*25</f>
         <v>275</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="2"/>
+        <f>T21*12</f>
         <v>96</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="3"/>
+        <f>U21*40</f>
         <v>240</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="4"/>
+        <f>W21*20</f>
         <v>120</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="5"/>
+        <f>V21*20</f>
         <v>40</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="6"/>
+        <f>Q21*35</f>
         <v>280</v>
       </c>
       <c r="AH21" s="2">
@@ -4085,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="2">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="AM21" s="2">
         <v>60</v>
@@ -4118,7 +4103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -4195,35 +4180,35 @@
         <v>0</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="0"/>
+        <f>P22*15</f>
         <v>210</v>
       </c>
       <c r="AA22" s="8">
-        <f t="shared" si="7"/>
+        <f>R22*15</f>
         <v>120</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="1"/>
+        <f>S22*25</f>
         <v>350</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="2"/>
+        <f>T22*12</f>
         <v>96</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="3"/>
+        <f>U22*40</f>
         <v>200</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="4"/>
+        <f>W22*20</f>
         <v>60</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="5"/>
+        <f>V22*20</f>
         <v>80</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="6"/>
+        <f>Q22*35</f>
         <v>105</v>
       </c>
       <c r="AH22" s="2">
@@ -4272,7 +4257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -4349,35 +4334,35 @@
         <v>0</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="0"/>
+        <f>P23*15</f>
         <v>120</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="7"/>
+        <f>R23*15</f>
         <v>90</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="1"/>
+        <f>S23*25</f>
         <v>250</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="2"/>
+        <f>T23*12</f>
         <v>144</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="3"/>
+        <f>U23*40</f>
         <v>320</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="4"/>
+        <f>W23*20</f>
         <v>0</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="5"/>
+        <f>V23*20</f>
         <v>20</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="6"/>
+        <f>Q23*35</f>
         <v>280</v>
       </c>
       <c r="AH23" s="2">
@@ -4426,7 +4411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -4503,35 +4488,35 @@
         <v>0</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="0"/>
+        <f>P24*15</f>
         <v>75</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="7"/>
+        <f>R24*15</f>
         <v>60</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="1"/>
+        <f>S24*25</f>
         <v>250</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="2"/>
+        <f>T24*12</f>
         <v>36</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="3"/>
+        <f>U24*40</f>
         <v>80</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="4"/>
+        <f>W24*20</f>
         <v>0</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="5"/>
+        <f>V24*20</f>
         <v>0</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="6"/>
+        <f>Q24*35</f>
         <v>490</v>
       </c>
       <c r="AH24" s="2">
@@ -4580,7 +4565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -4657,35 +4642,35 @@
         <v>0</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="0"/>
+        <f>P25*15</f>
         <v>75</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="7"/>
+        <f>R25*15</f>
         <v>150</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="1"/>
+        <f>S25*25</f>
         <v>250</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="2"/>
+        <f>T25*12</f>
         <v>72</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="3"/>
+        <f>U25*40</f>
         <v>200</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="4"/>
+        <f>W25*20</f>
         <v>100</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="5"/>
+        <f>V25*20</f>
         <v>20</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="6"/>
+        <f>Q25*35</f>
         <v>70</v>
       </c>
       <c r="AH25" s="2">
@@ -4734,7 +4719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -4811,35 +4796,35 @@
         <v>0</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="0"/>
+        <f>P26*15</f>
         <v>105</v>
       </c>
       <c r="AA26" s="8">
-        <f t="shared" si="7"/>
+        <f>R26*15</f>
         <v>67.5</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="1"/>
+        <f>S26*25</f>
         <v>400</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="2"/>
+        <f>T26*12</f>
         <v>120</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="3"/>
+        <f>U26*40</f>
         <v>320</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="4"/>
+        <f>W26*20</f>
         <v>140</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" si="5"/>
+        <f>V26*20</f>
         <v>0</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="6"/>
+        <f>Q26*35</f>
         <v>105</v>
       </c>
       <c r="AH26" s="2">
@@ -4888,7 +4873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -4965,35 +4950,35 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="0"/>
+        <f>P27*15</f>
         <v>120</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" si="7"/>
+        <f>R27*15</f>
         <v>180</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="1"/>
+        <f>S27*25</f>
         <v>0</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" si="2"/>
+        <f>T27*12</f>
         <v>12</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" si="3"/>
+        <f>U27*40</f>
         <v>40</v>
       </c>
       <c r="AE27" s="2">
-        <f t="shared" si="4"/>
+        <f>W27*20</f>
         <v>20</v>
       </c>
       <c r="AF27" s="2">
-        <f t="shared" si="5"/>
+        <f>V27*20</f>
         <v>20</v>
       </c>
       <c r="AG27" s="2">
-        <f t="shared" si="6"/>
+        <f>Q27*35</f>
         <v>70</v>
       </c>
       <c r="AH27" s="2">
@@ -5042,7 +5027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -5119,35 +5104,35 @@
         <v>0</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="0"/>
+        <f>P28*15</f>
         <v>165</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" si="7"/>
+        <f>R28*15</f>
         <v>90</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="1"/>
+        <f>S28*25</f>
         <v>400</v>
       </c>
       <c r="AC28" s="2">
-        <f t="shared" si="2"/>
+        <f>T28*12</f>
         <v>0</v>
       </c>
       <c r="AD28" s="2">
-        <f t="shared" si="3"/>
+        <f>U28*40</f>
         <v>0</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" si="4"/>
+        <f>W28*20</f>
         <v>180</v>
       </c>
       <c r="AF28" s="2">
-        <f t="shared" si="5"/>
+        <f>V28*20</f>
         <v>0</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" si="6"/>
+        <f>Q28*35</f>
         <v>35</v>
       </c>
       <c r="AH28" s="2">
@@ -5196,7 +5181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -5273,35 +5258,35 @@
         <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="0"/>
+        <f>P29*15</f>
         <v>165</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" si="7"/>
+        <f>R29*15</f>
         <v>60</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="1"/>
+        <f>S29*25</f>
         <v>400</v>
       </c>
       <c r="AC29" s="2">
-        <f t="shared" si="2"/>
+        <f>T29*12</f>
         <v>0</v>
       </c>
       <c r="AD29" s="2">
-        <f t="shared" si="3"/>
+        <f>U29*40</f>
         <v>0</v>
       </c>
       <c r="AE29" s="2">
-        <f t="shared" si="4"/>
+        <f>W29*20</f>
         <v>180</v>
       </c>
       <c r="AF29" s="2">
-        <f t="shared" si="5"/>
+        <f>V29*20</f>
         <v>20</v>
       </c>
       <c r="AG29" s="2">
-        <f t="shared" si="6"/>
+        <f>Q29*35</f>
         <v>35</v>
       </c>
       <c r="AH29" s="2">
@@ -5350,7 +5335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -5427,35 +5412,35 @@
         <v>0</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="0"/>
+        <f>P30*15</f>
         <v>105</v>
       </c>
       <c r="AA30" s="8">
-        <f t="shared" si="7"/>
+        <f>R30*15</f>
         <v>75</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="1"/>
+        <f>S30*25</f>
         <v>275</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" si="2"/>
+        <f>T30*12</f>
         <v>0</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" si="3"/>
+        <f>U30*40</f>
         <v>0</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="4"/>
+        <f>W30*20</f>
         <v>180</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" si="5"/>
+        <f>V30*20</f>
         <v>20</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" si="6"/>
+        <f>Q30*35</f>
         <v>35</v>
       </c>
       <c r="AH30" s="2">
@@ -5504,7 +5489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -5581,35 +5566,35 @@
         <v>0</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="0"/>
+        <f>P31*15</f>
         <v>60</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" si="7"/>
+        <f>R31*15</f>
         <v>45</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="1"/>
+        <f>S31*25</f>
         <v>175</v>
       </c>
       <c r="AC31" s="2">
-        <f t="shared" si="2"/>
+        <f>T31*12</f>
         <v>168</v>
       </c>
       <c r="AD31" s="2">
-        <f t="shared" si="3"/>
+        <f>U31*40</f>
         <v>440</v>
       </c>
       <c r="AE31" s="2">
-        <f t="shared" si="4"/>
+        <f>W31*20</f>
         <v>20</v>
       </c>
       <c r="AF31" s="2">
-        <f t="shared" si="5"/>
+        <f>V31*20</f>
         <v>20</v>
       </c>
       <c r="AG31" s="2">
-        <f t="shared" si="6"/>
+        <f>Q31*35</f>
         <v>420</v>
       </c>
       <c r="AH31" s="2">
@@ -5658,7 +5643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -5735,35 +5720,35 @@
         <v>0</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="0"/>
+        <f>P32*15</f>
         <v>60</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" si="7"/>
+        <f>R32*15</f>
         <v>45</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="1"/>
+        <f>S32*25</f>
         <v>175</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="2"/>
+        <f>T32*12</f>
         <v>168</v>
       </c>
       <c r="AD32" s="2">
-        <f t="shared" si="3"/>
+        <f>U32*40</f>
         <v>440</v>
       </c>
       <c r="AE32" s="2">
-        <f t="shared" si="4"/>
+        <f>W32*20</f>
         <v>20</v>
       </c>
       <c r="AF32" s="2">
-        <f t="shared" si="5"/>
+        <f>V32*20</f>
         <v>20</v>
       </c>
       <c r="AG32" s="2">
-        <f t="shared" si="6"/>
+        <f>Q32*35</f>
         <v>420</v>
       </c>
       <c r="AH32" s="2">
@@ -5812,7 +5797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -5889,35 +5874,35 @@
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="0"/>
+        <f>P33*15</f>
         <v>105</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" si="7"/>
+        <f>R33*15</f>
         <v>67.5</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="1"/>
+        <f>S33*25</f>
         <v>275</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="2"/>
+        <f>T33*12</f>
         <v>108</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" si="3"/>
+        <f>U33*40</f>
         <v>320</v>
       </c>
       <c r="AE33" s="2">
-        <f t="shared" si="4"/>
+        <f>W33*20</f>
         <v>80</v>
       </c>
       <c r="AF33" s="2">
-        <f t="shared" si="5"/>
+        <f>V33*20</f>
         <v>20</v>
       </c>
       <c r="AG33" s="2">
-        <f t="shared" si="6"/>
+        <f>Q33*35</f>
         <v>350</v>
       </c>
       <c r="AH33" s="8">
@@ -5966,7 +5951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -6043,35 +6028,35 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="0"/>
+        <f>P34*15</f>
         <v>90</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" si="7"/>
+        <f>R34*15</f>
         <v>67.5</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="1"/>
+        <f>S34*25</f>
         <v>400</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="2"/>
+        <f>T34*12</f>
         <v>12</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="3"/>
+        <f>U34*40</f>
         <v>40</v>
       </c>
       <c r="AE34" s="2">
-        <f t="shared" si="4"/>
+        <f>W34*20</f>
         <v>180</v>
       </c>
       <c r="AF34" s="2">
-        <f t="shared" si="5"/>
+        <f>V34*20</f>
         <v>0</v>
       </c>
       <c r="AG34" s="2">
-        <f t="shared" si="6"/>
+        <f>Q34*35</f>
         <v>70</v>
       </c>
       <c r="AH34" s="2">
@@ -6120,7 +6105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -6197,35 +6182,35 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="0"/>
+        <f>P35*15</f>
         <v>60</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" si="7"/>
+        <f>R35*15</f>
         <v>45</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="1"/>
+        <f>S35*25</f>
         <v>200</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="2"/>
+        <f>T35*12</f>
         <v>168</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" si="3"/>
+        <f>U35*40</f>
         <v>440</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" si="4"/>
+        <f>W35*20</f>
         <v>60</v>
       </c>
       <c r="AF35" s="2">
-        <f t="shared" si="5"/>
+        <f>V35*20</f>
         <v>0</v>
       </c>
       <c r="AG35" s="2">
-        <f t="shared" si="6"/>
+        <f>Q35*35</f>
         <v>420</v>
       </c>
       <c r="AH35" s="2">
@@ -6274,7 +6259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -6351,35 +6336,35 @@
         <v>0</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="0"/>
+        <f>P36*15</f>
         <v>150</v>
       </c>
       <c r="AA36" s="8">
-        <f t="shared" si="7"/>
+        <f>R36*15</f>
         <v>150</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="1"/>
+        <f>S36*25</f>
         <v>325</v>
       </c>
       <c r="AC36" s="2">
-        <f t="shared" si="2"/>
+        <f>T36*12</f>
         <v>12</v>
       </c>
       <c r="AD36" s="2">
-        <f t="shared" si="3"/>
+        <f>U36*40</f>
         <v>40</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="4"/>
+        <f>W36*20</f>
         <v>140</v>
       </c>
       <c r="AF36" s="2">
-        <f t="shared" si="5"/>
+        <f>V36*20</f>
         <v>20</v>
       </c>
       <c r="AG36" s="2">
-        <f t="shared" si="6"/>
+        <f>Q36*35</f>
         <v>70</v>
       </c>
       <c r="AH36" s="2">
@@ -6428,7 +6413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -6505,35 +6490,35 @@
         <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="0"/>
+        <f>P37*15</f>
         <v>120</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="7"/>
+        <f>R37*15</f>
         <v>210</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="1"/>
+        <f>S37*25</f>
         <v>250</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="2"/>
+        <f>T37*12</f>
         <v>12</v>
       </c>
       <c r="AD37" s="2">
-        <f t="shared" si="3"/>
+        <f>U37*40</f>
         <v>40</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="4"/>
+        <f>W37*20</f>
         <v>60</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" si="5"/>
+        <f>V37*20</f>
         <v>40</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" si="6"/>
+        <f>Q37*35</f>
         <v>35</v>
       </c>
       <c r="AH37" s="2">
@@ -6582,7 +6567,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -6659,35 +6644,35 @@
         <v>0</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="0"/>
+        <f>P38*15</f>
         <v>135</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" si="7"/>
+        <f>R38*15</f>
         <v>90</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="1"/>
+        <f>S38*25</f>
         <v>400</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="2"/>
+        <f>T38*12</f>
         <v>0</v>
       </c>
       <c r="AD38" s="2">
-        <f t="shared" si="3"/>
+        <f>U38*40</f>
         <v>0</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="4"/>
+        <f>W38*20</f>
         <v>180</v>
       </c>
       <c r="AF38" s="2">
-        <f t="shared" si="5"/>
+        <f>V38*20</f>
         <v>20</v>
       </c>
       <c r="AG38" s="2">
-        <f t="shared" si="6"/>
+        <f>Q38*35</f>
         <v>140</v>
       </c>
       <c r="AH38" s="2">
@@ -6736,7 +6721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -6813,35 +6798,35 @@
         <v>0</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="0"/>
+        <f>P39*15</f>
         <v>150</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="7"/>
+        <f>R39*15</f>
         <v>120</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="1"/>
+        <f>S39*25</f>
         <v>0</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="2"/>
+        <f>T39*12</f>
         <v>48</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" si="3"/>
+        <f>U39*40</f>
         <v>120</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="4"/>
+        <f>W39*20</f>
         <v>60</v>
       </c>
       <c r="AF39" s="2">
-        <f t="shared" si="5"/>
+        <f>V39*20</f>
         <v>60</v>
       </c>
       <c r="AG39" s="2">
-        <f t="shared" si="6"/>
+        <f>Q39*35</f>
         <v>210</v>
       </c>
       <c r="AH39" s="2">
@@ -6890,7 +6875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -6967,35 +6952,35 @@
         <v>0</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="0"/>
+        <f>P40*15</f>
         <v>180</v>
       </c>
       <c r="AA40" s="8">
-        <f t="shared" si="7"/>
+        <f>R40*15</f>
         <v>150</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="1"/>
+        <f>S40*25</f>
         <v>200</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="2"/>
+        <f>T40*12</f>
         <v>12</v>
       </c>
       <c r="AD40" s="2">
-        <f t="shared" si="3"/>
+        <f>U40*40</f>
         <v>40</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="4"/>
+        <f>W40*20</f>
         <v>100</v>
       </c>
       <c r="AF40" s="2">
-        <f t="shared" si="5"/>
+        <f>V40*20</f>
         <v>40</v>
       </c>
       <c r="AG40" s="2">
-        <f t="shared" si="6"/>
+        <f>Q40*35</f>
         <v>70</v>
       </c>
       <c r="AH40" s="2">
@@ -7044,7 +7029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -7121,35 +7106,35 @@
         <v>0</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="0"/>
+        <f>P41*15</f>
         <v>90</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="7"/>
+        <f>R41*15</f>
         <v>210</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="1"/>
+        <f>S41*25</f>
         <v>150</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="2"/>
+        <f>T41*12</f>
         <v>132</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="3"/>
+        <f>U41*40</f>
         <v>400</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="4"/>
+        <f>W41*20</f>
         <v>40</v>
       </c>
       <c r="AF41" s="2">
-        <f t="shared" si="5"/>
+        <f>V41*20</f>
         <v>80</v>
       </c>
       <c r="AG41" s="2">
-        <f t="shared" si="6"/>
+        <f>Q41*35</f>
         <v>140</v>
       </c>
       <c r="AH41" s="2">
@@ -7198,7 +7183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -7275,35 +7260,35 @@
         <v>0</v>
       </c>
       <c r="Z42" s="2">
-        <f t="shared" si="0"/>
+        <f>P42*15</f>
         <v>60</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="7"/>
+        <f>R42*15</f>
         <v>45</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="1"/>
+        <f>S42*25</f>
         <v>325</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" si="2"/>
+        <f>T42*12</f>
         <v>144</v>
       </c>
       <c r="AD42" s="2">
-        <f t="shared" si="3"/>
+        <f>U42*40</f>
         <v>440</v>
       </c>
       <c r="AE42" s="2">
-        <f t="shared" si="4"/>
+        <f>W42*20</f>
         <v>60</v>
       </c>
       <c r="AF42" s="2">
-        <f t="shared" si="5"/>
+        <f>V42*20</f>
         <v>20</v>
       </c>
       <c r="AG42" s="2">
-        <f t="shared" si="6"/>
+        <f>Q42*35</f>
         <v>420</v>
       </c>
       <c r="AH42" s="8">
@@ -7352,7 +7337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -7429,35 +7414,35 @@
         <v>0</v>
       </c>
       <c r="Z43" s="2">
-        <f t="shared" si="0"/>
+        <f>P43*15</f>
         <v>120</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="7"/>
+        <f>R43*15</f>
         <v>90</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" si="1"/>
+        <f>S43*25</f>
         <v>350</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" si="2"/>
+        <f>T43*12</f>
         <v>6</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="3"/>
+        <f>U43*40</f>
         <v>4</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="4"/>
+        <f>W43*20</f>
         <v>140</v>
       </c>
       <c r="AF43" s="2">
-        <f t="shared" si="5"/>
+        <f>V43*20</f>
         <v>40</v>
       </c>
       <c r="AG43" s="2">
-        <f t="shared" si="6"/>
+        <f>Q43*35</f>
         <v>35</v>
       </c>
       <c r="AH43" s="2">
@@ -7506,7 +7491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -7583,35 +7568,35 @@
         <v>0</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="0"/>
+        <f>P44*15</f>
         <v>135</v>
       </c>
       <c r="AA44" s="8">
-        <f t="shared" si="7"/>
+        <f>R44*15</f>
         <v>105</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="1"/>
+        <f>S44*25</f>
         <v>400</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" si="2"/>
+        <f>T44*12</f>
         <v>12</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="3"/>
+        <f>U44*40</f>
         <v>40</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="4"/>
+        <f>W44*20</f>
         <v>60</v>
       </c>
       <c r="AF44" s="2">
-        <f t="shared" si="5"/>
+        <f>V44*20</f>
         <v>40</v>
       </c>
       <c r="AG44" s="2">
-        <f t="shared" si="6"/>
+        <f>Q44*35</f>
         <v>105</v>
       </c>
       <c r="AH44" s="2">
@@ -7660,7 +7645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -7737,35 +7722,35 @@
         <v>0</v>
       </c>
       <c r="Z45" s="2">
-        <f t="shared" si="0"/>
+        <f>P45*15</f>
         <v>60</v>
       </c>
       <c r="AA45" s="8">
-        <f t="shared" si="7"/>
+        <f>R45*15</f>
         <v>45</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" si="1"/>
+        <f>S45*25</f>
         <v>350</v>
       </c>
       <c r="AC45" s="2">
-        <f t="shared" si="2"/>
+        <f>T45*12</f>
         <v>168</v>
       </c>
       <c r="AD45" s="2">
-        <f t="shared" si="3"/>
+        <f>U45*40</f>
         <v>440</v>
       </c>
       <c r="AE45" s="2">
-        <f t="shared" si="4"/>
+        <f>W45*20</f>
         <v>80</v>
       </c>
       <c r="AF45" s="2">
-        <f t="shared" si="5"/>
+        <f>V45*20</f>
         <v>20</v>
       </c>
       <c r="AG45" s="2">
-        <f t="shared" si="6"/>
+        <f>Q45*35</f>
         <v>420</v>
       </c>
       <c r="AH45" s="2">
@@ -7814,7 +7799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -7891,35 +7876,35 @@
         <v>0</v>
       </c>
       <c r="Z46" s="2">
-        <f t="shared" si="0"/>
+        <f>P46*15</f>
         <v>180</v>
       </c>
       <c r="AA46" s="8">
-        <f t="shared" si="7"/>
+        <f>R46*15</f>
         <v>150</v>
       </c>
       <c r="AB46" s="2">
-        <f t="shared" si="1"/>
+        <f>S46*25</f>
         <v>300</v>
       </c>
       <c r="AC46" s="2">
-        <f t="shared" si="2"/>
+        <f>T46*12</f>
         <v>12</v>
       </c>
       <c r="AD46" s="2">
-        <f t="shared" si="3"/>
+        <f>U46*40</f>
         <v>40</v>
       </c>
       <c r="AE46" s="2">
-        <f t="shared" si="4"/>
+        <f>W46*20</f>
         <v>180</v>
       </c>
       <c r="AF46" s="2">
-        <f t="shared" si="5"/>
+        <f>V46*20</f>
         <v>60</v>
       </c>
       <c r="AG46" s="2">
-        <f t="shared" si="6"/>
+        <f>Q46*35</f>
         <v>105</v>
       </c>
       <c r="AH46" s="2">
@@ -7968,7 +7953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -8045,35 +8030,35 @@
         <v>0</v>
       </c>
       <c r="Z47" s="2">
-        <f t="shared" si="0"/>
+        <f>P47*15</f>
         <v>150</v>
       </c>
       <c r="AA47" s="8">
-        <f t="shared" si="7"/>
+        <f>R47*15</f>
         <v>120</v>
       </c>
       <c r="AB47" s="2">
-        <f t="shared" si="1"/>
+        <f>S47*25</f>
         <v>300</v>
       </c>
       <c r="AC47" s="2">
-        <f t="shared" si="2"/>
+        <f>T47*12</f>
         <v>12</v>
       </c>
       <c r="AD47" s="2">
-        <f t="shared" si="3"/>
+        <f>U47*40</f>
         <v>40</v>
       </c>
       <c r="AE47" s="2">
-        <f t="shared" si="4"/>
+        <f>W47*20</f>
         <v>180</v>
       </c>
       <c r="AF47" s="2">
-        <f t="shared" si="5"/>
+        <f>V47*20</f>
         <v>20</v>
       </c>
       <c r="AG47" s="2">
-        <f t="shared" si="6"/>
+        <f>Q47*35</f>
         <v>490</v>
       </c>
       <c r="AH47" s="2">
@@ -8122,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -8199,35 +8184,35 @@
         <v>0</v>
       </c>
       <c r="Z48" s="2">
-        <f t="shared" si="0"/>
+        <f>P48*15</f>
         <v>135</v>
       </c>
       <c r="AA48" s="8">
-        <f t="shared" si="7"/>
+        <f>R48*15</f>
         <v>120</v>
       </c>
       <c r="AB48" s="2">
-        <f t="shared" si="1"/>
+        <f>S48*25</f>
         <v>400</v>
       </c>
       <c r="AC48" s="2">
-        <f t="shared" si="2"/>
+        <f>T48*12</f>
         <v>12</v>
       </c>
       <c r="AD48" s="2">
-        <f t="shared" si="3"/>
+        <f>U48*40</f>
         <v>40</v>
       </c>
       <c r="AE48" s="2">
-        <f t="shared" si="4"/>
+        <f>W48*20</f>
         <v>0</v>
       </c>
       <c r="AF48" s="2">
-        <f t="shared" si="5"/>
+        <f>V48*20</f>
         <v>40</v>
       </c>
       <c r="AG48" s="2">
-        <f t="shared" si="6"/>
+        <f>Q48*35</f>
         <v>70</v>
       </c>
       <c r="AH48" s="2">
@@ -8278,7 +8263,7 @@
     </row>
   </sheetData>
   <sortState ref="A5:AV48">
-    <sortCondition ref="A48"/>
+    <sortCondition ref="A5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8289,13 +8274,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C3FA45-F533-41C0-A329-7AEA02C7272B}">
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AT45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:V11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -8305,9 +8290,9 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>75</v>
@@ -8445,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -8585,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8725,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8865,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -9005,617 +8990,431 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f>63/G10</f>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <f>63/G16</f>
         <v>9.6923076923076916</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="1">
-        <f>42/J10</f>
+      <c r="H14" s="3"/>
+      <c r="J14" s="1">
+        <f>42/J16</f>
         <v>8.4</v>
       </c>
-      <c r="K8" s="1">
-        <f>58/K10</f>
+      <c r="K14" s="1">
+        <f>58/K16</f>
         <v>11.6</v>
       </c>
-      <c r="L8" s="1">
-        <f>80/L10</f>
+      <c r="L14" s="1">
+        <f>80/L16</f>
         <v>14.545454545454545</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
-    <row r="9" spans="1:46">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
         <v>12</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H15" s="2">
         <v>34</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I15" s="2">
         <v>56</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J15" s="1">
         <v>8</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K15" s="1">
         <v>9</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M15" s="1">
         <v>11</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N15" s="1">
         <v>12</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q15" s="2">
         <v>3</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R15" s="2">
         <v>4</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S15" s="2">
         <v>5</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T15" s="2">
         <v>6</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U15" s="2">
         <v>7</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V15" s="2">
         <v>8</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W15" s="2">
         <v>10</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X15" s="2">
         <v>11</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y15" s="2">
         <v>13</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z15" s="2">
         <v>14</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA15" s="2">
         <v>15</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB15" s="2">
         <v>16</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC15" s="2">
         <v>17</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD15" s="2">
         <v>18</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE15" s="2">
         <v>19</v>
       </c>
-      <c r="AF9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG9" s="2">
+      <c r="AF15" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="2">
         <v>21</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AH15" s="2">
         <v>22</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI15" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>6.5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H16" s="2">
         <v>6.5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I16" s="2">
         <v>6.5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K16" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L16" s="1">
         <v>5.5</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M16" s="1">
         <v>6</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N16" s="1">
         <v>6</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
-    <row r="11" spans="1:46">
-      <c r="C11" s="2" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="2" t="s">
+      <c r="T17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
-      <c r="A12" s="2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>13811</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C18" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
         <v>9</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N18" s="1">
         <v>3</v>
       </c>
-      <c r="O12" s="2">
-        <f>G12*15</f>
+      <c r="O18" s="2">
+        <f>G18*15</f>
         <v>150</v>
       </c>
-      <c r="P12" s="2">
-        <f>I12*15</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <f>J12*25</f>
+      <c r="P18" s="2">
+        <f>I18*15</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>J18*25</f>
         <v>225</v>
       </c>
-      <c r="R12" s="2">
-        <f>K12*12</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <f>L12*40</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <f>N12*20</f>
-        <v>60</v>
-      </c>
-      <c r="U12" s="2">
-        <f>M12*20</f>
-        <v>40</v>
-      </c>
-      <c r="V12" s="2">
-        <f>H12*35</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
+      <c r="R18" s="2">
+        <f>K18*12</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <f>L18*40</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <f>N18*20</f>
+        <v>60</v>
+      </c>
+      <c r="U18" s="2">
+        <f>M18*20</f>
+        <v>40</v>
+      </c>
+      <c r="V18" s="2">
+        <f>H18*35</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
         <v>100</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X18" s="2">
         <v>160</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y18" s="2">
         <v>500</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z18" s="2">
         <v>100</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA18" s="2">
         <v>160</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB18" s="2">
         <v>120</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC18" s="2">
         <v>170</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD18" s="2">
         <v>250</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE18" s="2">
         <v>100</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF18" s="2">
         <v>100</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG18" s="2">
         <v>100</v>
       </c>
-      <c r="AH12" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI12" s="2">
+      <c r="AH18" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI18" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>1078572878</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C19" s="2">
         <v>9.4</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:O21" si="0">G13*15</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" ref="P13:P21" si="1">I13*15</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" ref="Q13:Q21" si="2">J13*25</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" ref="R13:R21" si="3">K13*12</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" ref="S13:S21" si="4">L13*40</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" ref="T13:T21" si="5">N13*20</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" ref="U13:U21" si="6">M13*20</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" ref="V13:V21" si="7">H13*35</f>
+      <c r="O19" s="2">
+        <f t="shared" ref="O19:O27" si="0">G19*15</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" ref="P19:P27" si="1">I19*15</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19:Q27" si="2">J19*25</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" ref="R19:R27" si="3">K19*12</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" ref="S19:S27" si="4">L19*40</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19:T27" si="5">N19*20</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" ref="U19:U27" si="6">M19*20</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" ref="V19:V27" si="7">H19*35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
-      <c r="B14" s="1"/>
-      <c r="O14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="B15" s="1"/>
-      <c r="O15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="B16" s="1"/>
-      <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="1"/>
-      <c r="O17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="1"/>
-      <c r="O18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="1"/>
-      <c r="O19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9649,7 +9448,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9683,360 +9483,568 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
-      <c r="E28" s="2" t="s">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="O22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="O23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="O24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="O25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="O26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="O27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F34" s="2">
         <v>12015</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G34" s="2">
         <v>8730</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H34" s="2">
         <v>10875</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I34" s="2">
         <v>13500</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
-      <c r="E29" s="2" t="s">
+    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F35" s="2">
         <v>714</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G35" s="2">
         <v>736</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H35" s="2">
         <v>823</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I35" s="2">
         <v>637</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
-      <c r="E30" s="2" t="s">
+    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F36" s="2">
         <v>626</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G36" s="2">
         <v>659</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H36" s="2">
         <v>593</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I36" s="2">
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
-      <c r="E31" s="2" t="s">
+    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F37" s="2">
         <v>101</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G37" s="2">
         <v>102</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H37" s="2">
         <v>100</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I37" s="2">
         <v>96</v>
       </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
-      <c r="E32" s="2" t="s">
+    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F38" s="2">
         <v>30</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G38" s="2">
         <v>15</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H38" s="2">
         <v>30</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I38" s="2">
         <v>15</v>
       </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:28">
-      <c r="E33" s="2" t="s">
+    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F39" s="2">
         <v>50</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G39" s="2">
         <v>50</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H39" s="2">
         <v>50</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I39" s="2">
         <v>50</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M39" s="2">
         <v>0.5</v>
       </c>
-      <c r="N33" s="2">
-        <f>M33</f>
+      <c r="N39" s="2">
+        <f>M39</f>
         <v>0.5</v>
       </c>
-      <c r="Q33" s="2">
-        <f>(M33+M31)*(N33+N31)</f>
+      <c r="Q39" s="2">
+        <f>(M39+M37)*(N39+N37)</f>
         <v>2.25</v>
       </c>
     </row>
-    <row r="34" spans="5:28">
-      <c r="E34" s="2" t="s">
+    <row r="40" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="2">
-        <f>F28*(333+F30)/287/15/10/3.5</f>
+      <c r="F40" s="2">
+        <f>F34*(333+F36)/287/15/10/3.5</f>
         <v>76.47177700348432</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" ref="G34:I34" si="8">G28*(333+G30)/287/15/10/3.5</f>
+      <c r="G40" s="2">
+        <f t="shared" ref="G40:I40" si="8">G34*(333+G36)/287/15/10/3.5</f>
         <v>57.475759084121442</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H40" s="2">
         <f t="shared" si="8"/>
         <v>66.834245893479334</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I40" s="2">
         <f t="shared" si="8"/>
         <v>83.952215032354388</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" ref="J34:K34" si="9">J28*(333+J30)/287/15</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="J40" s="2">
+        <f t="shared" ref="J40:K40" si="9">J34*(333+J36)/287/15</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M34" s="2">
-        <f>2-M33</f>
+      <c r="M40" s="2">
+        <f>2-M39</f>
         <v>1.5</v>
       </c>
-      <c r="N34" s="2">
-        <f>2-N33</f>
+      <c r="N40" s="2">
+        <f>2-N39</f>
         <v>1.5</v>
       </c>
-      <c r="Q34" s="2">
-        <f>(M34+M32)*(N34+N32)</f>
+      <c r="Q40" s="2">
+        <f>(M40+M38)*(N40+N38)</f>
         <v>6.25</v>
       </c>
-      <c r="R34" s="2">
-        <f>SQRT(Q33*Q34)*2.2</f>
+      <c r="R40" s="2">
+        <f>SQRT(Q39*Q40)*2.2</f>
         <v>8.25</v>
       </c>
     </row>
-    <row r="35" spans="5:28">
-      <c r="E35" s="2" t="s">
+    <row r="41" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="2">
-        <f>F29*(1+F32/100*F33/100)*F31/110/10</f>
+      <c r="F41" s="2">
+        <f>F35*(1+F38/100*F39/100)*F37/110/10</f>
         <v>75.391909090909081</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" ref="G35:I35" si="10">G29*(1+G32/100*G33/100)*G31/110/10</f>
+      <c r="G41" s="2">
+        <f t="shared" ref="G41:I41" si="10">G35*(1+G38/100*G39/100)*G37/110/10</f>
         <v>73.365818181818184</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H41" s="2">
         <f t="shared" si="10"/>
         <v>86.040909090909082</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I41" s="2">
         <f t="shared" si="10"/>
         <v>59.762181818181816</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" ref="J35:K35" si="11">J29*(1+J32/100*J33/100)*J31/110</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="J41" s="2">
+        <f t="shared" ref="J41:K41" si="11">J35*(1+J38/100*J39/100)*J37/110</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U41" s="2">
         <v>0.65</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V41" s="2">
         <v>0.65</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X41" s="2">
         <v>0.5</v>
       </c>
-      <c r="Y35" s="2">
-        <f>X35</f>
+      <c r="Y41" s="2">
+        <f>X41</f>
         <v>0.5</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA41" s="2">
         <v>0.25</v>
       </c>
-      <c r="AB35" s="2">
-        <f>AA35</f>
+      <c r="AB41" s="2">
+        <f>AA41</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="5:28">
-      <c r="F36" s="2">
-        <f>F34/F35</f>
+    <row r="42" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="F42" s="2">
+        <f>F40/F41</f>
         <v>1.0143233925973822</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" ref="G36:K36" si="12">G34/G35</f>
+      <c r="G42" s="2">
+        <f t="shared" ref="G42:K42" si="12">G40/G41</f>
         <v>0.78341331847049878</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H42" s="2">
         <f t="shared" si="12"/>
         <v>0.77677289326247845</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I42" s="2">
         <f t="shared" si="12"/>
         <v>1.4047715876198665</v>
       </c>
-      <c r="J36" s="2" t="e">
+      <c r="J42" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="2" t="e">
+      <c r="K42" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U42" s="2">
         <v>1.35</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V42" s="2">
         <v>1.35</v>
       </c>
-      <c r="X36" s="2">
-        <f>2-X35</f>
+      <c r="X42" s="2">
+        <f>2-X41</f>
         <v>1.5</v>
       </c>
-      <c r="Y36" s="2">
-        <f>2-Y35</f>
+      <c r="Y42" s="2">
+        <f>2-Y41</f>
         <v>1.5</v>
       </c>
-      <c r="AA36" s="2">
-        <f>2-AA35</f>
+      <c r="AA42" s="2">
+        <f>2-AA41</f>
         <v>1.75</v>
       </c>
-      <c r="AB36" s="2">
-        <f>2-AB35</f>
+      <c r="AB42" s="2">
+        <f>2-AB41</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:28">
-      <c r="P37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2">
+    <row r="43" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
         <v>9.1</v>
       </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <f>V38*$Q$34+V39*$R$34</f>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <f>V44*$Q$40+V45*$R$40</f>
         <v>8.9875000000000007</v>
       </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <f>X38*$Q$34+X39*$R$34</f>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <f>X44*$Q$40+X45*$R$40</f>
         <v>8.6875</v>
       </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2">
-        <f>AA38*$Q$34+AA39*$R$34</f>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <f>AA44*$Q$40+AA45*$R$40</f>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="5:28">
-      <c r="P38" s="2">
+    <row r="44" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="P44" s="2">
         <v>0.1</v>
       </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
         <v>0.25</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X44" s="2">
         <v>0.4</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AA44" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="5:28">
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="S39" s="2">
-        <v>1</v>
-      </c>
-      <c r="V39" s="2">
+    <row r="45" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
         <v>0.9</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X45" s="2">
         <v>0.75</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AA45" s="2">
         <v>0.75</v>
       </c>
     </row>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD9993B-58BB-49C2-AF70-64F9A7A35021}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077654DE-4831-4BF8-B286-6A70DAABD687}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">作者:
 1 </t>
         </r>
         <r>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -647,6 +647,14 @@
   </si>
   <si>
     <t>暗姨夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光丁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,7 +772,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,16 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV48"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1081,7 +1089,7 @@
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1197,7 +1205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -1435,7 +1443,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1485,7 +1493,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1547,7 +1555,8 @@
         <v>1</v>
       </c>
       <c r="U5" s="8">
-        <v>1</v>
+        <f>T5*0.875</f>
+        <v>0.875</v>
       </c>
       <c r="V5" s="8">
         <v>0</v>
@@ -1562,35 +1571,35 @@
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f>P5*15</f>
+        <f t="shared" ref="Z5:Z50" si="0">P5*15</f>
         <v>75</v>
       </c>
       <c r="AA5" s="8">
-        <f>R5*15</f>
+        <f t="shared" ref="AA5:AA50" si="1">R5*15</f>
         <v>45</v>
       </c>
       <c r="AB5" s="8">
-        <f>S5*25</f>
+        <f t="shared" ref="AB5:AB50" si="2">S5*25</f>
         <v>300</v>
       </c>
       <c r="AC5" s="8">
-        <f>T5*12</f>
+        <f t="shared" ref="AC5:AC50" si="3">T5*12</f>
         <v>12</v>
       </c>
       <c r="AD5" s="8">
-        <f>U5*40</f>
+        <f t="shared" ref="AD5:AD50" si="4">U5*40</f>
+        <v>35</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="shared" ref="AE5:AE50" si="5">W5*20</f>
         <v>40</v>
       </c>
-      <c r="AE5" s="8">
-        <f>W5*20</f>
-        <v>40</v>
-      </c>
       <c r="AF5" s="8">
-        <f>V5*20</f>
+        <f t="shared" ref="AF5:AF50" si="6">V5*20</f>
         <v>0</v>
       </c>
       <c r="AG5" s="8">
-        <f>Q5*35</f>
+        <f t="shared" ref="AG5:AG50" si="7">Q5*35</f>
         <v>105</v>
       </c>
       <c r="AH5" s="8">
@@ -1639,7 +1648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="8">
         <v>14</v>
@@ -1701,7 +1710,8 @@
         <v>8</v>
       </c>
       <c r="U6" s="8">
-        <v>5</v>
+        <f>T6*0.875</f>
+        <v>7</v>
       </c>
       <c r="V6" s="8">
         <v>4</v>
@@ -1716,35 +1726,35 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f>P6*15</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="AA6" s="8">
-        <f>R6*15</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="AB6" s="2">
-        <f>S6*25</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="AC6" s="2">
-        <f>T6*12</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="AD6" s="2">
-        <f>U6*40</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>280</v>
       </c>
       <c r="AE6" s="2">
-        <f>W6*20</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="AF6" s="2">
-        <f>V6*20</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="AG6" s="2">
-        <f>Q6*35</f>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="AH6" s="8">
@@ -1769,22 +1779,22 @@
         <v>160</v>
       </c>
       <c r="AO6" s="8">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AP6" s="8">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AQ6" s="8">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AR6" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AS6" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AT6" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AU6" s="8">
         <v>60</v>
@@ -1793,7 +1803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1855,7 +1865,8 @@
         <v>12</v>
       </c>
       <c r="U7" s="8">
-        <v>10</v>
+        <f t="shared" ref="U7:U9" si="8">T7*0.875</f>
+        <v>10.5</v>
       </c>
       <c r="V7" s="8">
         <v>1</v>
@@ -1870,35 +1881,35 @@
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f>P7*15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="AA7" s="8">
-        <f>R7*15</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="AB7" s="8">
-        <f>S7*25</f>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="AC7" s="8">
-        <f>T7*12</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="AD7" s="8">
-        <f>U7*40</f>
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="AE7" s="8">
-        <f>W7*20</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="AF7" s="8">
-        <f>V7*20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG7" s="8">
-        <f>Q7*35</f>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="AH7" s="8">
@@ -1947,15 +1958,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:48">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>72</v>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>1950401450</v>
+        <v>1062382860</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1967,7 +1978,7 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1997,22 +2008,23 @@
         <v>4</v>
       </c>
       <c r="Q8" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R8" s="2">
         <v>3</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="2">
         <v>14</v>
       </c>
       <c r="T8" s="2">
-        <v>12</v>
-      </c>
-      <c r="U8" s="2">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="8"/>
+        <v>12.25</v>
       </c>
       <c r="V8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2">
         <v>1</v>
@@ -2037,11 +2049,11 @@
       </c>
       <c r="AC8" s="2">
         <f>T8*12</f>
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="AD8" s="2">
         <f>U8*40</f>
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="AE8" s="2">
         <f>W8*20</f>
@@ -2049,29 +2061,29 @@
       </c>
       <c r="AF8" s="2">
         <f>V8*20</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2">
         <f>Q8*35</f>
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AH8" s="2">
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AJ8" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AK8" s="2">
         <v>0</v>
       </c>
       <c r="AL8" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM8" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AN8" s="2">
         <v>20</v>
@@ -2095,39 +2107,39 @@
         <v>60</v>
       </c>
       <c r="AU8" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AV8" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:48">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
-        <v>1384644876</v>
+        <v>1950401450</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H9" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
         <v>55</v>
@@ -2145,31 +2157,32 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
         <v>4</v>
       </c>
       <c r="Q9" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R9" s="2">
         <v>3</v>
       </c>
-      <c r="S9" s="2">
-        <v>8</v>
+      <c r="S9" s="8">
+        <v>14</v>
       </c>
       <c r="T9" s="2">
-        <v>14</v>
-      </c>
-      <c r="U9" s="2">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
       </c>
       <c r="V9" s="2">
         <v>1</v>
       </c>
       <c r="W9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -2178,63 +2191,63 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2">
-        <f>P9*15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="AA9" s="8">
-        <f>R9*15</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="AB9" s="2">
-        <f>S9*25</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="AC9" s="2">
-        <f>T9*12</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="AD9" s="2">
-        <f>U9*40</f>
-        <v>440</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="AE9" s="2">
-        <f>W9*20</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AF9" s="2">
-        <f>V9*20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG9" s="2">
-        <f>Q9*35</f>
-        <v>420</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="AH9" s="2">
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ9" s="2">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="AK9" s="2">
         <v>0</v>
       </c>
       <c r="AL9" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN9" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AO9" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AP9" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ9" s="2">
         <v>20</v>
@@ -2249,39 +2262,39 @@
         <v>60</v>
       </c>
       <c r="AU9" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AV9" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:48">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2">
-        <v>974506093</v>
+        <v>3119602897</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2">
         <v>55</v>
@@ -2290,7 +2303,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2302,28 +2315,29 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S10" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
       </c>
-      <c r="U10" s="2">
-        <v>1</v>
+      <c r="U10" s="8">
+        <f>T10*0.875</f>
+        <v>0.875</v>
       </c>
       <c r="V10" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -2333,15 +2347,15 @@
       </c>
       <c r="Z10" s="2">
         <f>P10*15</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AA10" s="8">
         <f>R10*15</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="2">
         <f>S10*25</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC10" s="2">
         <f>T10*12</f>
@@ -2349,58 +2363,58 @@
       </c>
       <c r="AD10" s="2">
         <f>U10*40</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AE10" s="2">
         <f>W10*20</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF10" s="2">
         <f>V10*20</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AG10" s="2">
         <f>Q10*35</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AH10" s="2">
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AJ10" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK10" s="2">
         <v>0</v>
       </c>
       <c r="AL10" s="2">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AM10" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN10" s="2">
         <v>120</v>
       </c>
       <c r="AO10" s="2">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AP10" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AQ10" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AR10" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AS10" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AT10" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AU10" s="2">
         <v>60</v>
@@ -2409,33 +2423,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:48">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="2">
-        <v>1062382860</v>
+        <v>2519661094</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J11" s="2">
         <v>55</v>
@@ -2453,31 +2467,31 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R11" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S11" s="2">
         <v>14</v>
       </c>
       <c r="T11" s="2">
-        <v>14</v>
-      </c>
-      <c r="U11" s="2">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="U11" s="8">
+        <v>3</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2487,11 +2501,11 @@
       </c>
       <c r="Z11" s="2">
         <f>P11*15</f>
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AA11" s="8">
         <f>R11*15</f>
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AB11" s="2">
         <f>S11*25</f>
@@ -2499,251 +2513,252 @@
       </c>
       <c r="AC11" s="2">
         <f>T11*12</f>
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="2">
         <f>U11*40</f>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="2">
         <f>W11*20</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF11" s="2">
         <f>V11*20</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG11" s="2">
         <f>Q11*35</f>
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="AH11" s="2">
         <v>0</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="8">
+        <v>150</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>60</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8">
         <v>200</v>
       </c>
-      <c r="AJ11" s="2">
-        <v>240</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>60</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR11" s="2">
+      <c r="AM11" s="8">
         <v>120</v>
       </c>
-      <c r="AS11" s="2">
-        <v>60</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>60</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>40</v>
+      <c r="AN11" s="8">
+        <v>160</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>200</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>210</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>200</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>120</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48">
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1932694748</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2">
+        <v>974506093</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J12" s="2">
         <v>55</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="2">
         <v>40</v>
       </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>10</v>
-      </c>
-      <c r="R12" s="8">
-        <v>3</v>
-      </c>
-      <c r="S12" s="8">
-        <v>14</v>
-      </c>
-      <c r="T12" s="8">
-        <v>13</v>
+      <c r="L12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>7</v>
+      </c>
+      <c r="S12" s="2">
+        <v>12</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
       </c>
       <c r="U12" s="8">
-        <v>10</v>
-      </c>
-      <c r="V12" s="8">
-        <v>1</v>
-      </c>
-      <c r="W12" s="8">
-        <v>3</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
+        <f>T12*0.875</f>
+        <v>0.875</v>
+      </c>
+      <c r="V12" s="2">
+        <v>5</v>
+      </c>
+      <c r="W12" s="2">
+        <v>2</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
         <f>P12*15</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AA12" s="8">
         <f>R12*15</f>
-        <v>45</v>
-      </c>
-      <c r="AB12" s="8">
+        <v>105</v>
+      </c>
+      <c r="AB12" s="2">
         <f>S12*25</f>
-        <v>350</v>
-      </c>
-      <c r="AC12" s="8">
+        <v>300</v>
+      </c>
+      <c r="AC12" s="2">
         <f>T12*12</f>
-        <v>156</v>
-      </c>
-      <c r="AD12" s="8">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="2">
         <f>U12*40</f>
-        <v>400</v>
-      </c>
-      <c r="AE12" s="8">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="2">
         <f>W12*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF12" s="8">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="2">
         <f>V12*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG12" s="8">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="2">
         <f>Q12*35</f>
-        <v>350</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>640</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>160</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>100</v>
-      </c>
-      <c r="AM12" s="8">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM12" s="2">
         <v>200</v>
       </c>
-      <c r="AN12" s="8">
-        <v>300</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>60</v>
-      </c>
-      <c r="AP12" s="8">
-        <v>60</v>
-      </c>
-      <c r="AQ12" s="8">
-        <v>60</v>
-      </c>
-      <c r="AR12" s="8">
+      <c r="AN12" s="2">
         <v>120</v>
       </c>
-      <c r="AS12" s="8">
-        <v>120</v>
-      </c>
-      <c r="AT12" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU12" s="8">
-        <v>60</v>
-      </c>
-      <c r="AV12" s="8">
+      <c r="AO12" s="2">
+        <v>280</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>200</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>180</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>60</v>
+      </c>
+      <c r="AV12" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:48">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
-        <v>3119602897</v>
+        <v>1384644876</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>55</v>
@@ -2761,297 +2776,299 @@
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P13" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>8</v>
+      </c>
+      <c r="T13" s="2">
+        <v>14</v>
+      </c>
+      <c r="U13" s="8">
+        <f>T13*0.875</f>
+        <v>12.25</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>2</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>60</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>60</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="Q13" s="2">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2">
-        <v>6</v>
-      </c>
-      <c r="S13" s="2">
-        <v>16</v>
-      </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
-        <v>2</v>
-      </c>
-      <c r="W13" s="2">
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1932694748</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>55</v>
+      </c>
+      <c r="K14" s="8">
+        <v>40</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
         <v>4</v>
       </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <f>P13*15</f>
-        <v>150</v>
-      </c>
-      <c r="AA13" s="8">
-        <f>R13*15</f>
-        <v>90</v>
-      </c>
-      <c r="AB13" s="2">
-        <f>S13*25</f>
-        <v>400</v>
-      </c>
-      <c r="AC13" s="2">
-        <f>T13*12</f>
-        <v>12</v>
-      </c>
-      <c r="AD13" s="2">
-        <f>U13*40</f>
-        <v>40</v>
-      </c>
-      <c r="AE13" s="2">
-        <f>W13*20</f>
-        <v>80</v>
-      </c>
-      <c r="AF13" s="2">
-        <f>V13*20</f>
-        <v>40</v>
-      </c>
-      <c r="AG13" s="2">
-        <f>Q13*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>220</v>
-      </c>
-      <c r="AJ13" s="2">
+      <c r="Q14" s="8">
+        <v>10</v>
+      </c>
+      <c r="R14" s="8">
+        <v>3</v>
+      </c>
+      <c r="S14" s="8">
+        <v>14</v>
+      </c>
+      <c r="T14" s="8">
+        <v>13</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" ref="U14:U50" si="9">T14*0.875</f>
+        <v>11.375</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1</v>
+      </c>
+      <c r="W14" s="8">
+        <v>3</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="4"/>
+        <v>455</v>
+      </c>
+      <c r="AE14" s="8">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>640</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>160</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="8">
         <v>100</v>
       </c>
-      <c r="AK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN13" s="2">
+      <c r="AM14" s="8">
+        <v>200</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>300</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>60</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>60</v>
+      </c>
+      <c r="AR14" s="8">
         <v>120</v>
       </c>
-      <c r="AO13" s="2">
-        <v>100</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>100</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>80</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>80</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>80</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>80</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>60</v>
-      </c>
-      <c r="AV13" s="2">
+      <c r="AS14" s="8">
+        <v>120</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>60</v>
+      </c>
+      <c r="AV14" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1078572878</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>55</v>
-      </c>
-      <c r="K14" s="2">
-        <v>40</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>7</v>
-      </c>
-      <c r="R14" s="1">
-        <v>8</v>
-      </c>
-      <c r="S14" s="1">
-        <v>10</v>
-      </c>
-      <c r="T14" s="1">
+    <row r="15" spans="1:48">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3164369096</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>5</v>
-      </c>
-      <c r="U14" s="1">
-        <v>4</v>
-      </c>
-      <c r="V14" s="1">
-        <v>3</v>
-      </c>
-      <c r="W14" s="1">
-        <v>3</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <f>P14*15</f>
-        <v>150</v>
-      </c>
-      <c r="AA14" s="8">
-        <f>R14*15</f>
-        <v>120</v>
-      </c>
-      <c r="AB14" s="2">
-        <f>S14*25</f>
-        <v>250</v>
-      </c>
-      <c r="AC14" s="2">
-        <f>T14*12</f>
-        <v>60</v>
-      </c>
-      <c r="AD14" s="2">
-        <f>U14*40</f>
-        <v>160</v>
-      </c>
-      <c r="AE14" s="2">
-        <f>W14*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF14" s="2">
-        <f>V14*20</f>
-        <v>60</v>
-      </c>
-      <c r="AG14" s="2">
-        <f>Q14*35</f>
-        <v>245</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>300</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>200</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>160</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>200</v>
-      </c>
-      <c r="AQ14" s="2">
-        <v>100</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS14" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT14" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>80</v>
-      </c>
-      <c r="AV14" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2">
-        <v>918404274</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
       </c>
       <c r="J15" s="2">
         <v>55</v>
@@ -3069,31 +3086,32 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R15" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S15" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T15" s="2">
-        <v>10</v>
-      </c>
-      <c r="U15" s="2">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="9"/>
+        <v>5.25</v>
       </c>
       <c r="V15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -3102,110 +3120,110 @@
         <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <f>P15*15</f>
-        <v>150</v>
-      </c>
-      <c r="AA15" s="8">
-        <f>R15*15</f>
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>600</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AP15" s="2">
         <v>120</v>
       </c>
-      <c r="AB15" s="2">
-        <f>S15*25</f>
-        <v>250</v>
-      </c>
-      <c r="AC15" s="2">
-        <f>T15*12</f>
-        <v>120</v>
-      </c>
-      <c r="AD15" s="2">
-        <f>U15*40</f>
-        <v>320</v>
-      </c>
-      <c r="AE15" s="2">
-        <f>W15*20</f>
-        <v>20</v>
-      </c>
-      <c r="AF15" s="2">
-        <f>V15*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG15" s="2">
-        <f>Q15*35</f>
-        <v>350</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>180</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>120</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>180</v>
-      </c>
       <c r="AQ15" s="2">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="AR15" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AS15" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AT15" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AU15" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AV15" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:48">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2">
-        <v>1819798421</v>
-      </c>
-      <c r="D16" s="2">
+        <v>3146467485</v>
+      </c>
+      <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J16" s="2">
         <v>55</v>
@@ -3226,115 +3244,116 @@
         <v>0</v>
       </c>
       <c r="P16" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>6</v>
+      </c>
+      <c r="S16" s="2">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
         <v>4</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="R16" s="2">
-        <v>3</v>
-      </c>
-      <c r="S16" s="2">
-        <v>8</v>
-      </c>
-      <c r="T16" s="2">
-        <v>14</v>
-      </c>
-      <c r="U16" s="2">
-        <v>11</v>
-      </c>
-      <c r="V16" s="2">
-        <v>2</v>
-      </c>
-      <c r="W16" s="2">
-        <v>2</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <f>P16*15</f>
-        <v>60</v>
-      </c>
-      <c r="AA16" s="8">
-        <f>R16*15</f>
-        <v>45</v>
-      </c>
-      <c r="AB16" s="2">
-        <f>S16*25</f>
-        <v>200</v>
-      </c>
-      <c r="AC16" s="2">
-        <f>T16*12</f>
-        <v>168</v>
-      </c>
       <c r="AD16" s="2">
-        <f>U16*40</f>
-        <v>440</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="AE16" s="2">
-        <f>W16*20</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="AF16" s="2">
-        <f>V16*20</f>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="AG16" s="2">
-        <f>Q16*35</f>
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
         <v>420</v>
       </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>620</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
       <c r="AM16" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AN16" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AO16" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AP16" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AQ16" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AR16" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AS16" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AT16" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AU16" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AV16" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:48">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3394,8 +3413,9 @@
       <c r="T17" s="2">
         <v>3</v>
       </c>
-      <c r="U17" s="2">
-        <v>2</v>
+      <c r="U17" s="8">
+        <f t="shared" si="9"/>
+        <v>2.625</v>
       </c>
       <c r="V17" s="2">
         <v>1</v>
@@ -3427,7 +3447,7 @@
       </c>
       <c r="AD17" s="2">
         <f>U17*40</f>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AE17" s="2">
         <f>W17*20</f>
@@ -3487,8 +3507,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:48">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3548,8 +3568,9 @@
       <c r="T18" s="2">
         <v>4</v>
       </c>
-      <c r="U18" s="2">
-        <v>3</v>
+      <c r="U18" s="8">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
       </c>
       <c r="V18" s="2">
         <v>4</v>
@@ -3581,7 +3602,7 @@
       </c>
       <c r="AD18" s="2">
         <f>U18*40</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AE18" s="2">
         <f>W18*20</f>
@@ -3641,33 +3662,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:48">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>69</v>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="2">
-        <v>1663731268</v>
+        <v>1078572878</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I19" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J19" s="2">
         <v>55</v>
@@ -3688,28 +3709,29 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>8</v>
+      </c>
+      <c r="S19" s="1">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1">
         <v>5</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="U19" s="8">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="V19" s="1">
         <v>3</v>
       </c>
-      <c r="R19" s="2">
-        <v>6</v>
-      </c>
-      <c r="S19" s="2">
-        <v>13</v>
-      </c>
-      <c r="T19" s="2">
-        <v>2</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="V19" s="2">
-        <v>2</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1</v>
+      <c r="W19" s="1">
+        <v>3</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -3718,66 +3740,66 @@
         <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <f>P19*15</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA19" s="8">
-        <f>R19*15</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="AB19" s="2">
-        <f>S19*25</f>
-        <v>325</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="AC19" s="2">
-        <f>T19*12</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="AD19" s="2">
-        <f>U19*40</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="AE19" s="2">
-        <f>W19*20</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="AF19" s="2">
-        <f>V19*20</f>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="AG19" s="2">
-        <f>Q19*35</f>
-        <v>105</v>
+        <f t="shared" si="7"/>
+        <v>245</v>
       </c>
       <c r="AH19" s="2">
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AJ19" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK19" s="2">
         <v>0</v>
       </c>
       <c r="AL19" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AM19" s="2">
         <v>80</v>
       </c>
       <c r="AN19" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AO19" s="2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP19" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AQ19" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AR19" s="2">
         <v>120</v>
@@ -3789,39 +3811,39 @@
         <v>120</v>
       </c>
       <c r="AU19" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AV19" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:48">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>80</v>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>1154594723</v>
+        <v>918404274</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I20" s="2">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
         <v>55</v>
@@ -3845,22 +3867,23 @@
         <v>10</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R20" s="2">
+        <v>8</v>
+      </c>
+      <c r="S20" s="2">
         <v>10</v>
       </c>
-      <c r="S20" s="2">
-        <v>12</v>
-      </c>
       <c r="T20" s="2">
-        <v>1</v>
-      </c>
-      <c r="U20" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="9"/>
+        <v>8.75</v>
       </c>
       <c r="V20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W20" s="2">
         <v>1</v>
@@ -3872,66 +3895,66 @@
         <v>0</v>
       </c>
       <c r="Z20" s="2">
-        <f>P20*15</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="AA20" s="8">
-        <f>R20*15</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="AB20" s="2">
-        <f>S20*25</f>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="AC20" s="2">
-        <f>T20*12</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="AD20" s="2">
-        <f>U20*40</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>350</v>
       </c>
       <c r="AE20" s="2">
-        <f>W20*20</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AF20" s="2">
-        <f>V20*20</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="AG20" s="2">
-        <f>Q20*35</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AJ20" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
       </c>
       <c r="AL20" s="2">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="AM20" s="2">
         <v>120</v>
       </c>
       <c r="AN20" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="AO20" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AP20" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AQ20" s="2">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="AR20" s="2">
         <v>120</v>
@@ -3943,39 +3966,39 @@
         <v>120</v>
       </c>
       <c r="AU20" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AV20" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:48">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2">
-        <v>1679589225</v>
+        <v>1819798421</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H21" s="2">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>55</v>
@@ -3996,28 +4019,29 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>12</v>
+      </c>
+      <c r="R21" s="2">
+        <v>3</v>
+      </c>
+      <c r="S21" s="2">
         <v>8</v>
       </c>
-      <c r="Q21" s="2">
-        <v>8</v>
-      </c>
-      <c r="R21" s="2">
-        <v>6</v>
-      </c>
-      <c r="S21" s="2">
-        <v>11</v>
-      </c>
       <c r="T21" s="2">
-        <v>8</v>
-      </c>
-      <c r="U21" s="2">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
       </c>
       <c r="V21" s="2">
         <v>2</v>
       </c>
       <c r="W21" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -4026,110 +4050,110 @@
         <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <f>P21*15</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA21" s="8">
-        <f>R21*15</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="AB21" s="2">
-        <f>S21*25</f>
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="AC21" s="2">
-        <f>T21*12</f>
-        <v>96</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="AD21" s="2">
-        <f>U21*40</f>
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>620</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2">
         <v>240</v>
       </c>
-      <c r="AE21" s="2">
-        <f>W21*20</f>
-        <v>120</v>
-      </c>
-      <c r="AF21" s="2">
-        <f>V21*20</f>
-        <v>40</v>
-      </c>
-      <c r="AG21" s="2">
-        <f>Q21*35</f>
-        <v>280</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ21" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>60</v>
-      </c>
       <c r="AN21" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AO21" s="2">
         <v>20</v>
       </c>
       <c r="AP21" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AQ21" s="2">
         <v>20</v>
       </c>
       <c r="AR21" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS21" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT21" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AU21" s="2">
         <v>80</v>
       </c>
       <c r="AV21" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:48">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
-        <v>2519661094</v>
+        <v>1663731268</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="2">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="2">
         <v>55</v>
@@ -4147,143 +4171,144 @@
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="2">
         <v>3</v>
       </c>
       <c r="R22" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S22" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T22" s="2">
-        <v>8</v>
-      </c>
-      <c r="U22" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
       </c>
       <c r="V22" s="2">
+        <v>2</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AA22" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>300</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>120</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>20</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1154594723</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="W22" s="2">
-        <v>3</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2">
-        <f>P22*15</f>
-        <v>210</v>
-      </c>
-      <c r="AA22" s="8">
-        <f>R22*15</f>
-        <v>120</v>
-      </c>
-      <c r="AB22" s="2">
-        <f>S22*25</f>
-        <v>350</v>
-      </c>
-      <c r="AC22" s="2">
-        <f>T22*12</f>
-        <v>96</v>
-      </c>
-      <c r="AD22" s="2">
-        <f>U22*40</f>
-        <v>200</v>
-      </c>
-      <c r="AE22" s="2">
-        <f>W22*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF22" s="2">
-        <f>V22*20</f>
-        <v>80</v>
-      </c>
-      <c r="AG22" s="2">
-        <f>Q22*35</f>
-        <v>105</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="8">
-        <v>150</v>
-      </c>
-      <c r="AJ22" s="8">
-        <v>60</v>
-      </c>
-      <c r="AK22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="8">
-        <v>100</v>
-      </c>
-      <c r="AM22" s="8">
-        <v>120</v>
-      </c>
-      <c r="AN22" s="8">
-        <v>160</v>
-      </c>
-      <c r="AO22" s="8">
-        <v>200</v>
-      </c>
-      <c r="AP22" s="8">
-        <v>210</v>
-      </c>
-      <c r="AQ22" s="8">
-        <v>200</v>
-      </c>
-      <c r="AR22" s="8">
-        <v>120</v>
-      </c>
-      <c r="AS22" s="8">
-        <v>120</v>
-      </c>
-      <c r="AT22" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU22" s="8">
-        <v>60</v>
-      </c>
-      <c r="AV22" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1240045742</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H23" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J23" s="2">
         <v>55</v>
@@ -4301,78 +4326,79 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S23" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V23" s="2">
+        <v>5</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="U23" s="2">
-        <v>8</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2">
-        <f>P23*15</f>
-        <v>120</v>
-      </c>
-      <c r="AA23" s="8">
-        <f>R23*15</f>
-        <v>90</v>
-      </c>
-      <c r="AB23" s="2">
-        <f>S23*25</f>
-        <v>250</v>
-      </c>
-      <c r="AC23" s="2">
-        <f>T23*12</f>
-        <v>144</v>
-      </c>
       <c r="AD23" s="2">
-        <f>U23*40</f>
-        <v>320</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="AE23" s="2">
-        <f>W23*20</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AF23" s="2">
-        <f>V23*20</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="AG23" s="2">
-        <f>Q23*35</f>
-        <v>280</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="AH23" s="2">
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ23" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK23" s="2">
         <v>0</v>
@@ -4381,51 +4407,51 @@
         <v>520</v>
       </c>
       <c r="AM23" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN23" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AO23" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AP23" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AQ23" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AR23" s="2">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AS23" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT23" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AU23" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AV23" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:48">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
-        <v>1307101692</v>
+        <v>1679589225</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -4434,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I24" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <v>55</v>
@@ -4449,149 +4475,150 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>8</v>
+      </c>
+      <c r="R24" s="2">
+        <v>6</v>
+      </c>
+      <c r="S24" s="2">
+        <v>11</v>
+      </c>
+      <c r="T24" s="2">
+        <v>8</v>
+      </c>
+      <c r="U24" s="8">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="V24" s="2">
+        <v>2</v>
+      </c>
+      <c r="W24" s="2">
+        <v>6</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AA24" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>180</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>80</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1240045742</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <v>0.4</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>14</v>
-      </c>
-      <c r="R24" s="2">
-        <v>4</v>
-      </c>
-      <c r="S24" s="2">
-        <v>10</v>
-      </c>
-      <c r="T24" s="2">
-        <v>3</v>
-      </c>
-      <c r="U24" s="2">
-        <v>2</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
-        <f>P24*15</f>
-        <v>75</v>
-      </c>
-      <c r="AA24" s="8">
-        <f>R24*15</f>
-        <v>60</v>
-      </c>
-      <c r="AB24" s="2">
-        <f>S24*25</f>
-        <v>250</v>
-      </c>
-      <c r="AC24" s="2">
-        <f>T24*12</f>
-        <v>36</v>
-      </c>
-      <c r="AD24" s="2">
-        <f>U24*40</f>
-        <v>80</v>
-      </c>
-      <c r="AE24" s="2">
-        <f>W24*20</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2">
-        <f>V24*20</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="2">
-        <f>Q24*35</f>
-        <v>490</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ24" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>240</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV24" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1679608308</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.3</v>
-      </c>
       <c r="I25" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J25" s="2">
         <v>55</v>
@@ -4606,34 +4633,34 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P25" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R25" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S25" s="2">
         <v>10</v>
       </c>
       <c r="T25" s="2">
-        <v>6</v>
-      </c>
-      <c r="U25" s="2">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="U25" s="8">
+        <v>7</v>
       </c>
       <c r="V25" s="2">
         <v>1</v>
       </c>
       <c r="W25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -4642,98 +4669,98 @@
         <v>0</v>
       </c>
       <c r="Z25" s="2">
-        <f>P25*15</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA25" s="8">
-        <f>R25*15</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="AB25" s="2">
-        <f>S25*25</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="AC25" s="2">
-        <f>T25*12</f>
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="AD25" s="2">
-        <f>U25*40</f>
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP25" s="2">
         <v>200</v>
       </c>
-      <c r="AE25" s="2">
-        <f>W25*20</f>
-        <v>100</v>
-      </c>
-      <c r="AF25" s="2">
-        <f>V25*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG25" s="2">
-        <f>Q25*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ25" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="2">
-        <v>320</v>
-      </c>
-      <c r="AM25" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP25" s="2">
-        <v>20</v>
-      </c>
       <c r="AQ25" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AR25" s="2">
         <v>280</v>
       </c>
       <c r="AS25" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AT25" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AU25" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV25" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:48">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2">
-        <v>1111200034</v>
+        <v>1307101692</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -4742,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="I26" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J26" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K26" s="2">
         <v>40</v>
@@ -4757,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -4766,28 +4793,29 @@
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="2">
+        <v>14</v>
+      </c>
+      <c r="R26" s="2">
+        <v>4</v>
+      </c>
+      <c r="S26" s="2">
+        <v>10</v>
+      </c>
+      <c r="T26" s="2">
         <v>3</v>
       </c>
-      <c r="R26" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="S26" s="2">
-        <v>16</v>
-      </c>
-      <c r="T26" s="2">
-        <v>10</v>
-      </c>
-      <c r="U26" s="2">
-        <v>8</v>
+      <c r="U26" s="8">
+        <f t="shared" si="9"/>
+        <v>2.625</v>
       </c>
       <c r="V26" s="2">
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4796,54 +4824,54 @@
         <v>0</v>
       </c>
       <c r="Z26" s="2">
-        <f>P26*15</f>
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="AA26" s="8">
-        <f>R26*15</f>
-        <v>67.5</v>
-      </c>
-      <c r="AB26" s="2">
-        <f>S26*25</f>
-        <v>400</v>
-      </c>
-      <c r="AC26" s="2">
-        <f>T26*12</f>
-        <v>120</v>
-      </c>
-      <c r="AD26" s="2">
-        <f>U26*40</f>
-        <v>320</v>
-      </c>
       <c r="AE26" s="2">
-        <f>W26*20</f>
-        <v>140</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AF26" s="2">
-        <f>V26*20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG26" s="2">
-        <f>Q26*35</f>
-        <v>105</v>
+        <f t="shared" si="7"/>
+        <v>490</v>
       </c>
       <c r="AH26" s="2">
         <v>0</v>
       </c>
       <c r="AI26" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ26" s="2">
         <v>40</v>
       </c>
-      <c r="AJ26" s="2">
-        <v>100</v>
-      </c>
       <c r="AK26" s="2">
         <v>0</v>
       </c>
       <c r="AL26" s="2">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AM26" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AN26" s="2">
         <v>20</v>
@@ -4858,48 +4886,48 @@
         <v>20</v>
       </c>
       <c r="AR26" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AS26" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AT26" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AU26" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AV26" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:48">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
-        <v>2466320041</v>
+        <v>1679608308</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
         <v>0.3</v>
       </c>
-      <c r="G27" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
       <c r="I27" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
         <v>55</v>
@@ -4914,34 +4942,35 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="2">
         <v>2</v>
       </c>
       <c r="R27" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="2">
-        <v>1</v>
-      </c>
-      <c r="U27" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="U27" s="8">
+        <f t="shared" si="9"/>
+        <v>5.25</v>
       </c>
       <c r="V27" s="2">
         <v>1</v>
       </c>
       <c r="W27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -4950,66 +4979,66 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2">
-        <f>P27*15</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="AA27" s="8">
-        <f>R27*15</f>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="AB27" s="2">
-        <f>S27*25</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="AC27" s="2">
-        <f>T27*12</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="AD27" s="2">
-        <f>U27*40</f>
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG27" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN27" s="2">
         <v>40</v>
       </c>
-      <c r="AE27" s="2">
-        <f>W27*20</f>
-        <v>20</v>
-      </c>
-      <c r="AF27" s="2">
-        <f>V27*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG27" s="2">
-        <f>Q27*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ27" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM27" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>20</v>
-      </c>
       <c r="AO27" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP27" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ27" s="2">
         <v>80</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>40</v>
       </c>
       <c r="AR27" s="2">
         <v>280</v>
@@ -5021,36 +5050,36 @@
         <v>200</v>
       </c>
       <c r="AU27" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AV27" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="28" spans="1:48">
+      <c r="A28" s="8">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2">
-        <v>1493233944</v>
+        <v>1111200034</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -5074,28 +5103,29 @@
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" s="2">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="S28" s="2">
         <v>16</v>
       </c>
       <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="9"/>
+        <v>8.75</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -5104,45 +5134,45 @@
         <v>0</v>
       </c>
       <c r="Z28" s="2">
-        <f>P28*15</f>
-        <v>165</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="AA28" s="8">
-        <f>R28*15</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="AB28" s="2">
-        <f>S28*25</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="AC28" s="2">
-        <f>T28*12</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="AD28" s="2">
-        <f>U28*40</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>350</v>
       </c>
       <c r="AE28" s="2">
-        <f>W28*20</f>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="AF28" s="2">
-        <f>V28*20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG28" s="2">
-        <f>Q28*35</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
       <c r="AH28" s="2">
         <v>0</v>
       </c>
       <c r="AI28" s="2">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="AJ28" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK28" s="2">
         <v>0</v>
@@ -5151,13 +5181,13 @@
         <v>100</v>
       </c>
       <c r="AM28" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN28" s="2">
         <v>20</v>
       </c>
       <c r="AO28" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP28" s="2">
         <v>20</v>
@@ -5178,78 +5208,79 @@
         <v>240</v>
       </c>
       <c r="AV28" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:48">
+      <c r="A29" s="8">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2">
-        <v>1515436657</v>
+        <v>2466320041</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J29" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K29" s="2">
         <v>40</v>
       </c>
       <c r="L29" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S29" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>0</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
       </c>
       <c r="V29" s="2">
         <v>1</v>
       </c>
       <c r="W29" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -5258,42 +5289,42 @@
         <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <f>P29*15</f>
-        <v>165</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA29" s="8">
-        <f>R29*15</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="AB29" s="2">
-        <f>S29*25</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC29" s="2">
-        <f>T29*12</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="AD29" s="2">
-        <f>U29*40</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="AE29" s="2">
-        <f>W29*20</f>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AF29" s="2">
-        <f>V29*20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG29" s="2">
-        <f>Q29*35</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
       <c r="AH29" s="2">
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <v>520</v>
+        <v>60</v>
       </c>
       <c r="AJ29" s="2">
         <v>60</v>
@@ -5305,22 +5336,22 @@
         <v>520</v>
       </c>
       <c r="AM29" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN29" s="2">
         <v>20</v>
       </c>
       <c r="AO29" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP29" s="2">
         <v>80</v>
       </c>
-      <c r="AP29" s="2">
-        <v>20</v>
-      </c>
       <c r="AQ29" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AR29" s="2">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AS29" s="2">
         <v>200</v>
@@ -5329,30 +5360,30 @@
         <v>200</v>
       </c>
       <c r="AU29" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AV29" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:48">
+      <c r="A30" s="8">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2">
-        <v>1035294639</v>
+        <v>1493233944</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="2">
         <v>0.05</v>
@@ -5382,25 +5413,26 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="2">
         <v>1</v>
       </c>
       <c r="R30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S30" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2">
         <v>9</v>
@@ -5412,35 +5444,35 @@
         <v>0</v>
       </c>
       <c r="Z30" s="2">
-        <f>P30*15</f>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="AA30" s="8">
-        <f>R30*15</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="AB30" s="2">
-        <f>S30*25</f>
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="AC30" s="2">
-        <f>T30*12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD30" s="2">
-        <f>U30*40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE30" s="2">
-        <f>W30*20</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="AF30" s="2">
-        <f>V30*20</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AG30" s="2">
-        <f>Q30*35</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AH30" s="2">
@@ -5456,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="AL30" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AM30" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AN30" s="2">
         <v>20</v>
       </c>
       <c r="AO30" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AP30" s="2">
         <v>20</v>
@@ -5486,45 +5518,45 @@
         <v>240</v>
       </c>
       <c r="AV30" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:48">
+      <c r="A31" s="8">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2">
-        <v>927214883</v>
+        <v>1515436657</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K31" s="2">
         <v>40</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -5536,28 +5568,29 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
         <v>4</v>
       </c>
-      <c r="Q31" s="2">
-        <v>12</v>
-      </c>
-      <c r="R31" s="2">
-        <v>3</v>
-      </c>
       <c r="S31" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T31" s="2">
-        <v>14</v>
-      </c>
-      <c r="U31" s="2">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="V31" s="2">
         <v>1</v>
       </c>
       <c r="W31" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -5566,92 +5599,92 @@
         <v>0</v>
       </c>
       <c r="Z31" s="2">
-        <f>P31*15</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="AA31" s="8">
-        <f>R31*15</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="AB31" s="2">
-        <f>S31*25</f>
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="AC31" s="2">
-        <f>T31*12</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD31" s="2">
-        <f>U31*40</f>
-        <v>440</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AE31" s="2">
-        <f>W31*20</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
       <c r="AF31" s="2">
-        <f>V31*20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG31" s="2">
-        <f>Q31*35</f>
-        <v>420</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="AH31" s="2">
         <v>0</v>
       </c>
       <c r="AI31" s="2">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="AJ31" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU31" s="2">
         <v>240</v>
       </c>
-      <c r="AK31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>40</v>
-      </c>
       <c r="AV31" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:48">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2">
-        <v>1067924459</v>
+        <v>1035294639</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -5660,19 +5693,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K32" s="2">
         <v>40</v>
@@ -5690,28 +5723,29 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T32" s="2">
-        <v>14</v>
-      </c>
-      <c r="U32" s="2">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="V32" s="2">
         <v>1</v>
       </c>
       <c r="W32" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
@@ -5720,107 +5754,107 @@
         <v>0</v>
       </c>
       <c r="Z32" s="2">
-        <f>P32*15</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="AA32" s="8">
-        <f>R32*15</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="AB32" s="2">
-        <f>S32*25</f>
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>275</v>
       </c>
       <c r="AC32" s="2">
-        <f>T32*12</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AD32" s="2">
-        <f>U32*40</f>
-        <v>440</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AE32" s="2">
-        <f>W32*20</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
       <c r="AF32" s="2">
-        <f>V32*20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG32" s="2">
-        <f>Q32*35</f>
-        <v>420</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="AH32" s="2">
         <v>0</v>
       </c>
       <c r="AI32" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="AJ32" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU32" s="2">
         <v>240</v>
       </c>
-      <c r="AK32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ32" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR32" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU32" s="2">
-        <v>40</v>
-      </c>
       <c r="AV32" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="33" spans="1:48">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2">
-        <v>1599219954</v>
+        <v>927214883</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G33" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -5843,141 +5877,142 @@
       <c r="O33" s="2">
         <v>0</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>12</v>
+      </c>
+      <c r="R33" s="2">
+        <v>3</v>
+      </c>
+      <c r="S33" s="2">
         <v>7</v>
       </c>
-      <c r="Q33" s="8">
-        <v>10</v>
-      </c>
-      <c r="R33" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="S33" s="8">
-        <v>11</v>
-      </c>
-      <c r="T33" s="8">
-        <v>9</v>
+      <c r="T33" s="2">
+        <v>14</v>
       </c>
       <c r="U33" s="8">
-        <v>8</v>
-      </c>
-      <c r="V33" s="8">
-        <v>1</v>
-      </c>
-      <c r="W33" s="8">
-        <v>4</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="8">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <f>P33*15</f>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA33" s="8">
-        <f>R33*15</f>
-        <v>67.5</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="AB33" s="2">
-        <f>S33*25</f>
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>175</v>
       </c>
       <c r="AC33" s="2">
-        <f>T33*12</f>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="AD33" s="2">
-        <f>U33*40</f>
-        <v>320</v>
+        <f t="shared" si="4"/>
+        <v>490</v>
       </c>
       <c r="AE33" s="2">
-        <f>W33*20</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="AF33" s="2">
-        <f>V33*20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG33" s="2">
-        <f>Q33*35</f>
-        <v>350</v>
-      </c>
-      <c r="AH33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="8">
-        <v>200</v>
-      </c>
-      <c r="AJ33" s="8">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ33" s="2">
         <v>240</v>
       </c>
-      <c r="AK33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="8">
-        <v>160</v>
-      </c>
-      <c r="AM33" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN33" s="8">
-        <v>20</v>
-      </c>
-      <c r="AO33" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP33" s="8">
-        <v>140</v>
-      </c>
-      <c r="AQ33" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR33" s="8">
+      <c r="AK33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>180</v>
+      </c>
+      <c r="AS33" s="2">
         <v>120</v>
       </c>
-      <c r="AS33" s="8">
+      <c r="AT33" s="2">
         <v>120</v>
       </c>
-      <c r="AT33" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU33" s="8">
+      <c r="AU33" s="2">
         <v>40</v>
       </c>
-      <c r="AV33" s="8">
+      <c r="AV33" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:48">
+      <c r="A34" s="8">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2">
-        <v>961518960</v>
+        <v>1067924459</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>55</v>
@@ -5997,141 +6032,142 @@
       <c r="O34" s="2">
         <v>0</v>
       </c>
-      <c r="P34" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="8">
+      <c r="P34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>12</v>
+      </c>
+      <c r="R34" s="2">
+        <v>3</v>
+      </c>
+      <c r="S34" s="2">
+        <v>7</v>
+      </c>
+      <c r="T34" s="2">
+        <v>14</v>
+      </c>
+      <c r="U34" s="8">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="AD34" s="2">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="AE34" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AF34" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG34" s="2">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>180</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
+      <c r="A35" s="8">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1599219954</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="R34" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="S34" s="8">
-        <v>16</v>
-      </c>
-      <c r="T34" s="8">
-        <v>1</v>
-      </c>
-      <c r="U34" s="8">
-        <v>1</v>
-      </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
-      <c r="W34" s="8">
-        <v>9</v>
-      </c>
-      <c r="X34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="2">
-        <f>P34*15</f>
-        <v>90</v>
-      </c>
-      <c r="AA34" s="8">
-        <f>R34*15</f>
-        <v>67.5</v>
-      </c>
-      <c r="AB34" s="2">
-        <f>S34*25</f>
-        <v>400</v>
-      </c>
-      <c r="AC34" s="2">
-        <f>T34*12</f>
-        <v>12</v>
-      </c>
-      <c r="AD34" s="2">
-        <f>U34*40</f>
-        <v>40</v>
-      </c>
-      <c r="AE34" s="2">
-        <f>W34*20</f>
-        <v>180</v>
-      </c>
-      <c r="AF34" s="2">
-        <f>V34*20</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="2">
-        <f>Q34*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="8">
-        <v>140</v>
-      </c>
-      <c r="AJ34" s="8">
-        <v>100</v>
-      </c>
-      <c r="AK34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="8">
-        <v>140</v>
-      </c>
-      <c r="AM34" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN34" s="8">
-        <v>200</v>
-      </c>
-      <c r="AO34" s="8">
-        <v>60</v>
-      </c>
-      <c r="AP34" s="8">
-        <v>20</v>
-      </c>
-      <c r="AQ34" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR34" s="8">
-        <v>240</v>
-      </c>
-      <c r="AS34" s="8">
-        <v>160</v>
-      </c>
-      <c r="AT34" s="8">
-        <v>160</v>
-      </c>
-      <c r="AU34" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV34" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1101638879</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
       <c r="F35" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
         <v>55</v>
@@ -6151,144 +6187,145 @@
       <c r="O35" s="2">
         <v>0</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>10</v>
+      </c>
+      <c r="R35" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S35" s="8">
+        <v>11</v>
+      </c>
+      <c r="T35" s="8">
+        <v>9</v>
+      </c>
+      <c r="U35" s="8">
+        <f t="shared" si="9"/>
+        <v>7.875</v>
+      </c>
+      <c r="V35" s="8">
+        <v>1</v>
+      </c>
+      <c r="W35" s="8">
         <v>4</v>
       </c>
-      <c r="Q35" s="2">
-        <v>12</v>
-      </c>
-      <c r="R35" s="2">
-        <v>3</v>
-      </c>
-      <c r="S35" s="2">
-        <v>8</v>
-      </c>
-      <c r="T35" s="2">
-        <v>14</v>
-      </c>
-      <c r="U35" s="2">
-        <v>11</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
-        <v>3</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="2">
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8">
         <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <f>P35*15</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="AA35" s="8">
-        <f>R35*15</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="AB35" s="2">
-        <f>S35*25</f>
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="AD35" s="2">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="AE35" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AF35" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG35" s="2">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="AH35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="8">
         <v>200</v>
       </c>
-      <c r="AC35" s="2">
-        <f>T35*12</f>
-        <v>168</v>
-      </c>
-      <c r="AD35" s="2">
-        <f>U35*40</f>
-        <v>440</v>
-      </c>
-      <c r="AE35" s="2">
-        <f>W35*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF35" s="2">
-        <f>V35*20</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="2">
-        <f>Q35*35</f>
-        <v>420</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ35" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>280</v>
-      </c>
-      <c r="AQ35" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR35" s="2">
-        <v>200</v>
-      </c>
-      <c r="AS35" s="2">
+      <c r="AJ35" s="8">
+        <v>240</v>
+      </c>
+      <c r="AK35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>160</v>
+      </c>
+      <c r="AM35" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>20</v>
+      </c>
+      <c r="AO35" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP35" s="8">
+        <v>140</v>
+      </c>
+      <c r="AQ35" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR35" s="8">
         <v>120</v>
       </c>
-      <c r="AT35" s="2">
+      <c r="AS35" s="8">
         <v>120</v>
       </c>
-      <c r="AU35" s="2">
-        <v>60</v>
-      </c>
-      <c r="AV35" s="2">
-        <v>60</v>
+      <c r="AT35" s="8">
+        <v>120</v>
+      </c>
+      <c r="AU35" s="8">
+        <v>40</v>
+      </c>
+      <c r="AV35" s="8">
+        <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:48">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2">
-        <v>1493239978</v>
+        <v>961518960</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I36" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J36" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K36" s="2">
         <v>40</v>
@@ -6305,29 +6342,30 @@
       <c r="O36" s="2">
         <v>0</v>
       </c>
-      <c r="P36" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="P36" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="8">
         <v>2</v>
       </c>
-      <c r="R36" s="2">
-        <v>10</v>
-      </c>
-      <c r="S36" s="2">
-        <v>13</v>
-      </c>
-      <c r="T36" s="2">
-        <v>1</v>
-      </c>
-      <c r="U36" s="2">
-        <v>1</v>
-      </c>
-      <c r="V36" s="2">
-        <v>1</v>
-      </c>
-      <c r="W36" s="2">
-        <v>7</v>
+      <c r="R36" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S36" s="8">
+        <v>16</v>
+      </c>
+      <c r="T36" s="8">
+        <v>1</v>
+      </c>
+      <c r="U36" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>9</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -6336,92 +6374,92 @@
         <v>0</v>
       </c>
       <c r="Z36" s="2">
-        <f>P36*15</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="AA36" s="8">
-        <f>R36*15</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>67.5</v>
       </c>
       <c r="AB36" s="2">
-        <f>S36*25</f>
-        <v>325</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="AC36" s="2">
-        <f>T36*12</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AD36" s="2">
-        <f>U36*40</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="AE36" s="2">
-        <f>W36*20</f>
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="AF36" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="8">
         <v>140</v>
       </c>
-      <c r="AF36" s="2">
-        <f>V36*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG36" s="2">
-        <f>Q36*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ36" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO36" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ36" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR36" s="2">
+      <c r="AJ36" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>140</v>
+      </c>
+      <c r="AM36" s="8">
         <v>80</v>
       </c>
-      <c r="AS36" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT36" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU36" s="2">
-        <v>120</v>
-      </c>
-      <c r="AV36" s="2">
-        <v>40</v>
+      <c r="AN36" s="8">
+        <v>200</v>
+      </c>
+      <c r="AO36" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP36" s="8">
+        <v>20</v>
+      </c>
+      <c r="AQ36" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR36" s="8">
+        <v>240</v>
+      </c>
+      <c r="AS36" s="8">
+        <v>160</v>
+      </c>
+      <c r="AT36" s="8">
+        <v>160</v>
+      </c>
+      <c r="AU36" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV36" s="8">
+        <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:48">
+      <c r="A37" s="8">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2">
-        <v>1590408755</v>
+        <v>1101638879</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -6430,16 +6468,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="2">
         <v>55</v>
@@ -6454,31 +6492,32 @@
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
       <c r="P37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>12</v>
+      </c>
+      <c r="R37" s="2">
+        <v>3</v>
+      </c>
+      <c r="S37" s="2">
         <v>8</v>
       </c>
-      <c r="Q37" s="2">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2">
+      <c r="T37" s="2">
         <v>14</v>
       </c>
-      <c r="S37" s="2">
-        <v>10</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1</v>
-      </c>
-      <c r="U37" s="2">
-        <v>1</v>
+      <c r="U37" s="8">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
       </c>
       <c r="V37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2">
         <v>3</v>
@@ -6490,36 +6529,36 @@
         <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <f>P37*15</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA37" s="8">
-        <f>R37*15</f>
-        <v>210</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="AB37" s="2">
-        <f>S37*25</f>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="AC37" s="2">
-        <f>T37*12</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="AD37" s="2">
-        <f>U37*40</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>490</v>
       </c>
       <c r="AE37" s="2">
-        <f>W37*20</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="AF37" s="2">
-        <f>V37*20</f>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AG37" s="2">
-        <f>Q37*35</f>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>420</v>
       </c>
       <c r="AH37" s="2">
         <v>0</v>
@@ -6534,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AM37" s="2">
         <v>60</v>
@@ -6543,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="AO37" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP37" s="2">
         <v>280</v>
@@ -6552,7 +6591,7 @@
         <v>20</v>
       </c>
       <c r="AR37" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AS37" s="2">
         <v>120</v>
@@ -6564,18 +6603,18 @@
         <v>60</v>
       </c>
       <c r="AV37" s="2">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:48">
+      <c r="A38" s="8">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
-        <v>3104974405</v>
+        <v>1493239978</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -6584,10 +6623,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -6614,28 +6653,29 @@
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R38" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S38" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U38" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
       </c>
       <c r="V38" s="2">
         <v>1</v>
       </c>
       <c r="W38" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -6644,107 +6684,107 @@
         <v>0</v>
       </c>
       <c r="Z38" s="2">
-        <f>P38*15</f>
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA38" s="8">
-        <f>R38*15</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="AB38" s="2">
-        <f>S38*25</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>325</v>
       </c>
       <c r="AC38" s="2">
-        <f>T38*12</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="AD38" s="2">
-        <f>U38*40</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="AE38" s="2">
-        <f>W38*20</f>
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="AF38" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG38" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>80</v>
+      </c>
+      <c r="AS38" s="2">
         <v>180</v>
       </c>
-      <c r="AF38" s="2">
-        <f>V38*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG38" s="2">
-        <f>Q38*35</f>
-        <v>140</v>
-      </c>
-      <c r="AH38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="2">
-        <v>400</v>
-      </c>
-      <c r="AJ38" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO38" s="2">
+      <c r="AT38" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>120</v>
+      </c>
+      <c r="AV38" s="2">
         <v>40</v>
       </c>
-      <c r="AP38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR38" s="2">
-        <v>60</v>
-      </c>
-      <c r="AS38" s="2">
-        <v>200</v>
-      </c>
-      <c r="AT38" s="2">
-        <v>200</v>
-      </c>
-      <c r="AU38" s="2">
-        <v>240</v>
-      </c>
-      <c r="AV38" s="2">
-        <v>60</v>
-      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:48">
+      <c r="A39" s="8">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2">
-        <v>2350714359</v>
+        <v>1590408755</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -6762,31 +6802,32 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2">
+        <v>14</v>
+      </c>
+      <c r="S39" s="2">
         <v>10</v>
       </c>
-      <c r="Q39" s="2">
-        <v>6</v>
-      </c>
-      <c r="R39" s="2">
-        <v>8</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
       <c r="T39" s="2">
-        <v>4</v>
-      </c>
-      <c r="U39" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="U39" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
       </c>
       <c r="V39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W39" s="2">
         <v>3</v>
@@ -6798,92 +6839,92 @@
         <v>0</v>
       </c>
       <c r="Z39" s="2">
-        <f>P39*15</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA39" s="8">
-        <f>R39*15</f>
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AF39" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AG39" s="2">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>280</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR39" s="2">
         <v>120</v>
       </c>
-      <c r="AB39" s="2">
-        <f>S39*25</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="2">
-        <f>T39*12</f>
-        <v>48</v>
-      </c>
-      <c r="AD39" s="2">
-        <f>U39*40</f>
+      <c r="AS39" s="2">
         <v>120</v>
       </c>
-      <c r="AE39" s="2">
-        <f>W39*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF39" s="2">
-        <f>V39*20</f>
-        <v>60</v>
-      </c>
-      <c r="AG39" s="2">
-        <f>Q39*35</f>
-        <v>210</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ39" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>240</v>
-      </c>
-      <c r="AO39" s="2">
+      <c r="AT39" s="2">
         <v>120</v>
       </c>
-      <c r="AP39" s="2">
-        <v>120</v>
-      </c>
-      <c r="AQ39" s="2">
-        <v>80</v>
-      </c>
-      <c r="AR39" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS39" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT39" s="2">
-        <v>180</v>
-      </c>
       <c r="AU39" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AV39" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:48">
+      <c r="A40" s="8">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2">
-        <v>1830649078</v>
+        <v>3104974405</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -6892,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G40" s="2">
         <v>0.05</v>
@@ -6901,10 +6942,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K40" s="2">
         <v>40</v>
@@ -6916,143 +6957,144 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>4</v>
+      </c>
+      <c r="R40" s="2">
+        <v>6</v>
+      </c>
+      <c r="S40" s="2">
+        <v>16</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <v>9</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="AF40" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG40" s="2">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>240</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
+      <c r="A41" s="8">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2350714359</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.4</v>
       </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>2</v>
-      </c>
-      <c r="R40" s="2">
-        <v>10</v>
-      </c>
-      <c r="S40" s="2">
-        <v>8</v>
-      </c>
-      <c r="T40" s="2">
-        <v>1</v>
-      </c>
-      <c r="U40" s="2">
-        <v>1</v>
-      </c>
-      <c r="V40" s="2">
-        <v>2</v>
-      </c>
-      <c r="W40" s="2">
-        <v>5</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
-        <f>P40*15</f>
-        <v>180</v>
-      </c>
-      <c r="AA40" s="8">
-        <f>R40*15</f>
-        <v>150</v>
-      </c>
-      <c r="AB40" s="2">
-        <f>S40*25</f>
-        <v>200</v>
-      </c>
-      <c r="AC40" s="2">
-        <f>T40*12</f>
-        <v>12</v>
-      </c>
-      <c r="AD40" s="2">
-        <f>U40*40</f>
-        <v>40</v>
-      </c>
-      <c r="AE40" s="2">
-        <f>W40*20</f>
-        <v>100</v>
-      </c>
-      <c r="AF40" s="2">
-        <f>V40*20</f>
-        <v>40</v>
-      </c>
-      <c r="AG40" s="2">
-        <f>Q40*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ40" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>200</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>240</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>240</v>
-      </c>
-      <c r="AT40" s="2">
-        <v>240</v>
-      </c>
-      <c r="AU40" s="2">
-        <v>180</v>
-      </c>
-      <c r="AV40" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2250799209</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
       <c r="G41" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -7070,34 +7112,35 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="2">
         <v>6</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="2">
+        <v>8</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
         <v>4</v>
       </c>
-      <c r="R41" s="2">
-        <v>14</v>
-      </c>
-      <c r="S41" s="2">
-        <v>6</v>
-      </c>
-      <c r="T41" s="2">
-        <v>11</v>
-      </c>
-      <c r="U41" s="2">
-        <v>10</v>
+      <c r="U41" s="8">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
       </c>
       <c r="V41" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -7106,112 +7149,112 @@
         <v>0</v>
       </c>
       <c r="Z41" s="2">
-        <f>P41*15</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="AA41" s="8">
-        <f>R41*15</f>
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="AD41" s="2">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="AE41" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AF41" s="2">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="AG41" s="2">
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="AB41" s="2">
-        <f>S41*25</f>
-        <v>150</v>
-      </c>
-      <c r="AC41" s="2">
-        <f>T41*12</f>
-        <v>132</v>
-      </c>
-      <c r="AD41" s="2">
-        <f>U41*40</f>
-        <v>400</v>
-      </c>
-      <c r="AE41" s="2">
-        <f>W41*20</f>
-        <v>40</v>
-      </c>
-      <c r="AF41" s="2">
-        <f>V41*20</f>
+      <c r="AH41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2">
         <v>80</v>
       </c>
-      <c r="AG41" s="2">
-        <f>Q41*35</f>
-        <v>140</v>
-      </c>
-      <c r="AH41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="2">
-        <v>100</v>
-      </c>
       <c r="AJ41" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM41" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN41" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>120</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>120</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>80</v>
+      </c>
+      <c r="AR41" s="2">
         <v>180</v>
       </c>
-      <c r="AO41" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>60</v>
-      </c>
-      <c r="AQ41" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR41" s="2">
-        <v>120</v>
-      </c>
       <c r="AS41" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT41" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU41" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AV41" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:48">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2">
-        <v>2478730055</v>
+        <v>1830649078</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="H42" s="8">
         <v>0.5</v>
       </c>
+      <c r="G42" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
       <c r="I42" s="2">
-        <v>3</v>
-      </c>
-      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
         <v>55</v>
       </c>
       <c r="K42" s="2">
@@ -7220,150 +7263,151 @@
       <c r="L42" s="2">
         <v>0</v>
       </c>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8">
-        <v>0</v>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.2</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>2</v>
+      </c>
+      <c r="R42" s="2">
+        <v>10</v>
+      </c>
+      <c r="S42" s="2">
+        <v>8</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V42" s="2">
+        <v>2</v>
+      </c>
+      <c r="W42" s="2">
+        <v>5</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AA42" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AD42" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AE42" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AG42" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>200</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR42" s="2">
+        <v>240</v>
+      </c>
+      <c r="AS42" s="2">
+        <v>240</v>
+      </c>
+      <c r="AT42" s="2">
+        <v>240</v>
+      </c>
+      <c r="AU42" s="2">
+        <v>180</v>
+      </c>
+      <c r="AV42" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
+      <c r="A43" s="8">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2250799209</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <v>4</v>
       </c>
-      <c r="Q42" s="8">
-        <v>12</v>
-      </c>
-      <c r="R42" s="8">
-        <v>3</v>
-      </c>
-      <c r="S42" s="8">
-        <v>13</v>
-      </c>
-      <c r="T42" s="8">
-        <v>12</v>
-      </c>
-      <c r="U42" s="8">
-        <v>11</v>
-      </c>
-      <c r="V42" s="8">
-        <v>1</v>
-      </c>
-      <c r="W42" s="8">
-        <v>3</v>
-      </c>
-      <c r="X42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <f>P42*15</f>
-        <v>60</v>
-      </c>
-      <c r="AA42" s="8">
-        <f>R42*15</f>
-        <v>45</v>
-      </c>
-      <c r="AB42" s="2">
-        <f>S42*25</f>
-        <v>325</v>
-      </c>
-      <c r="AC42" s="2">
-        <f>T42*12</f>
-        <v>144</v>
-      </c>
-      <c r="AD42" s="2">
-        <f>U42*40</f>
-        <v>440</v>
-      </c>
-      <c r="AE42" s="2">
-        <f>W42*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF42" s="2">
-        <f>V42*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG42" s="2">
-        <f>Q42*35</f>
-        <v>420</v>
-      </c>
-      <c r="AH42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="8">
-        <v>80</v>
-      </c>
-      <c r="AJ42" s="8">
-        <v>200</v>
-      </c>
-      <c r="AK42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN42" s="8">
-        <v>60</v>
-      </c>
-      <c r="AO42" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP42" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ42" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR42" s="8">
-        <v>120</v>
-      </c>
-      <c r="AS42" s="8">
-        <v>100</v>
-      </c>
-      <c r="AT42" s="8">
-        <v>100</v>
-      </c>
-      <c r="AU42" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV42" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1357116794</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
       <c r="F43" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I43" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
         <v>55</v>
@@ -7378,148 +7422,149 @@
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R43" s="2">
+        <v>14</v>
+      </c>
+      <c r="S43" s="2">
         <v>6</v>
       </c>
-      <c r="S43" s="2">
-        <v>14</v>
-      </c>
       <c r="T43" s="2">
+        <v>11</v>
+      </c>
+      <c r="U43" s="8">
+        <f t="shared" si="9"/>
+        <v>9.625</v>
+      </c>
+      <c r="V43" s="2">
+        <v>4</v>
+      </c>
+      <c r="W43" s="2">
+        <v>2</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="AA43" s="8">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="AD43" s="2">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="AE43" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AF43" s="2">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AG43" s="2">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>60</v>
+      </c>
+      <c r="AQ43" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR43" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS43" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT43" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU43" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV43" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
+      <c r="A44" s="8">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2478730055</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H44" s="8">
         <v>0.5</v>
       </c>
-      <c r="U43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="V43" s="2">
-        <v>2</v>
-      </c>
-      <c r="W43" s="2">
-        <v>7</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <f>P43*15</f>
-        <v>120</v>
-      </c>
-      <c r="AA43" s="8">
-        <f>R43*15</f>
-        <v>90</v>
-      </c>
-      <c r="AB43" s="2">
-        <f>S43*25</f>
-        <v>350</v>
-      </c>
-      <c r="AC43" s="2">
-        <f>T43*12</f>
-        <v>6</v>
-      </c>
-      <c r="AD43" s="2">
-        <f>U43*40</f>
-        <v>4</v>
-      </c>
-      <c r="AE43" s="2">
-        <f>W43*20</f>
-        <v>140</v>
-      </c>
-      <c r="AF43" s="2">
-        <f>V43*20</f>
-        <v>40</v>
-      </c>
-      <c r="AG43" s="2">
-        <f>Q43*35</f>
-        <v>35</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ43" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM43" s="2">
-        <v>180</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO43" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP43" s="2">
-        <v>360</v>
-      </c>
-      <c r="AQ43" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR43" s="2">
-        <v>240</v>
-      </c>
-      <c r="AS43" s="2">
-        <v>240</v>
-      </c>
-      <c r="AT43" s="2">
-        <v>240</v>
-      </c>
-      <c r="AU43" s="2">
-        <v>160</v>
-      </c>
-      <c r="AV43" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1237436136</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.2</v>
-      </c>
       <c r="I44" s="2">
-        <v>5</v>
-      </c>
-      <c r="J44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="8">
         <v>55</v>
       </c>
       <c r="K44" s="2">
@@ -7528,150 +7573,151 @@
       <c r="L44" s="2">
         <v>0</v>
       </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
         <v>0</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
       </c>
-      <c r="P44" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q44" s="2">
+      <c r="P44" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>12</v>
+      </c>
+      <c r="R44" s="8">
         <v>3</v>
       </c>
-      <c r="R44" s="2">
-        <v>7</v>
-      </c>
-      <c r="S44" s="2">
-        <v>16</v>
-      </c>
-      <c r="T44" s="2">
-        <v>1</v>
-      </c>
-      <c r="U44" s="2">
-        <v>1</v>
-      </c>
-      <c r="V44" s="2">
-        <v>2</v>
-      </c>
-      <c r="W44" s="2">
+      <c r="S44" s="8">
+        <v>13</v>
+      </c>
+      <c r="T44" s="8">
+        <v>12</v>
+      </c>
+      <c r="U44" s="8">
+        <f t="shared" si="9"/>
+        <v>10.5</v>
+      </c>
+      <c r="V44" s="8">
+        <v>1</v>
+      </c>
+      <c r="W44" s="8">
         <v>3</v>
       </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
+      <c r="X44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="8">
         <v>0</v>
       </c>
       <c r="Z44" s="2">
-        <f>P44*15</f>
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA44" s="8">
-        <f>R44*15</f>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="AB44" s="2">
-        <f>S44*25</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>325</v>
       </c>
       <c r="AC44" s="2">
-        <f>T44*12</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="AD44" s="2">
-        <f>U44*40</f>
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="AE44" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AF44" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG44" s="2">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="8">
+        <v>80</v>
+      </c>
+      <c r="AJ44" s="8">
+        <v>200</v>
+      </c>
+      <c r="AK44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN44" s="8">
+        <v>60</v>
+      </c>
+      <c r="AO44" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP44" s="8">
         <v>40</v>
       </c>
-      <c r="AE44" s="2">
-        <f>W44*20</f>
-        <v>60</v>
-      </c>
-      <c r="AF44" s="2">
-        <f>V44*20</f>
-        <v>40</v>
-      </c>
-      <c r="AG44" s="2">
-        <f>Q44*35</f>
-        <v>105</v>
-      </c>
-      <c r="AH44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ44" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM44" s="2">
+      <c r="AQ44" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR44" s="8">
         <v>120</v>
       </c>
-      <c r="AN44" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO44" s="2">
+      <c r="AS44" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT44" s="8">
+        <v>100</v>
+      </c>
+      <c r="AU44" s="8">
         <v>80</v>
       </c>
-      <c r="AP44" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ44" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR44" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS44" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT44" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU44" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV44" s="2">
-        <v>60</v>
+      <c r="AV44" s="8">
+        <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:48">
+      <c r="A45" s="8">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2">
-        <v>1633085506</v>
+        <v>1357116794</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G45" s="2">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" s="2">
         <v>55</v>
@@ -7692,28 +7738,29 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q45" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S45" s="2">
         <v>14</v>
       </c>
       <c r="T45" s="2">
-        <v>14</v>
-      </c>
-      <c r="U45" s="2">
-        <v>11</v>
+        <v>0.5</v>
+      </c>
+      <c r="U45" s="8">
+        <f t="shared" si="9"/>
+        <v>0.4375</v>
       </c>
       <c r="V45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W45" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -7722,54 +7769,54 @@
         <v>0</v>
       </c>
       <c r="Z45" s="2">
-        <f>P45*15</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="AA45" s="8">
-        <f>R45*15</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="AB45" s="2">
-        <f>S45*25</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="AC45" s="2">
-        <f>T45*12</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="AD45" s="2">
-        <f>U45*40</f>
-        <v>440</v>
+        <f t="shared" si="4"/>
+        <v>17.5</v>
       </c>
       <c r="AE45" s="2">
-        <f>W45*20</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="AF45" s="2">
-        <f>V45*20</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="AG45" s="2">
-        <f>Q45*35</f>
-        <v>420</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="AH45" s="2">
         <v>0</v>
       </c>
       <c r="AI45" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AJ45" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="2">
         <v>240</v>
       </c>
-      <c r="AK45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="2">
-        <v>60</v>
-      </c>
       <c r="AM45" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AN45" s="2">
         <v>20</v>
@@ -7778,36 +7825,36 @@
         <v>20</v>
       </c>
       <c r="AP45" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AQ45" s="2">
         <v>20</v>
       </c>
       <c r="AR45" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AS45" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AT45" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AU45" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AV45" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:48">
+      <c r="A46" s="8">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2">
-        <v>2478730187</v>
+        <v>1237436136</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -7816,16 +7863,16 @@
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46" s="2">
         <v>55</v>
@@ -7846,72 +7893,73 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q46" s="2">
         <v>3</v>
       </c>
       <c r="R46" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S46" s="2">
+        <v>16</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V46" s="2">
+        <v>2</v>
+      </c>
+      <c r="W46" s="2">
+        <v>3</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="AA46" s="8">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="AB46" s="2">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="T46" s="2">
-        <v>1</v>
-      </c>
-      <c r="U46" s="2">
-        <v>1</v>
-      </c>
-      <c r="V46" s="2">
-        <v>3</v>
-      </c>
-      <c r="W46" s="2">
-        <v>9</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <f>P46*15</f>
-        <v>180</v>
-      </c>
-      <c r="AA46" s="8">
-        <f>R46*15</f>
-        <v>150</v>
-      </c>
-      <c r="AB46" s="2">
-        <f>S46*25</f>
-        <v>300</v>
-      </c>
-      <c r="AC46" s="2">
-        <f>T46*12</f>
-        <v>12</v>
-      </c>
       <c r="AD46" s="2">
-        <f>U46*40</f>
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AE46" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AF46" s="2">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="AE46" s="2">
-        <f>W46*20</f>
-        <v>180</v>
-      </c>
-      <c r="AF46" s="2">
-        <f>V46*20</f>
-        <v>60</v>
-      </c>
       <c r="AG46" s="2">
-        <f>Q46*35</f>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="AH46" s="2">
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="AJ46" s="2">
         <v>60</v>
@@ -7920,16 +7968,16 @@
         <v>0</v>
       </c>
       <c r="AL46" s="2">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="AM46" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN46" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AO46" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP46" s="2">
         <v>20</v>
@@ -7950,39 +7998,39 @@
         <v>40</v>
       </c>
       <c r="AV46" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:48">
+      <c r="A47" s="8">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2">
-        <v>929498411</v>
+        <v>1633085506</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G47" s="2">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K47" s="2">
         <v>40</v>
@@ -7991,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -8000,28 +8048,29 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="2">
+        <v>12</v>
+      </c>
+      <c r="R47" s="2">
+        <v>3</v>
+      </c>
+      <c r="S47" s="2">
         <v>14</v>
       </c>
-      <c r="R47" s="2">
-        <v>8</v>
-      </c>
-      <c r="S47" s="2">
-        <v>12</v>
-      </c>
       <c r="T47" s="2">
-        <v>1</v>
-      </c>
-      <c r="U47" s="2">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="U47" s="8">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
       </c>
       <c r="W47" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -8030,92 +8079,92 @@
         <v>0</v>
       </c>
       <c r="Z47" s="2">
-        <f>P47*15</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="AA47" s="8">
-        <f>R47*15</f>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="AB47" s="2">
-        <f>S47*25</f>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="AC47" s="2">
-        <f>T47*12</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="AD47" s="2">
-        <f>U47*40</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>490</v>
       </c>
       <c r="AE47" s="2">
-        <f>W47*20</f>
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AF47" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG47" s="2">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ47" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="2">
+        <v>60</v>
+      </c>
+      <c r="AM47" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP47" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ47" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR47" s="2">
         <v>180</v>
       </c>
-      <c r="AF47" s="2">
-        <f>V47*20</f>
-        <v>20</v>
-      </c>
-      <c r="AG47" s="2">
-        <f>Q47*35</f>
-        <v>490</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="2">
-        <v>0</v>
-      </c>
       <c r="AS47" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AT47" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AU47" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV47" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:48">
+      <c r="A48" s="8">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2">
-        <v>1181560653</v>
+        <v>2478730187</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -8124,16 +8173,16 @@
         <v>1</v>
       </c>
       <c r="F48" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I48" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48" s="2">
         <v>55</v>
@@ -8154,29 +8203,30 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>3</v>
+      </c>
+      <c r="R48" s="2">
+        <v>10</v>
+      </c>
+      <c r="S48" s="2">
+        <v>12</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V48" s="2">
+        <v>3</v>
+      </c>
+      <c r="W48" s="2">
         <v>9</v>
       </c>
-      <c r="Q48" s="2">
-        <v>2</v>
-      </c>
-      <c r="R48" s="2">
-        <v>8</v>
-      </c>
-      <c r="S48" s="2">
-        <v>16</v>
-      </c>
-      <c r="T48" s="2">
-        <v>1</v>
-      </c>
-      <c r="U48" s="2">
-        <v>1</v>
-      </c>
-      <c r="V48" s="2">
-        <v>2</v>
-      </c>
-      <c r="W48" s="2">
-        <v>0</v>
-      </c>
       <c r="X48" s="2">
         <v>0</v>
       </c>
@@ -8184,57 +8234,57 @@
         <v>0</v>
       </c>
       <c r="Z48" s="2">
-        <f>P48*15</f>
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="AA48" s="8">
-        <f>R48*15</f>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="AB48" s="2">
-        <f>S48*25</f>
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AD48" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AE48" s="2">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="AF48" s="2">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="AG48" s="2">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="2">
         <v>400</v>
       </c>
-      <c r="AC48" s="2">
-        <f>T48*12</f>
-        <v>12</v>
-      </c>
-      <c r="AD48" s="2">
-        <f>U48*40</f>
-        <v>40</v>
-      </c>
-      <c r="AE48" s="2">
-        <f>W48*20</f>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="2">
-        <f>V48*20</f>
-        <v>40</v>
-      </c>
-      <c r="AG48" s="2">
-        <f>Q48*35</f>
-        <v>70</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ48" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="2">
-        <v>100</v>
-      </c>
       <c r="AM48" s="2">
         <v>60</v>
       </c>
       <c r="AN48" s="2">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AO48" s="2">
         <v>160</v>
@@ -8243,7 +8293,7 @@
         <v>20</v>
       </c>
       <c r="AQ48" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AR48" s="2">
         <v>120</v>
@@ -8258,11 +8308,321 @@
         <v>40</v>
       </c>
       <c r="AV48" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48">
+      <c r="A49" s="8">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="2">
+        <v>929498411</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>70</v>
+      </c>
+      <c r="K49" s="2">
+        <v>40</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>14</v>
+      </c>
+      <c r="R49" s="2">
+        <v>8</v>
+      </c>
+      <c r="S49" s="2">
+        <v>12</v>
+      </c>
+      <c r="T49" s="2">
+        <v>1</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>9</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="AA49" s="8">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="AB49" s="2">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="AC49" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AD49" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AE49" s="2">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="AF49" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AG49" s="2">
+        <f t="shared" si="7"/>
+        <v>490</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48">
+      <c r="A50" s="8">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1181560653</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2">
+        <v>55</v>
+      </c>
+      <c r="K50" s="2">
+        <v>40</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>2</v>
+      </c>
+      <c r="R50" s="2">
+        <v>8</v>
+      </c>
+      <c r="S50" s="2">
+        <v>16</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1</v>
+      </c>
+      <c r="U50" s="8">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="V50" s="2">
+        <v>2</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="AA50" s="8">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="AB50" s="2">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AD50" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AE50" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AG50" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM50" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO50" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP50" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ50" s="2">
+        <v>80</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS50" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT50" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU50" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV50" s="2">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:AV48">
+  <sortState ref="A5:AV50">
     <sortCondition ref="A5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8277,10 +8637,10 @@
   <dimension ref="A1:AT45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -8290,7 +8650,7 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="2">
         <v>49</v>
       </c>
@@ -8430,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -8570,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2">
         <v>46</v>
       </c>
@@ -8710,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -8850,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2">
         <v>48</v>
       </c>
@@ -8990,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -8998,28 +9358,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -9046,7 +9406,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -9139,7 +9499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -9171,7 +9531,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
@@ -9272,7 +9632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="2">
         <v>13811</v>
       </c>
@@ -9370,7 +9730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35">
       <c r="A19" s="2">
         <v>1078572878</v>
       </c>
@@ -9413,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35">
       <c r="B20" s="1"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
@@ -9448,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="B21" s="1"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
@@ -9483,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="B22" s="1"/>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
@@ -9518,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35">
       <c r="B23" s="1"/>
       <c r="O23" s="2">
         <f t="shared" si="0"/>
@@ -9553,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35">
       <c r="B24" s="1"/>
       <c r="O24" s="2">
         <f t="shared" si="0"/>
@@ -9588,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="B25" s="1"/>
       <c r="O25" s="2">
         <f t="shared" si="0"/>
@@ -9623,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35">
       <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9657,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35">
       <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9691,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:28">
       <c r="E34" s="2" t="s">
         <v>108</v>
       </c>
@@ -9720,7 +10080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:28">
       <c r="E35" s="2" t="s">
         <v>99</v>
       </c>
@@ -9746,7 +10106,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:28">
       <c r="E36" s="2" t="s">
         <v>109</v>
       </c>
@@ -9763,7 +10123,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:28">
       <c r="E37" s="2" t="s">
         <v>103</v>
       </c>
@@ -9786,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:28">
       <c r="E38" s="2" t="s">
         <v>110</v>
       </c>
@@ -9809,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:28">
       <c r="E39" s="2" t="s">
         <v>111</v>
       </c>
@@ -9837,7 +10197,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="40" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:28">
       <c r="E40" s="2" t="s">
         <v>98</v>
       </c>
@@ -9882,7 +10242,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="41" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:28">
       <c r="E41" s="2" t="s">
         <v>100</v>
       </c>
@@ -9931,7 +10291,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:28">
       <c r="F42" s="2">
         <f>F40/F41</f>
         <v>1.0143233925973822</v>
@@ -9979,7 +10339,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="43" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:28">
       <c r="P43" s="2">
         <v>1</v>
       </c>
@@ -10014,7 +10374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:28">
       <c r="P44" s="2">
         <v>0.1</v>
       </c>
@@ -10031,7 +10391,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="45" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:28">
       <c r="P45" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077654DE-4831-4BF8-B286-6A70DAABD687}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E5D45-AAD7-4353-8E58-7BC70E587AB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t xml:space="preserve">Author:
 1 </t>
         </r>
         <r>
@@ -662,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,7 +772,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1050,16 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV50"/>
+  <dimension ref="A1:AV56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1085,11 +1085,13 @@
     <col min="34" max="34" width="2.5" style="2" customWidth="1"/>
     <col min="35" max="36" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" style="2" customWidth="1"/>
-    <col min="38" max="48" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1205,7 +1207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -1443,7 +1445,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1493,7 +1495,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -2285,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -2294,7 +2296,7 @@
         <v>0.5</v>
       </c>
       <c r="I10" s="2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J10" s="2">
         <v>55</v>
@@ -2324,7 +2326,7 @@
         <v>6</v>
       </c>
       <c r="S10" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
@@ -2355,7 +2357,7 @@
       </c>
       <c r="AB10" s="2">
         <f>S10*25</f>
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="AC10" s="2">
         <f>T10*12</f>
@@ -2423,7 +2425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -2544,22 +2546,22 @@
         <v>0</v>
       </c>
       <c r="AL11" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AM11" s="8">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN11" s="8">
         <v>160</v>
       </c>
       <c r="AO11" s="8">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AP11" s="8">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AQ11" s="8">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AR11" s="8">
         <v>120</v>
@@ -2577,7 +2579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -2887,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14:U50" si="9">T14*0.875</f>
+        <f t="shared" ref="U14:U56" si="9">T14*0.875</f>
         <v>11.375</v>
       </c>
       <c r="V14" s="8">
@@ -3042,7 +3044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -3790,13 +3792,13 @@
         <v>80</v>
       </c>
       <c r="AN19" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AO19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AP19" s="2">
         <v>160</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>200</v>
       </c>
       <c r="AQ19" s="2">
         <v>100</v>
@@ -3817,7 +3819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>19</v>
       </c>
@@ -4437,7 +4439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>22</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>25</v>
       </c>
@@ -5366,24 +5368,24 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2">
-        <v>1493233944</v>
+        <v>1035294639</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G30" s="2">
         <v>0.05</v>
@@ -5413,26 +5415,26 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>5</v>
+      </c>
+      <c r="S30" s="2">
         <v>11</v>
       </c>
-      <c r="Q30" s="2">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2">
-        <v>6</v>
-      </c>
-      <c r="S30" s="2">
-        <v>16</v>
-      </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" si="9"/>
+        <f>T30*0.875</f>
         <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2">
         <v>9</v>
@@ -5444,35 +5446,35 @@
         <v>0</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <f>P30*15</f>
+        <v>105</v>
       </c>
       <c r="AA30" s="8">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>R30*15</f>
+        <v>75</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <f>S30*25</f>
+        <v>275</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" si="3"/>
+        <f>T30*12</f>
         <v>0</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" si="4"/>
+        <f>U30*40</f>
         <v>0</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="5"/>
+        <f>W30*20</f>
         <v>180</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>V30*20</f>
+        <v>20</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" si="7"/>
+        <f>Q30*35</f>
         <v>35</v>
       </c>
       <c r="AH30" s="2">
@@ -5488,16 +5490,16 @@
         <v>0</v>
       </c>
       <c r="AL30" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AM30" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AN30" s="2">
         <v>20</v>
       </c>
       <c r="AO30" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AP30" s="2">
         <v>20</v>
@@ -5518,36 +5520,36 @@
         <v>240</v>
       </c>
       <c r="AV30" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2">
-        <v>1515436657</v>
+        <v>1493233944</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
         <v>4</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3</v>
       </c>
       <c r="J31" s="2">
         <v>70</v>
@@ -5556,7 +5558,7 @@
         <v>40</v>
       </c>
       <c r="L31" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -5574,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S31" s="2">
         <v>16</v>
@@ -5587,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2">
         <v>9</v>
@@ -5604,7 +5606,7 @@
       </c>
       <c r="AA31" s="8">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="2"/>
@@ -5624,7 +5626,7 @@
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="7"/>
@@ -5634,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="2">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="AJ31" s="2">
         <v>60</v>
@@ -5643,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="AL31" s="2">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="AM31" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN31" s="2">
         <v>20</v>
@@ -5676,33 +5678,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2">
-        <v>1035294639</v>
+        <v>1515436657</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <v>0.05</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
       <c r="I32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="2">
         <v>70</v>
@@ -5711,7 +5713,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -5723,16 +5725,16 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="2">
         <v>1</v>
       </c>
       <c r="R32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -5755,15 +5757,15 @@
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="3"/>
@@ -5789,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="AJ32" s="2">
         <v>60</v>
@@ -5798,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="AM32" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AN32" s="2">
         <v>20</v>
       </c>
       <c r="AO32" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AP32" s="2">
         <v>20</v>
@@ -5828,18 +5830,18 @@
         <v>240</v>
       </c>
       <c r="AV32" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2">
-        <v>927214883</v>
+        <v>3104974405</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -5848,19 +5850,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K33" s="2">
         <v>40</v>
@@ -5878,29 +5880,29 @@
         <v>0</v>
       </c>
       <c r="P33" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="2">
         <v>4</v>
       </c>
-      <c r="Q33" s="2">
-        <v>12</v>
-      </c>
       <c r="R33" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S33" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T33" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="9"/>
-        <v>12.25</v>
+        <f>T33*0.875</f>
+        <v>0</v>
       </c>
       <c r="V33" s="2">
         <v>1</v>
       </c>
       <c r="W33" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -5909,92 +5911,92 @@
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>P33*15</f>
+        <v>135</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f>R33*15</f>
+        <v>90</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
+        <f>S33*25</f>
+        <v>400</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="3"/>
-        <v>168</v>
+        <f>T33*12</f>
+        <v>0</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" si="4"/>
-        <v>490</v>
+        <f>U33*40</f>
+        <v>0</v>
       </c>
       <c r="AE33" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>W33*20</f>
+        <v>180</v>
       </c>
       <c r="AF33" s="2">
-        <f t="shared" si="6"/>
+        <f>V33*20</f>
         <v>20</v>
       </c>
       <c r="AG33" s="2">
-        <f t="shared" si="7"/>
-        <v>420</v>
+        <f>Q33*35</f>
+        <v>140</v>
       </c>
       <c r="AH33" s="2">
         <v>0</v>
       </c>
       <c r="AI33" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="AJ33" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>60</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>200</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU33" s="2">
         <v>240</v>
       </c>
-      <c r="AK33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>180</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU33" s="2">
-        <v>40</v>
-      </c>
       <c r="AV33" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2">
-        <v>1067924459</v>
+        <v>927214883</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -6141,30 +6143,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2">
-        <v>1599219954</v>
+        <v>1067924459</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -6187,60 +6189,60 @@
       <c r="O35" s="2">
         <v>0</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>12</v>
+      </c>
+      <c r="R35" s="2">
+        <v>3</v>
+      </c>
+      <c r="S35" s="2">
         <v>7</v>
       </c>
-      <c r="Q35" s="8">
-        <v>10</v>
-      </c>
-      <c r="R35" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="S35" s="8">
-        <v>11</v>
-      </c>
-      <c r="T35" s="8">
-        <v>9</v>
+      <c r="T35" s="2">
+        <v>14</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="9"/>
-        <v>7.875</v>
-      </c>
-      <c r="V35" s="8">
-        <v>1</v>
-      </c>
-      <c r="W35" s="8">
-        <v>4</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
         <v>0</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>45</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="6"/>
@@ -6248,63 +6250,63 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-      <c r="AH35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="8">
-        <v>200</v>
-      </c>
-      <c r="AJ35" s="8">
+        <v>420</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ35" s="2">
         <v>240</v>
       </c>
-      <c r="AK35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="8">
-        <v>160</v>
-      </c>
-      <c r="AM35" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN35" s="8">
-        <v>20</v>
-      </c>
-      <c r="AO35" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP35" s="8">
-        <v>140</v>
-      </c>
-      <c r="AQ35" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR35" s="8">
-        <v>120</v>
-      </c>
-      <c r="AS35" s="8">
-        <v>120</v>
-      </c>
-      <c r="AT35" s="8">
-        <v>120</v>
-      </c>
-      <c r="AU35" s="8">
-        <v>40</v>
-      </c>
-      <c r="AV35" s="8">
+      <c r="AK35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>180</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV35" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2">
-        <v>961518960</v>
+        <v>1599219954</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -6313,16 +6315,16 @@
         <v>2</v>
       </c>
       <c r="F36" s="2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H36" s="2">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="I36" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>55</v>
@@ -6343,39 +6345,39 @@
         <v>0</v>
       </c>
       <c r="P36" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R36" s="8">
         <v>4.5</v>
       </c>
       <c r="S36" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T36" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="9"/>
-        <v>0.875</v>
+        <v>7.875</v>
       </c>
       <c r="V36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="8">
-        <v>9</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2">
+        <v>4</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="8">
         <v>0</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="1"/>
@@ -6383,75 +6385,75 @@
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="AH36" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH36" s="8">
         <v>0</v>
       </c>
       <c r="AI36" s="8">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AJ36" s="8">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AK36" s="8">
         <v>0</v>
       </c>
       <c r="AL36" s="8">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AM36" s="8">
         <v>80</v>
       </c>
       <c r="AN36" s="8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AO36" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AP36" s="8">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AQ36" s="8">
         <v>20</v>
       </c>
       <c r="AR36" s="8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AS36" s="8">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AT36" s="8">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AU36" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AV36" s="8">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>14</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="9"/>
+        <f>T37*0.875</f>
         <v>12.25</v>
       </c>
       <c r="V37" s="2">
@@ -6529,35 +6531,35 @@
         <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="0"/>
+        <f>P37*15</f>
         <v>60</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="1"/>
+        <f>R37*15</f>
         <v>45</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="2"/>
+        <f>S37*25</f>
         <v>200</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="3"/>
+        <f>T37*12</f>
         <v>168</v>
       </c>
       <c r="AD37" s="2">
-        <f t="shared" si="4"/>
+        <f>U37*40</f>
         <v>490</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="5"/>
+        <f>W37*20</f>
         <v>60</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" si="6"/>
+        <f>V37*20</f>
         <v>0</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" si="7"/>
+        <f>Q37*35</f>
         <v>420</v>
       </c>
       <c r="AH37" s="2">
@@ -6606,36 +6608,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
-        <v>1493239978</v>
+        <v>961518960</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I38" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J38" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K38" s="2">
         <v>40</v>
@@ -6652,30 +6654,30 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-      <c r="P38" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="P38" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="8">
         <v>2</v>
       </c>
-      <c r="R38" s="2">
-        <v>10</v>
-      </c>
-      <c r="S38" s="2">
-        <v>13</v>
-      </c>
-      <c r="T38" s="2">
+      <c r="R38" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S38" s="8">
+        <v>16</v>
+      </c>
+      <c r="T38" s="8">
         <v>1</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
-      <c r="V38" s="2">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2">
-        <v>7</v>
+      <c r="V38" s="8">
+        <v>0</v>
+      </c>
+      <c r="W38" s="8">
+        <v>9</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -6685,15 +6687,15 @@
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>67.5</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="3"/>
@@ -6705,11 +6707,11 @@
       </c>
       <c r="AE38" s="2">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AF38" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="7"/>
@@ -6718,58 +6720,58 @@
       <c r="AH38" s="2">
         <v>0</v>
       </c>
-      <c r="AI38" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ38" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR38" s="2">
+      <c r="AI38" s="8">
+        <v>140</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>100</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>140</v>
+      </c>
+      <c r="AM38" s="8">
         <v>80</v>
       </c>
-      <c r="AS38" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT38" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU38" s="2">
-        <v>120</v>
-      </c>
-      <c r="AV38" s="2">
-        <v>40</v>
+      <c r="AN38" s="8">
+        <v>200</v>
+      </c>
+      <c r="AO38" s="8">
+        <v>60</v>
+      </c>
+      <c r="AP38" s="8">
+        <v>20</v>
+      </c>
+      <c r="AQ38" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR38" s="8">
+        <v>240</v>
+      </c>
+      <c r="AS38" s="8">
+        <v>160</v>
+      </c>
+      <c r="AT38" s="8">
+        <v>160</v>
+      </c>
+      <c r="AU38" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV38" s="8">
+        <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
-        <v>1590408755</v>
+        <v>1493239978</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -6778,19 +6780,19 @@
         <v>1</v>
       </c>
       <c r="F39" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K39" s="2">
         <v>40</v>
@@ -6802,22 +6804,22 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S39" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T39" s="2">
         <v>1</v>
@@ -6827,10 +6829,10 @@
         <v>0.875</v>
       </c>
       <c r="V39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W39" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -6840,15 +6842,15 @@
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA39" s="8">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="3"/>
@@ -6860,15 +6862,15 @@
       </c>
       <c r="AE39" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AF39" s="2">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AH39" s="2">
         <v>0</v>
@@ -6883,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="2">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AM39" s="2">
         <v>60</v>
@@ -6892,39 +6894,39 @@
         <v>20</v>
       </c>
       <c r="AO39" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR39" s="2">
         <v>80</v>
       </c>
-      <c r="AP39" s="2">
-        <v>280</v>
-      </c>
-      <c r="AQ39" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR39" s="2">
-        <v>120</v>
-      </c>
       <c r="AS39" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT39" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AU39" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AV39" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
-        <v>3104974405</v>
+        <v>1590408755</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -6933,19 +6935,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
         <v>0.05</v>
       </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
       <c r="I40" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K40" s="2">
         <v>40</v>
@@ -6957,35 +6959,35 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q40" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S40" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="V40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -6995,41 +6997,41 @@
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="AA40" s="8">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AF40" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="AH40" s="2">
         <v>0</v>
       </c>
       <c r="AI40" s="2">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="AJ40" s="2">
         <v>60</v>
@@ -7038,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AM40" s="2">
         <v>60</v>
@@ -7047,57 +7049,57 @@
         <v>20</v>
       </c>
       <c r="AO40" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP40" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AQ40" s="2">
         <v>20</v>
       </c>
       <c r="AR40" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS40" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AT40" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AU40" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AV40" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2">
-        <v>2350714359</v>
+        <v>1830649078</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H41" s="2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2">
         <v>55</v>
@@ -7112,35 +7114,35 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>2</v>
+      </c>
+      <c r="R41" s="2">
         <v>10</v>
       </c>
-      <c r="Q41" s="2">
-        <v>6</v>
-      </c>
-      <c r="R41" s="2">
+      <c r="S41" s="2">
         <v>8</v>
       </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
       <c r="T41" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U41" s="8">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>0.875</v>
       </c>
       <c r="V41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W41" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -7150,109 +7152,109 @@
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AA41" s="8">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="AE41" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AF41" s="2">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="7"/>
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AH41" s="2">
         <v>0</v>
       </c>
       <c r="AI41" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ41" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AM41" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN41" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>200</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR41" s="2">
         <v>240</v>
       </c>
-      <c r="AO41" s="2">
-        <v>120</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>120</v>
-      </c>
-      <c r="AQ41" s="2">
-        <v>80</v>
-      </c>
-      <c r="AR41" s="2">
+      <c r="AS41" s="2">
+        <v>240</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>240</v>
+      </c>
+      <c r="AU41" s="2">
         <v>180</v>
       </c>
-      <c r="AS41" s="2">
-        <v>180</v>
-      </c>
-      <c r="AT41" s="2">
-        <v>180</v>
-      </c>
-      <c r="AU41" s="2">
-        <v>80</v>
-      </c>
       <c r="AV41" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2">
-        <v>1830649078</v>
+        <v>2250799209</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
         <v>55</v>
@@ -7267,35 +7269,35 @@
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R42" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S42" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T42" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" si="9"/>
-        <v>0.875</v>
+        <v>9.625</v>
       </c>
       <c r="V42" s="2">
+        <v>4</v>
+      </c>
+      <c r="W42" s="2">
         <v>2</v>
-      </c>
-      <c r="W42" s="2">
-        <v>5</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -7305,35 +7307,35 @@
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA42" s="8">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="AD42" s="2">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>385</v>
       </c>
       <c r="AE42" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AF42" s="2">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AH42" s="2">
         <v>0</v>
@@ -7342,356 +7344,356 @@
         <v>100</v>
       </c>
       <c r="AJ42" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AK42" s="2">
         <v>0</v>
       </c>
       <c r="AL42" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="2">
         <v>60</v>
       </c>
       <c r="AN42" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AO42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AP42" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AQ42" s="2">
         <v>20</v>
       </c>
       <c r="AR42" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AS42" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AT42" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AU42" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AV42" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2">
-        <v>2250799209</v>
+        <v>2478730055</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3</v>
+      </c>
+      <c r="J43" s="8">
+        <v>55</v>
+      </c>
+      <c r="K43" s="2">
+        <v>40</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
         <v>4</v>
       </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>55</v>
-      </c>
-      <c r="K43" s="2">
-        <v>40</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>4</v>
-      </c>
-      <c r="R43" s="2">
-        <v>14</v>
-      </c>
-      <c r="S43" s="2">
-        <v>6</v>
-      </c>
-      <c r="T43" s="2">
-        <v>11</v>
+      <c r="Q43" s="8">
+        <v>12</v>
+      </c>
+      <c r="R43" s="8">
+        <v>3</v>
+      </c>
+      <c r="S43" s="8">
+        <v>13</v>
+      </c>
+      <c r="T43" s="8">
+        <v>12</v>
       </c>
       <c r="U43" s="8">
         <f t="shared" si="9"/>
-        <v>9.625</v>
-      </c>
-      <c r="V43" s="2">
-        <v>4</v>
-      </c>
-      <c r="W43" s="2">
-        <v>2</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="V43" s="8">
+        <v>1</v>
+      </c>
+      <c r="W43" s="8">
+        <v>3</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="8">
         <v>0</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AA43" s="8">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AD43" s="2">
         <f t="shared" si="4"/>
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="AE43" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF43" s="2">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="AH43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="8">
+        <v>80</v>
+      </c>
+      <c r="AJ43" s="8">
+        <v>200</v>
+      </c>
+      <c r="AK43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="8">
+        <v>80</v>
+      </c>
+      <c r="AN43" s="8">
+        <v>60</v>
+      </c>
+      <c r="AO43" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP43" s="8">
+        <v>40</v>
+      </c>
+      <c r="AQ43" s="8">
+        <v>20</v>
+      </c>
+      <c r="AR43" s="8">
+        <v>120</v>
+      </c>
+      <c r="AS43" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT43" s="8">
+        <v>100</v>
+      </c>
+      <c r="AU43" s="8">
+        <v>80</v>
+      </c>
+      <c r="AV43" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2350714359</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>55</v>
+      </c>
+      <c r="K44" s="2">
+        <v>40</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>6</v>
+      </c>
+      <c r="R44" s="2">
+        <v>8</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>4</v>
+      </c>
+      <c r="U44" s="8">
+        <f>T44*0.875</f>
+        <v>3.5</v>
+      </c>
+      <c r="V44" s="2">
+        <v>3</v>
+      </c>
+      <c r="W44" s="2">
+        <v>3</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <f>P44*15</f>
+        <v>150</v>
+      </c>
+      <c r="AA44" s="8">
+        <f>R44*15</f>
+        <v>120</v>
+      </c>
+      <c r="AB44" s="2">
+        <f>S44*25</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <f>T44*12</f>
+        <v>48</v>
+      </c>
+      <c r="AD44" s="2">
+        <f>U44*40</f>
         <v>140</v>
       </c>
-      <c r="AH43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ43" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN43" s="2">
+      <c r="AE44" s="2">
+        <f>W44*20</f>
+        <v>60</v>
+      </c>
+      <c r="AF44" s="2">
+        <f>V44*20</f>
+        <v>60</v>
+      </c>
+      <c r="AG44" s="2">
+        <f>Q44*35</f>
+        <v>210</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM44" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>120</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>120</v>
+      </c>
+      <c r="AQ44" s="2">
+        <v>80</v>
+      </c>
+      <c r="AR44" s="2">
         <v>180</v>
       </c>
-      <c r="AO43" s="2">
-        <v>40</v>
-      </c>
-      <c r="AP43" s="2">
-        <v>60</v>
-      </c>
-      <c r="AQ43" s="2">
-        <v>20</v>
-      </c>
-      <c r="AR43" s="2">
-        <v>120</v>
-      </c>
-      <c r="AS43" s="2">
-        <v>120</v>
-      </c>
-      <c r="AT43" s="2">
-        <v>120</v>
-      </c>
-      <c r="AU43" s="2">
-        <v>40</v>
-      </c>
-      <c r="AV43" s="2">
-        <v>40</v>
+      <c r="AS44" s="2">
+        <v>180</v>
+      </c>
+      <c r="AT44" s="2">
+        <v>180</v>
+      </c>
+      <c r="AU44" s="2">
+        <v>80</v>
+      </c>
+      <c r="AV44" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
-      <c r="A44" s="8">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2478730055</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="2">
-        <v>3</v>
-      </c>
-      <c r="J44" s="8">
-        <v>55</v>
-      </c>
-      <c r="K44" s="2">
-        <v>40</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="8">
-        <v>12</v>
-      </c>
-      <c r="R44" s="8">
-        <v>3</v>
-      </c>
-      <c r="S44" s="8">
-        <v>13</v>
-      </c>
-      <c r="T44" s="8">
-        <v>12</v>
-      </c>
-      <c r="U44" s="8">
-        <f t="shared" si="9"/>
-        <v>10.5</v>
-      </c>
-      <c r="V44" s="8">
-        <v>1</v>
-      </c>
-      <c r="W44" s="8">
-        <v>3</v>
-      </c>
-      <c r="X44" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AA44" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="AB44" s="2">
-        <f t="shared" si="2"/>
-        <v>325</v>
-      </c>
-      <c r="AC44" s="2">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="AD44" s="2">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="AE44" s="2">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="AF44" s="2">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="AG44" s="2">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-      <c r="AH44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="8">
-        <v>80</v>
-      </c>
-      <c r="AJ44" s="8">
-        <v>200</v>
-      </c>
-      <c r="AK44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="8">
-        <v>80</v>
-      </c>
-      <c r="AN44" s="8">
-        <v>60</v>
-      </c>
-      <c r="AO44" s="8">
-        <v>20</v>
-      </c>
-      <c r="AP44" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ44" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR44" s="8">
-        <v>120</v>
-      </c>
-      <c r="AS44" s="8">
-        <v>100</v>
-      </c>
-      <c r="AT44" s="8">
-        <v>100</v>
-      </c>
-      <c r="AU44" s="8">
-        <v>80</v>
-      </c>
-      <c r="AV44" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>43</v>
       </c>
@@ -8156,7 +8158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -8311,7 +8313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -8424,49 +8426,49 @@
         <v>0</v>
       </c>
       <c r="AI49" s="2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AJ49" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK49" s="2">
         <v>0</v>
       </c>
       <c r="AL49" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AM49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR49" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS49" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AT49" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU49" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>46</v>
       </c>
@@ -8591,13 +8593,13 @@
         <v>100</v>
       </c>
       <c r="AM50" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN50" s="2">
         <v>280</v>
       </c>
       <c r="AO50" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP50" s="2">
         <v>20</v>
@@ -8618,6 +8620,936 @@
         <v>40</v>
       </c>
       <c r="AV50" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="2">
+        <v>928164310</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J51" s="2">
+        <v>55</v>
+      </c>
+      <c r="K51" s="2">
+        <v>40</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P51" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>4</v>
+      </c>
+      <c r="R51" s="2">
+        <v>8</v>
+      </c>
+      <c r="S51" s="2">
+        <v>13</v>
+      </c>
+      <c r="T51" s="2">
+        <v>3</v>
+      </c>
+      <c r="U51" s="8">
+        <f t="shared" ref="U51:U56" si="10">T51*0.875</f>
+        <v>2.625</v>
+      </c>
+      <c r="V51" s="2">
+        <v>2</v>
+      </c>
+      <c r="W51" s="2">
+        <v>2</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" ref="Z51:Z56" si="11">P51*15</f>
+        <v>135</v>
+      </c>
+      <c r="AA51" s="8">
+        <f t="shared" ref="AA51:AA56" si="12">R51*15</f>
+        <v>120</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" ref="AB51:AB56" si="13">S51*25</f>
+        <v>325</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" ref="AC51:AC56" si="14">T51*12</f>
+        <v>36</v>
+      </c>
+      <c r="AD51" s="2">
+        <f t="shared" ref="AD51:AD56" si="15">U51*40</f>
+        <v>105</v>
+      </c>
+      <c r="AE51" s="2">
+        <f t="shared" ref="AE51:AE56" si="16">W51*20</f>
+        <v>40</v>
+      </c>
+      <c r="AF51" s="2">
+        <f t="shared" ref="AF51:AF56" si="17">V51*20</f>
+        <v>40</v>
+      </c>
+      <c r="AG51" s="2">
+        <f t="shared" ref="AG51:AG56" si="18">Q51*35</f>
+        <v>140</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM51" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO51" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ51" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR51" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS51" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT51" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU51" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV51" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1013954585</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J52" s="2">
+        <v>55</v>
+      </c>
+      <c r="K52" s="2">
+        <v>40</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>2</v>
+      </c>
+      <c r="R52" s="2">
+        <v>8</v>
+      </c>
+      <c r="S52" s="2">
+        <v>12</v>
+      </c>
+      <c r="T52" s="2">
+        <v>1</v>
+      </c>
+      <c r="U52" s="8">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="V52" s="2">
+        <v>2</v>
+      </c>
+      <c r="W52" s="2">
+        <v>5</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="AA52" s="8">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AB52" s="2">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="AC52" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AD52" s="2">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="AE52" s="2">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AF52" s="2">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AG52" s="2">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM52" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>60</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ52" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR52" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS52" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT52" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU52" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV52" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1152447011</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>4</v>
+      </c>
+      <c r="J53" s="2">
+        <v>55</v>
+      </c>
+      <c r="K53" s="2">
+        <v>40</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>2</v>
+      </c>
+      <c r="R53" s="2">
+        <v>8</v>
+      </c>
+      <c r="S53" s="2">
+        <v>12</v>
+      </c>
+      <c r="T53" s="2">
+        <v>1</v>
+      </c>
+      <c r="U53" s="8">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="V53" s="2">
+        <v>2</v>
+      </c>
+      <c r="W53" s="2">
+        <v>3</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="AA53" s="8">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AB53" s="2">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="AC53" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AD53" s="2">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="AE53" s="2">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="AF53" s="2">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AG53" s="2">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM53" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS53" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT53" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1385694758</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5</v>
+      </c>
+      <c r="J54" s="2">
+        <v>55</v>
+      </c>
+      <c r="K54" s="2">
+        <v>40</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>10</v>
+      </c>
+      <c r="R54" s="2">
+        <v>3</v>
+      </c>
+      <c r="S54" s="2">
+        <v>14</v>
+      </c>
+      <c r="T54" s="2">
+        <v>10</v>
+      </c>
+      <c r="U54" s="8">
+        <f t="shared" si="10"/>
+        <v>8.75</v>
+      </c>
+      <c r="V54" s="2">
+        <v>2</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="AA54" s="8">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="AB54" s="2">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="AC54" s="2">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="AD54" s="2">
+        <f t="shared" si="15"/>
+        <v>350</v>
+      </c>
+      <c r="AE54" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AG54" s="2">
+        <f t="shared" si="18"/>
+        <v>350</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM54" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP54" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ54" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR54" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS54" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT54" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU54" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV54" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1295677693</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>5</v>
+      </c>
+      <c r="J55" s="2">
+        <v>55</v>
+      </c>
+      <c r="K55" s="2">
+        <v>40</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>2</v>
+      </c>
+      <c r="R55" s="2">
+        <v>8</v>
+      </c>
+      <c r="S55" s="2">
+        <v>16</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2</v>
+      </c>
+      <c r="U55" s="8">
+        <f t="shared" si="10"/>
+        <v>1.75</v>
+      </c>
+      <c r="V55" s="2">
+        <v>2</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="AA55" s="8">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="AD55" s="2">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="AE55" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AG55" s="2">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM55" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO55" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ55" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR55" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS55" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT55" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU55" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV55" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="2">
+        <v>942802627</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J56" s="2">
+        <v>55</v>
+      </c>
+      <c r="K56" s="2">
+        <v>40</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>2</v>
+      </c>
+      <c r="R56" s="2">
+        <v>8</v>
+      </c>
+      <c r="S56" s="2">
+        <v>13</v>
+      </c>
+      <c r="T56" s="2">
+        <v>1</v>
+      </c>
+      <c r="U56" s="8">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="V56" s="2">
+        <v>2</v>
+      </c>
+      <c r="W56" s="2">
+        <v>6</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+      <c r="AA56" s="8">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="13"/>
+        <v>325</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AD56" s="2">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="AE56" s="2">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="AF56" s="2">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AG56" s="2">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM56" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP56" s="2">
+        <v>100</v>
+      </c>
+      <c r="AQ56" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR56" s="2">
+        <v>120</v>
+      </c>
+      <c r="AS56" s="2">
+        <v>120</v>
+      </c>
+      <c r="AT56" s="2">
+        <v>120</v>
+      </c>
+      <c r="AU56" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV56" s="2">
         <v>60</v>
       </c>
     </row>
@@ -8634,13 +9566,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C3FA45-F533-41C0-A329-7AEA02C7272B}">
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A7:AI45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection sqref="A1:AT6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -8650,736 +9582,28 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="A1" s="2">
-        <v>49</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2">
-        <v>928164310</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>55</v>
-      </c>
-      <c r="K1" s="2">
-        <v>100</v>
-      </c>
-      <c r="L1" s="2">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>0</v>
-      </c>
-      <c r="R1" s="2">
-        <v>0</v>
-      </c>
-      <c r="S1" s="2">
-        <v>0</v>
-      </c>
-      <c r="T1" s="2">
-        <v>0</v>
-      </c>
-      <c r="U1" s="2">
-        <v>0</v>
-      </c>
-      <c r="V1" s="2">
-        <v>0</v>
-      </c>
-      <c r="W1" s="2">
-        <v>0</v>
-      </c>
-      <c r="X1" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="A2" s="2">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1385694758</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>55</v>
-      </c>
-      <c r="K2" s="2">
-        <v>100</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="2">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1152447011</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2">
-        <v>100</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="2">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1295677693</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>55</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="2">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>942802627</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2">
-        <v>100</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="2">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -9406,7 +9630,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -9499,7 +9723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -9531,7 +9755,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
@@ -9632,7 +9856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>13811</v>
       </c>
@@ -9730,7 +9954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1078572878</v>
       </c>
@@ -9773,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
@@ -9808,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
@@ -9843,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
@@ -9878,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="O23" s="2">
         <f t="shared" si="0"/>
@@ -9913,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="O24" s="2">
         <f t="shared" si="0"/>
@@ -9948,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="O25" s="2">
         <f t="shared" si="0"/>
@@ -9983,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10017,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10051,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:28">
+    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E34" s="2" t="s">
         <v>108</v>
       </c>
@@ -10080,7 +10304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="5:28">
+    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E35" s="2" t="s">
         <v>99</v>
       </c>
@@ -10106,7 +10330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="5:28">
+    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E36" s="2" t="s">
         <v>109</v>
       </c>
@@ -10123,7 +10347,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="5:28">
+    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E37" s="2" t="s">
         <v>103</v>
       </c>
@@ -10146,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:28">
+    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E38" s="2" t="s">
         <v>110</v>
       </c>
@@ -10169,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:28">
+    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E39" s="2" t="s">
         <v>111</v>
       </c>
@@ -10197,7 +10421,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="40" spans="5:28">
+    <row r="40" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E40" s="2" t="s">
         <v>98</v>
       </c>
@@ -10242,7 +10466,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="41" spans="5:28">
+    <row r="41" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E41" s="2" t="s">
         <v>100</v>
       </c>
@@ -10291,7 +10515,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="5:28">
+    <row r="42" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F42" s="2">
         <f>F40/F41</f>
         <v>1.0143233925973822</v>
@@ -10339,7 +10563,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="43" spans="5:28">
+    <row r="43" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P43" s="2">
         <v>1</v>
       </c>
@@ -10374,7 +10598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="5:28">
+    <row r="44" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P44" s="2">
         <v>0.1</v>
       </c>
@@ -10391,7 +10615,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="45" spans="5:28">
+    <row r="45" spans="5:28" x14ac:dyDescent="0.2">
       <c r="P45" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E5D45-AAD7-4353-8E58-7BC70E587AB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25D805-31F9-4D45-ACB9-15C9D74CCC2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2951,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14:U56" si="9">T14*0.875</f>
+        <f t="shared" ref="U14:U50" si="9">T14*0.875</f>
         <v>11.375</v>
       </c>
       <c r="V14" s="8">
@@ -3801,7 +3801,7 @@
         <v>160</v>
       </c>
       <c r="AQ19" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AR19" s="2">
         <v>120</v>
@@ -3956,7 +3956,7 @@
         <v>180</v>
       </c>
       <c r="AQ20" s="2">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="AR20" s="2">
         <v>120</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25D805-31F9-4D45-ACB9-15C9D74CCC2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D1723-D0FE-41C7-A912-3112EF328E0B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0FDB9D07-EED5-4D9A-97DF-FD4E6CAC08A3}">
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">作者:
 1 </t>
         </r>
         <r>
@@ -662,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,7 +772,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1056,10 +1056,10 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1091,7 +1091,7 @@
     <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1207,7 +1207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1495,7 +1495,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1693,8 +1693,8 @@
       <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="O6" s="8">
-        <v>1</v>
+      <c r="O6" s="2">
+        <v>0.5</v>
       </c>
       <c r="P6" s="8">
         <v>14</v>
@@ -1805,7 +1805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="2">
         <v>14</v>
@@ -2579,7 +2579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -4146,13 +4146,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I22" s="2">
         <v>7</v>
@@ -4284,7 +4284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23" s="8">
         <v>19</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26" s="8">
         <v>22</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48">
       <c r="A29" s="8">
         <v>25</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48">
       <c r="A32" s="8">
         <v>28</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0.05</v>
       </c>
       <c r="I32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" s="2">
         <v>70</v>
@@ -5713,7 +5713,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48">
       <c r="A33" s="8">
         <v>29</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48">
       <c r="A35" s="8">
         <v>31</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48">
       <c r="A38" s="8">
         <v>34</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48">
       <c r="A41" s="8">
         <v>37</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48">
       <c r="A44" s="8">
         <v>40</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48">
       <c r="A47" s="8">
         <v>43</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48">
       <c r="A50" s="8">
         <v>46</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48">
       <c r="A51" s="8">
         <v>47</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48">
       <c r="A52" s="8">
         <v>48</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48">
       <c r="A53" s="8">
         <v>49</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48">
       <c r="A54" s="8">
         <v>50</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48">
       <c r="A55" s="8">
         <v>51</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48">
       <c r="A56" s="8">
         <v>52</v>
       </c>
@@ -9572,7 +9572,7 @@
       <selection sqref="A1:AT6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="2"/>
@@ -9582,28 +9582,28 @@
     <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -9630,7 +9630,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -9723,7 +9723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -9755,7 +9755,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35">
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="2">
         <v>13811</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35">
       <c r="A19" s="2">
         <v>1078572878</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35">
       <c r="B20" s="1"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="B21" s="1"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="B22" s="1"/>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35">
       <c r="B23" s="1"/>
       <c r="O23" s="2">
         <f t="shared" si="0"/>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35">
       <c r="B24" s="1"/>
       <c r="O24" s="2">
         <f t="shared" si="0"/>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="B25" s="1"/>
       <c r="O25" s="2">
         <f t="shared" si="0"/>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35">
       <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35">
       <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:28">
       <c r="E34" s="2" t="s">
         <v>108</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:28">
       <c r="E35" s="2" t="s">
         <v>99</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:28">
       <c r="E36" s="2" t="s">
         <v>109</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:28">
       <c r="E37" s="2" t="s">
         <v>103</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:28">
       <c r="E38" s="2" t="s">
         <v>110</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:28">
       <c r="E39" s="2" t="s">
         <v>111</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="40" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:28">
       <c r="E40" s="2" t="s">
         <v>98</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="41" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:28">
       <c r="E41" s="2" t="s">
         <v>100</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:28">
       <c r="F42" s="2">
         <f>F40/F41</f>
         <v>1.0143233925973822</v>
@@ -10563,7 +10563,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="43" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:28">
       <c r="P43" s="2">
         <v>1</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:28">
       <c r="P44" s="2">
         <v>0.1</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="45" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:28">
       <c r="P45" s="2">
         <v>0</v>
       </c>

--- a/xlsx/worth.xlsx
+++ b/xlsx/worth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26B4A0D-317A-4B48-A0DF-8E4D543DE8CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C4FF0-CDD7-45FF-BCBA-2E28B6F946BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2014,6 +2014,9 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
+      <c r="G7" s="2">
+        <v>202</v>
+      </c>
       <c r="H7" s="2">
         <v>0.1</v>
       </c>
@@ -2172,6 +2175,9 @@
       <c r="F8" s="8">
         <v>0.4</v>
       </c>
+      <c r="G8" s="2">
+        <v>102</v>
+      </c>
       <c r="H8" s="2">
         <v>0.2</v>
       </c>
@@ -2330,6 +2336,9 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
+      <c r="G9" s="2">
+        <v>201</v>
+      </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2">
         <v>0.3</v>
@@ -2809,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -5024,6 +5033,9 @@
       </c>
       <c r="F26" s="8">
         <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>202</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
